--- a/周数据/《个人上线率统计表》-潘辰.xlsx
+++ b/周数据/《个人上线率统计表》-潘辰.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21300" windowHeight="9330" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21300" windowHeight="9330" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="项目数据分析表" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="66">
   <si>
     <t>个人上线率分析表</t>
   </si>
@@ -146,14 +146,7 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>皇茶雨花台店</t>
-  </si>
-  <si>
     <t>潘辰</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>叶总</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
@@ -161,23 +154,7 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>老大薯条河西万达店</t>
-  </si>
-  <si>
-    <t>老大薯条</t>
-  </si>
-  <si>
-    <t>蔡总</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>王师傅私房牛肉面</t>
-  </si>
-  <si>
-    <t>单店</t>
-  </si>
-  <si>
-    <t>SAAS+微信</t>
   </si>
   <si>
     <t>店铺尚未开业</t>
@@ -185,10 +162,6 @@
   </si>
   <si>
     <t>连锁</t>
-  </si>
-  <si>
-    <t>汪冰洋</t>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>堵学军</t>
@@ -203,12 +176,67 @@
   <si>
     <t>制果家（邹城店）</t>
   </si>
+  <si>
+    <t>saas</t>
+  </si>
+  <si>
+    <t>南京御品殿餐饮管理有限公司</t>
+  </si>
+  <si>
+    <t>京茶山</t>
+  </si>
+  <si>
+    <t>南京</t>
+  </si>
+  <si>
+    <t>潘辰</t>
+  </si>
+  <si>
+    <t>高督导</t>
+  </si>
+  <si>
+    <t>督导</t>
+  </si>
+  <si>
+    <t>老品牌</t>
+  </si>
+  <si>
+    <t>王师傅私房牛肉面</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>杜老板</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>京茶山（下马坊店）</t>
+  </si>
+  <si>
+    <t>京茶山(江宁万达店)</t>
+  </si>
+  <si>
+    <t>花食间花艺</t>
+  </si>
+  <si>
+    <t>福客湾汽车</t>
+  </si>
+  <si>
+    <t>单店</t>
+  </si>
+  <si>
+    <t>李雪磊</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>沈芳芳</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -281,12 +309,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -332,7 +354,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -425,19 +447,6 @@
       </top>
       <bottom style="thin">
         <color indexed="44"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -714,7 +723,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -763,13 +772,10 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -793,10 +799,10 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -808,13 +814,13 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -826,25 +832,25 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -853,31 +859,31 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="7" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="7" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="7" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="7" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="5" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
@@ -886,37 +892,43 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1197,7 +1209,7 @@
   <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1210,276 +1222,279 @@
     <col min="7" max="7" width="15.5" style="9" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="17.875" style="9" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="17.875" style="9" customWidth="1"/>
-    <col min="10" max="10" width="17.875" style="25" customWidth="1"/>
+    <col min="10" max="10" width="17.875" style="24" customWidth="1"/>
     <col min="11" max="11" width="16" style="9" customWidth="1"/>
     <col min="12" max="12" width="17.875" style="9" customWidth="1"/>
     <col min="13" max="13" width="18.625" style="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="60"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
+      <c r="M1" s="63"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="D2" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="29" t="s">
+      <c r="E2" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="30" t="s">
+      <c r="F2" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="30" t="s">
+      <c r="G2" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="31" t="s">
+      <c r="H2" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="42" t="s">
+      <c r="I2" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="43" t="s">
+      <c r="J2" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="28" t="s">
+      <c r="K2" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="29" t="s">
+      <c r="L2" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="44" t="s">
+      <c r="M2" s="43" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A3" s="61"/>
-      <c r="B3" s="32">
-        <v>49</v>
-      </c>
-      <c r="C3" s="33">
+      <c r="A3" s="64"/>
+      <c r="B3" s="31">
+        <v>51</v>
+      </c>
+      <c r="C3" s="32">
         <v>1</v>
       </c>
-      <c r="D3" s="34">
+      <c r="D3" s="33">
         <v>1</v>
       </c>
-      <c r="E3" s="34">
+      <c r="E3" s="33">
         <f t="shared" ref="E3:E8" si="0">C3-D3</f>
         <v>0</v>
       </c>
-      <c r="F3" s="35"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="35">
+      <c r="F3" s="34"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="34">
         <f t="shared" ref="H3:H8" si="1">F3-G3</f>
         <v>0</v>
       </c>
-      <c r="I3" s="45"/>
-      <c r="J3" s="46">
+      <c r="I3" s="44">
+        <v>1</v>
+      </c>
+      <c r="J3" s="45">
         <f t="shared" ref="J3:J8" si="2">I3/L3*100%</f>
-        <v>0</v>
-      </c>
-      <c r="K3" s="47">
+        <v>1</v>
+      </c>
+      <c r="K3" s="46">
         <f t="shared" ref="K3:K8" si="3">C3+G3</f>
         <v>1</v>
       </c>
-      <c r="L3" s="48">
+      <c r="L3" s="47">
         <f t="shared" ref="L3:L8" si="4">D3+G3</f>
         <v>1</v>
       </c>
-      <c r="M3" s="49">
+      <c r="M3" s="48">
         <f t="shared" ref="M3:M8" si="5">L3/K3*100%</f>
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A4" s="61"/>
-      <c r="B4" s="32">
-        <v>51</v>
-      </c>
-      <c r="C4" s="33">
-        <v>1</v>
-      </c>
-      <c r="D4" s="34">
-        <v>1</v>
-      </c>
-      <c r="E4" s="34">
+      <c r="A4" s="64"/>
+      <c r="B4" s="31">
+        <v>52</v>
+      </c>
+      <c r="C4" s="32">
+        <v>5</v>
+      </c>
+      <c r="D4" s="33">
+        <v>3</v>
+      </c>
+      <c r="E4" s="33">
+        <v>2</v>
+      </c>
+      <c r="F4" s="34"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I4" s="44">
+        <v>2</v>
+      </c>
+      <c r="J4" s="45">
+        <f t="shared" si="2"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="K4" s="46">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="L4" s="47">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="M4" s="48">
+        <f t="shared" si="5"/>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A5" s="64"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F4" s="35"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="35">
+      <c r="F5" s="34"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="34">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I4" s="45"/>
-      <c r="J4" s="46">
+      <c r="I5" s="44"/>
+      <c r="J5" s="45" t="e">
         <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K5" s="46">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K4" s="47">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="L4" s="48">
+      <c r="L5" s="47">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="M4" s="49">
+        <v>0</v>
+      </c>
+      <c r="M5" s="48" t="e">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A5" s="61"/>
-      <c r="B5" s="32"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A6" s="64"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F5" s="35"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="35">
+      <c r="F6" s="34"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="34">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I5" s="45"/>
-      <c r="J5" s="46" t="e">
+      <c r="I6" s="44"/>
+      <c r="J6" s="45" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K5" s="47">
+      <c r="K6" s="46">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L5" s="48">
+      <c r="L6" s="47">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M5" s="49" t="e">
+      <c r="M6" s="48" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A6" s="61"/>
-      <c r="B6" s="32"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A7" s="64"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F6" s="35"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="35">
+      <c r="F7" s="34"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="34">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I6" s="45"/>
-      <c r="J6" s="46" t="e">
+      <c r="I7" s="44"/>
+      <c r="J7" s="45" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K6" s="47">
+      <c r="K7" s="46">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L6" s="48">
+      <c r="L7" s="47">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M6" s="49" t="e">
+      <c r="M7" s="48" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A7" s="61"/>
-      <c r="B7" s="32"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A8" s="65"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F7" s="35"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="35">
+      <c r="F8" s="39"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="39">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I7" s="45"/>
-      <c r="J7" s="46" t="e">
+      <c r="I8" s="49"/>
+      <c r="J8" s="50" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K7" s="47">
+      <c r="K8" s="51">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L7" s="48">
+      <c r="L8" s="52">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M7" s="49" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A8" s="62"/>
-      <c r="B8" s="37"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="39">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F8" s="40"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="40">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I8" s="50"/>
-      <c r="J8" s="51" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K8" s="52">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L8" s="53">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M8" s="54" t="e">
+      <c r="M8" s="53" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
@@ -1499,216 +1514,272 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O300"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="12.875" customWidth="1"/>
     <col min="2" max="3" width="11.5" customWidth="1"/>
-    <col min="4" max="4" width="17.625" customWidth="1"/>
-    <col min="5" max="5" width="12" customWidth="1"/>
+    <col min="4" max="4" width="26.125" customWidth="1"/>
+    <col min="5" max="5" width="16.625" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
     <col min="7" max="7" width="10.25" customWidth="1"/>
-    <col min="8" max="8" width="17.125" customWidth="1"/>
+    <col min="8" max="8" width="21.5" customWidth="1"/>
     <col min="9" max="9" width="9.875" customWidth="1"/>
     <col min="10" max="10" width="13.875" customWidth="1"/>
     <col min="11" max="11" width="18" customWidth="1"/>
     <col min="12" max="14" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="21" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:15" s="20" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A1" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="G1" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="24" t="s">
+      <c r="I1" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="23" t="s">
+      <c r="J1" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="23" t="s">
+      <c r="K1" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="22" t="s">
+      <c r="L1" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="M1" s="22" t="s">
+      <c r="M1" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="N1" s="22" t="s">
+      <c r="N1" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="22" t="s">
+      <c r="O1" s="21" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A2" s="1">
+      <c r="A2" s="8">
+        <v>51</v>
+      </c>
+      <c r="B2" s="54">
+        <v>43091</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="55">
-        <v>43077</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="D2" s="1" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="G2" s="1">
-        <v>76113115</v>
+        <v>76118226</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J2" s="56" t="s">
-        <v>41</v>
+        <v>52</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="K2" s="1">
         <v>18251920657</v>
       </c>
-      <c r="L2" s="56" t="s">
+      <c r="L2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="N2" s="1">
+        <v>15189977010</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A3" s="66">
+        <v>52</v>
+      </c>
+      <c r="B3" s="57">
+        <v>43094</v>
+      </c>
+      <c r="C3" s="58" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="59" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" s="59" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" s="58" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="58">
+        <v>76115279</v>
+      </c>
+      <c r="H3" s="58" t="s">
         <v>42</v>
       </c>
-      <c r="M2" s="56" t="s">
-        <v>43</v>
-      </c>
-      <c r="N2" s="1">
-        <v>18602500064</v>
-      </c>
-      <c r="O2" s="1" t="s">
+      <c r="I3" s="59" t="s">
+        <v>39</v>
+      </c>
+      <c r="J3" s="59" t="s">
+        <v>40</v>
+      </c>
+      <c r="K3" s="58">
+        <v>18251920657</v>
+      </c>
+      <c r="L3" s="59" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" s="59" t="s">
+        <v>41</v>
+      </c>
+      <c r="N3" s="58">
+        <v>15895843379</v>
+      </c>
+      <c r="O3" s="58" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A3" s="1">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A4" s="67"/>
+      <c r="B4" s="57">
+        <v>43093</v>
+      </c>
+      <c r="C4" s="58" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B3" s="55">
-        <v>43087</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="F4" s="58" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="58">
+        <v>76119063</v>
+      </c>
+      <c r="H4" s="58" t="s">
+        <v>59</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K4" s="1">
+        <v>18251920657</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="N4" s="1">
+        <v>15189977010</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A5" s="68"/>
+      <c r="B5" s="57">
+        <v>43095</v>
+      </c>
+      <c r="C5" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F3" s="1" t="s">
+      <c r="D5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="G3" s="1">
-        <v>76115281</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J3" s="56" t="s">
-        <v>41</v>
-      </c>
-      <c r="K3" s="1">
+      <c r="G5" s="1">
+        <v>76119382</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K5" s="1">
         <v>18251920657</v>
       </c>
-      <c r="L3" s="56" t="s">
-        <v>46</v>
-      </c>
-      <c r="M3" s="56" t="s">
-        <v>43</v>
-      </c>
-      <c r="N3" s="1">
-        <v>13400059888</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
+      <c r="L5" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="N5" s="1">
+        <v>15189977010</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
+      <c r="A6" s="58"/>
+      <c r="B6" s="58"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="58"/>
+      <c r="H6" s="58"/>
+      <c r="I6" s="58"/>
+      <c r="J6" s="58"/>
+      <c r="K6" s="58"/>
+      <c r="L6" s="58"/>
+      <c r="M6" s="58"/>
+      <c r="N6" s="58"/>
+      <c r="O6" s="58"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
@@ -6709,6 +6780,9 @@
       <c r="O300" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A3:A5"/>
+  </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <dataValidations count="4">
     <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1">
@@ -6717,7 +6791,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1">
       <formula1>"SaaS,库存,供应链,饮食通,饮食通老客户上线"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F65536">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2 F6:F65536">
       <formula1>"单店,小连锁,KA项目"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O65536">
@@ -6733,7 +6807,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G90"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
@@ -6772,72 +6846,54 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" s="63">
+      <c r="A2" s="66">
         <v>51</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="C2" s="67">
-        <v>43082</v>
-      </c>
-      <c r="D2" s="66" t="s">
-        <v>50</v>
+        <v>48</v>
+      </c>
+      <c r="C2" s="18">
+        <v>43089</v>
+      </c>
+      <c r="D2" s="56" t="s">
+        <v>43</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G2" s="56" t="s">
-        <v>52</v>
+        <v>46</v>
+      </c>
+      <c r="G2" s="55" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="64"/>
+      <c r="A3" s="67"/>
       <c r="B3" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="C3" s="19">
-        <v>43089</v>
-      </c>
-      <c r="D3" s="66" t="s">
-        <v>50</v>
+        <v>61</v>
+      </c>
+      <c r="C3" s="18">
+        <v>43096</v>
+      </c>
+      <c r="D3" s="56" t="s">
+        <v>43</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G3" s="56" t="s">
-        <v>53</v>
+        <v>46</v>
+      </c>
+      <c r="G3" s="55" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="64"/>
-      <c r="B4" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="C4" s="19">
-        <v>43089</v>
-      </c>
-      <c r="D4" s="66" t="s">
-        <v>50</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G4" s="56" t="s">
-        <v>53</v>
-      </c>
+      <c r="A4" s="67"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="64"/>
+      <c r="A5" s="67"/>
       <c r="B5" s="13"/>
       <c r="C5" s="13"/>
       <c r="D5" s="14"/>
@@ -6846,7 +6902,7 @@
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="64"/>
+      <c r="A6" s="67"/>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
       <c r="D6" s="14"/>
@@ -6855,7 +6911,7 @@
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="64"/>
+      <c r="A7" s="67"/>
       <c r="B7" s="13"/>
       <c r="C7" s="13"/>
       <c r="D7" s="14"/>
@@ -6864,7 +6920,7 @@
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" s="64"/>
+      <c r="A8" s="67"/>
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
       <c r="D8" s="14"/>
@@ -6873,7 +6929,7 @@
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A9" s="64"/>
+      <c r="A9" s="67"/>
       <c r="B9" s="13"/>
       <c r="C9" s="13"/>
       <c r="D9" s="14"/>
@@ -6882,7 +6938,7 @@
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A10" s="64"/>
+      <c r="A10" s="67"/>
       <c r="B10" s="13"/>
       <c r="C10" s="13"/>
       <c r="D10" s="14"/>
@@ -6891,7 +6947,7 @@
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A11" s="64"/>
+      <c r="A11" s="67"/>
       <c r="B11" s="13"/>
       <c r="C11" s="13"/>
       <c r="D11" s="14"/>
@@ -6900,7 +6956,7 @@
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A12" s="64"/>
+      <c r="A12" s="67"/>
       <c r="B12" s="13"/>
       <c r="C12" s="13"/>
       <c r="D12" s="14"/>
@@ -6909,7 +6965,7 @@
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A13" s="65"/>
+      <c r="A13" s="68"/>
       <c r="B13" s="13"/>
       <c r="C13" s="13"/>
       <c r="D13" s="14"/>
@@ -6917,35 +6973,49 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A14" s="63"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="15"/>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A14" s="66">
+        <v>50</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" s="18">
+        <v>43087</v>
+      </c>
+      <c r="D14" s="56" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G14" s="55" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="15" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A15" s="64"/>
+      <c r="A15" s="67"/>
       <c r="B15" s="15"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="16"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="15"/>
     </row>
     <row r="16" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A16" s="64"/>
+      <c r="A16" s="67"/>
       <c r="B16" s="13"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="16"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="13"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="64"/>
+      <c r="A17" s="67"/>
       <c r="B17" s="13"/>
       <c r="C17" s="13"/>
       <c r="D17" s="14"/>
@@ -6954,7 +7024,7 @@
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="64"/>
+      <c r="A18" s="67"/>
       <c r="B18" s="13"/>
       <c r="C18" s="13"/>
       <c r="D18" s="14"/>
@@ -6963,7 +7033,7 @@
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A19" s="64"/>
+      <c r="A19" s="67"/>
       <c r="B19" s="13"/>
       <c r="C19" s="13"/>
       <c r="D19" s="14"/>
@@ -6972,7 +7042,7 @@
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A20" s="64"/>
+      <c r="A20" s="67"/>
       <c r="B20" s="13"/>
       <c r="C20" s="13"/>
       <c r="D20" s="14"/>
@@ -6981,7 +7051,7 @@
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21" s="64"/>
+      <c r="A21" s="67"/>
       <c r="B21" s="13"/>
       <c r="C21" s="13"/>
       <c r="D21" s="14"/>
@@ -6990,7 +7060,7 @@
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="64"/>
+      <c r="A22" s="67"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="14"/>
@@ -6999,7 +7069,7 @@
       <c r="G22" s="1"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A23" s="64"/>
+      <c r="A23" s="67"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="14"/>
@@ -7008,7 +7078,7 @@
       <c r="G23" s="1"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A24" s="64"/>
+      <c r="A24" s="67"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="14"/>
@@ -7017,7 +7087,7 @@
       <c r="G24" s="1"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A25" s="64"/>
+      <c r="A25" s="67"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="14"/>
@@ -7026,7 +7096,7 @@
       <c r="G25" s="1"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A26" s="65"/>
+      <c r="A26" s="68"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="14"/>
@@ -7035,25 +7105,25 @@
       <c r="G26" s="1"/>
     </row>
     <row r="27" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A27" s="63"/>
+      <c r="A27" s="66"/>
       <c r="B27" s="15"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="17"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="16"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="15"/>
     </row>
     <row r="28" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A28" s="64"/>
+      <c r="A28" s="67"/>
       <c r="B28" s="13"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="17"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="16"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="13"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A29" s="64"/>
+      <c r="A29" s="67"/>
       <c r="B29" s="13"/>
       <c r="C29" s="13"/>
       <c r="D29" s="14"/>
@@ -7062,7 +7132,7 @@
       <c r="G29" s="1"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A30" s="64"/>
+      <c r="A30" s="67"/>
       <c r="B30" s="13"/>
       <c r="C30" s="13"/>
       <c r="D30" s="14"/>
@@ -7071,7 +7141,7 @@
       <c r="G30" s="1"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A31" s="64"/>
+      <c r="A31" s="67"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="14"/>
@@ -7080,7 +7150,7 @@
       <c r="G31" s="1"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A32" s="64"/>
+      <c r="A32" s="67"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="14"/>
@@ -7089,7 +7159,7 @@
       <c r="G32" s="1"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A33" s="64"/>
+      <c r="A33" s="67"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="14"/>
@@ -7098,7 +7168,7 @@
       <c r="G33" s="1"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A34" s="64"/>
+      <c r="A34" s="67"/>
       <c r="B34" s="13"/>
       <c r="C34" s="13"/>
       <c r="D34" s="14"/>
@@ -7107,7 +7177,7 @@
       <c r="G34" s="1"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A35" s="64"/>
+      <c r="A35" s="67"/>
       <c r="B35" s="13"/>
       <c r="C35" s="13"/>
       <c r="D35" s="14"/>
@@ -7116,7 +7186,7 @@
       <c r="G35" s="1"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A36" s="64"/>
+      <c r="A36" s="67"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="14"/>
@@ -7125,7 +7195,7 @@
       <c r="G36" s="1"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A37" s="64"/>
+      <c r="A37" s="67"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="14"/>
@@ -7134,7 +7204,7 @@
       <c r="G37" s="1"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A38" s="64"/>
+      <c r="A38" s="67"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="14"/>
@@ -7143,7 +7213,7 @@
       <c r="G38" s="1"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A39" s="64"/>
+      <c r="A39" s="67"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="14"/>
@@ -7152,7 +7222,7 @@
       <c r="G39" s="1"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A40" s="64"/>
+      <c r="A40" s="67"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="14"/>
@@ -7161,7 +7231,7 @@
       <c r="G40" s="1"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A41" s="65"/>
+      <c r="A41" s="68"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="14"/>
@@ -7170,25 +7240,25 @@
       <c r="G41" s="1"/>
     </row>
     <row r="42" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A42" s="63"/>
+      <c r="A42" s="66"/>
       <c r="B42" s="13"/>
-      <c r="C42" s="18"/>
-      <c r="D42" s="17"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="16"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
       <c r="G42" s="13"/>
     </row>
     <row r="43" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A43" s="64"/>
+      <c r="A43" s="67"/>
       <c r="B43" s="13"/>
-      <c r="C43" s="19"/>
-      <c r="D43" s="17"/>
+      <c r="C43" s="18"/>
+      <c r="D43" s="16"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
       <c r="G43" s="8"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A44" s="64"/>
+      <c r="A44" s="67"/>
       <c r="B44" s="13"/>
       <c r="C44" s="13"/>
       <c r="D44" s="14"/>
@@ -7197,7 +7267,7 @@
       <c r="G44" s="1"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A45" s="64"/>
+      <c r="A45" s="67"/>
       <c r="B45" s="13"/>
       <c r="C45" s="13"/>
       <c r="D45" s="14"/>
@@ -7206,7 +7276,7 @@
       <c r="G45" s="1"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A46" s="64"/>
+      <c r="A46" s="67"/>
       <c r="B46" s="13"/>
       <c r="C46" s="13"/>
       <c r="D46" s="14"/>
@@ -7215,7 +7285,7 @@
       <c r="G46" s="1"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A47" s="64"/>
+      <c r="A47" s="67"/>
       <c r="B47" s="13"/>
       <c r="C47" s="13"/>
       <c r="D47" s="14"/>
@@ -7224,7 +7294,7 @@
       <c r="G47" s="1"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A48" s="64"/>
+      <c r="A48" s="67"/>
       <c r="B48" s="13"/>
       <c r="C48" s="13"/>
       <c r="D48" s="14"/>
@@ -7233,7 +7303,7 @@
       <c r="G48" s="1"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A49" s="64"/>
+      <c r="A49" s="67"/>
       <c r="B49" s="13"/>
       <c r="C49" s="13"/>
       <c r="D49" s="14"/>
@@ -7242,7 +7312,7 @@
       <c r="G49" s="1"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A50" s="64"/>
+      <c r="A50" s="67"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="14"/>
@@ -7251,7 +7321,7 @@
       <c r="G50" s="1"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A51" s="64"/>
+      <c r="A51" s="67"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="14"/>
@@ -7260,7 +7330,7 @@
       <c r="G51" s="1"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A52" s="64"/>
+      <c r="A52" s="67"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="14"/>
@@ -7269,7 +7339,7 @@
       <c r="G52" s="1"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A53" s="64"/>
+      <c r="A53" s="67"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="14"/>
@@ -7278,7 +7348,7 @@
       <c r="G53" s="1"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A54" s="64"/>
+      <c r="A54" s="67"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="14"/>
@@ -7287,7 +7357,7 @@
       <c r="G54" s="1"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A55" s="64"/>
+      <c r="A55" s="67"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="14"/>
@@ -7296,7 +7366,7 @@
       <c r="G55" s="1"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A56" s="65"/>
+      <c r="A56" s="68"/>
       <c r="B56" s="13"/>
       <c r="C56" s="13"/>
       <c r="D56" s="14"/>
@@ -7305,43 +7375,43 @@
       <c r="G56" s="1"/>
     </row>
     <row r="57" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A57" s="63"/>
+      <c r="A57" s="66"/>
       <c r="B57" s="13"/>
-      <c r="C57" s="18"/>
-      <c r="D57" s="17"/>
+      <c r="C57" s="17"/>
+      <c r="D57" s="16"/>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
       <c r="G57" s="13"/>
     </row>
     <row r="58" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A58" s="64"/>
+      <c r="A58" s="67"/>
       <c r="B58" s="13"/>
-      <c r="C58" s="19"/>
-      <c r="D58" s="17"/>
+      <c r="C58" s="18"/>
+      <c r="D58" s="16"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
       <c r="G58" s="8"/>
     </row>
     <row r="59" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A59" s="64"/>
+      <c r="A59" s="67"/>
       <c r="B59" s="13"/>
-      <c r="C59" s="19"/>
-      <c r="D59" s="17"/>
+      <c r="C59" s="18"/>
+      <c r="D59" s="16"/>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
       <c r="G59" s="8"/>
     </row>
     <row r="60" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A60" s="64"/>
+      <c r="A60" s="67"/>
       <c r="B60" s="13"/>
-      <c r="C60" s="19"/>
-      <c r="D60" s="17"/>
+      <c r="C60" s="18"/>
+      <c r="D60" s="16"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
-      <c r="G60" s="20"/>
+      <c r="G60" s="19"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A61" s="64"/>
+      <c r="A61" s="67"/>
       <c r="B61" s="13"/>
       <c r="C61" s="13"/>
       <c r="D61" s="14"/>
@@ -7350,7 +7420,7 @@
       <c r="G61" s="1"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A62" s="64"/>
+      <c r="A62" s="67"/>
       <c r="B62" s="13"/>
       <c r="C62" s="13"/>
       <c r="D62" s="14"/>
@@ -7359,7 +7429,7 @@
       <c r="G62" s="1"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A63" s="64"/>
+      <c r="A63" s="67"/>
       <c r="B63" s="13"/>
       <c r="C63" s="13"/>
       <c r="D63" s="14"/>
@@ -7368,7 +7438,7 @@
       <c r="G63" s="1"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A64" s="64"/>
+      <c r="A64" s="67"/>
       <c r="B64" s="13"/>
       <c r="C64" s="13"/>
       <c r="D64" s="14"/>
@@ -7377,7 +7447,7 @@
       <c r="G64" s="1"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A65" s="64"/>
+      <c r="A65" s="67"/>
       <c r="B65" s="13"/>
       <c r="C65" s="13"/>
       <c r="D65" s="14"/>
@@ -7386,7 +7456,7 @@
       <c r="G65" s="1"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A66" s="64"/>
+      <c r="A66" s="67"/>
       <c r="B66" s="13"/>
       <c r="C66" s="13"/>
       <c r="D66" s="14"/>
@@ -7395,7 +7465,7 @@
       <c r="G66" s="1"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A67" s="64"/>
+      <c r="A67" s="67"/>
       <c r="B67" s="13"/>
       <c r="C67" s="13"/>
       <c r="D67" s="14"/>
@@ -7404,7 +7474,7 @@
       <c r="G67" s="1"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A68" s="65"/>
+      <c r="A68" s="68"/>
       <c r="B68" s="13"/>
       <c r="C68" s="13"/>
       <c r="D68" s="14"/>
@@ -7413,43 +7483,43 @@
       <c r="G68" s="1"/>
     </row>
     <row r="69" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A69" s="63"/>
+      <c r="A69" s="66"/>
       <c r="B69" s="13"/>
-      <c r="C69" s="18"/>
-      <c r="D69" s="17"/>
+      <c r="C69" s="17"/>
+      <c r="D69" s="16"/>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
       <c r="G69" s="13"/>
     </row>
     <row r="70" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A70" s="64"/>
+      <c r="A70" s="67"/>
       <c r="B70" s="13"/>
-      <c r="C70" s="19"/>
-      <c r="D70" s="17"/>
+      <c r="C70" s="18"/>
+      <c r="D70" s="16"/>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
       <c r="G70" s="8"/>
     </row>
     <row r="71" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A71" s="64"/>
+      <c r="A71" s="67"/>
       <c r="B71" s="13"/>
-      <c r="C71" s="19"/>
-      <c r="D71" s="17"/>
+      <c r="C71" s="18"/>
+      <c r="D71" s="16"/>
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
       <c r="G71" s="8"/>
     </row>
     <row r="72" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A72" s="64"/>
+      <c r="A72" s="67"/>
       <c r="B72" s="13"/>
-      <c r="C72" s="19"/>
-      <c r="D72" s="17"/>
+      <c r="C72" s="18"/>
+      <c r="D72" s="16"/>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
-      <c r="G72" s="20"/>
+      <c r="G72" s="19"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A73" s="64"/>
+      <c r="A73" s="67"/>
       <c r="B73" s="13"/>
       <c r="C73" s="13"/>
       <c r="D73" s="14"/>
@@ -7458,7 +7528,7 @@
       <c r="G73" s="1"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A74" s="64"/>
+      <c r="A74" s="67"/>
       <c r="B74" s="13"/>
       <c r="C74" s="13"/>
       <c r="D74" s="14"/>
@@ -7467,7 +7537,7 @@
       <c r="G74" s="1"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A75" s="64"/>
+      <c r="A75" s="67"/>
       <c r="B75" s="13"/>
       <c r="C75" s="13"/>
       <c r="D75" s="14"/>
@@ -7476,7 +7546,7 @@
       <c r="G75" s="1"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A76" s="64"/>
+      <c r="A76" s="67"/>
       <c r="B76" s="13"/>
       <c r="C76" s="13"/>
       <c r="D76" s="14"/>
@@ -7485,7 +7555,7 @@
       <c r="G76" s="1"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A77" s="64"/>
+      <c r="A77" s="67"/>
       <c r="B77" s="13"/>
       <c r="C77" s="13"/>
       <c r="D77" s="14"/>
@@ -7494,7 +7564,7 @@
       <c r="G77" s="1"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A78" s="64"/>
+      <c r="A78" s="67"/>
       <c r="B78" s="13"/>
       <c r="C78" s="13"/>
       <c r="D78" s="14"/>
@@ -7503,7 +7573,7 @@
       <c r="G78" s="1"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A79" s="64"/>
+      <c r="A79" s="67"/>
       <c r="B79" s="13"/>
       <c r="C79" s="13"/>
       <c r="D79" s="14"/>
@@ -7512,7 +7582,7 @@
       <c r="G79" s="1"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A80" s="65"/>
+      <c r="A80" s="68"/>
       <c r="B80" s="13"/>
       <c r="C80" s="13"/>
       <c r="D80" s="14"/>
@@ -7521,25 +7591,25 @@
       <c r="G80" s="1"/>
     </row>
     <row r="81" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A81" s="64"/>
+      <c r="A81" s="67"/>
       <c r="B81" s="13"/>
-      <c r="C81" s="19"/>
-      <c r="D81" s="17"/>
+      <c r="C81" s="18"/>
+      <c r="D81" s="16"/>
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
       <c r="G81" s="8"/>
     </row>
     <row r="82" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A82" s="64"/>
+      <c r="A82" s="67"/>
       <c r="B82" s="13"/>
-      <c r="C82" s="19"/>
-      <c r="D82" s="17"/>
+      <c r="C82" s="18"/>
+      <c r="D82" s="16"/>
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
-      <c r="G82" s="20"/>
+      <c r="G82" s="19"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A83" s="64"/>
+      <c r="A83" s="67"/>
       <c r="B83" s="13"/>
       <c r="C83" s="13"/>
       <c r="D83" s="14"/>
@@ -7548,7 +7618,7 @@
       <c r="G83" s="1"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A84" s="64"/>
+      <c r="A84" s="67"/>
       <c r="B84" s="13"/>
       <c r="C84" s="13"/>
       <c r="D84" s="14"/>
@@ -7557,7 +7627,7 @@
       <c r="G84" s="1"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A85" s="64"/>
+      <c r="A85" s="67"/>
       <c r="B85" s="13"/>
       <c r="C85" s="13"/>
       <c r="D85" s="14"/>
@@ -7566,7 +7636,7 @@
       <c r="G85" s="1"/>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A86" s="64"/>
+      <c r="A86" s="67"/>
       <c r="B86" s="13"/>
       <c r="C86" s="13"/>
       <c r="D86" s="14"/>
@@ -7575,7 +7645,7 @@
       <c r="G86" s="1"/>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A87" s="64"/>
+      <c r="A87" s="67"/>
       <c r="B87" s="13"/>
       <c r="C87" s="13"/>
       <c r="D87" s="14"/>
@@ -7584,7 +7654,7 @@
       <c r="G87" s="1"/>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A88" s="64"/>
+      <c r="A88" s="67"/>
       <c r="B88" s="13"/>
       <c r="C88" s="13"/>
       <c r="D88" s="14"/>
@@ -7593,7 +7663,7 @@
       <c r="G88" s="1"/>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A89" s="64"/>
+      <c r="A89" s="67"/>
       <c r="B89" s="13"/>
       <c r="C89" s="13"/>
       <c r="D89" s="14"/>
@@ -7602,7 +7672,7 @@
       <c r="G89" s="1"/>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A90" s="65"/>
+      <c r="A90" s="68"/>
       <c r="B90" s="13"/>
       <c r="C90" s="13"/>
       <c r="D90" s="14"/>
@@ -7623,10 +7693,10 @@
   <phoneticPr fontId="9" type="noConversion"/>
   <dataValidations count="3">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E65536">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E3 E5:E65536">
       <formula1>"单店,连锁,KA,供应链"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="saas" sqref="F2:F65536">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="saas" sqref="F2:F3 F5:F65536">
       <formula1>"SAAS,供应链,SAAS+微信,SAAS+供应链,SAAS+微信+供应链"</formula1>
     </dataValidation>
   </dataValidations>

--- a/周数据/《个人上线率统计表》-潘辰.xlsx
+++ b/周数据/《个人上线率统计表》-潘辰.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="78">
   <si>
     <t>个人上线率分析表</t>
   </si>
@@ -146,11 +146,28 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
+    <t>皇茶雨花台店</t>
+  </si>
+  <si>
     <t>潘辰</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
+    <t>叶总</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
     <t>老板</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>老大薯条河西万达店</t>
+  </si>
+  <si>
+    <t>老大薯条</t>
+  </si>
+  <si>
+    <t>蔡总</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
@@ -177,7 +194,35 @@
     <t>制果家（邹城店）</t>
   </si>
   <si>
-    <t>saas</t>
+    <t>王师傅私房牛肉面</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>yo果吧（芜湖八佰伴店）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>南京呦果餐饮管理有限公司</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>yo果吧</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>yo果吧（吾悦广场店）</t>
+  </si>
+  <si>
+    <t>京茶山手作茶物（常州吾悦店）</t>
+  </si>
+  <si>
+    <t>京茶山手作茶物（高淳店）</t>
+  </si>
+  <si>
+    <t>京茶山手作茶物（三亚店）</t>
+  </si>
+  <si>
+    <t>京茶山手作茶物（义兴巷店）</t>
   </si>
   <si>
     <t>南京御品殿餐饮管理有限公司</t>
@@ -186,22 +231,42 @@
     <t>京茶山</t>
   </si>
   <si>
-    <t>南京</t>
+    <t>安徽</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>潘辰</t>
+    <t>常州</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>高督导</t>
-  </si>
-  <si>
-    <t>督导</t>
+    <t>三亚</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>老品牌</t>
   </si>
   <si>
-    <t>王师傅私房牛肉面</t>
+    <t>南京御品殿餐饮管理有限公司</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>皇茶雨花台店</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>丁总</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>老板</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>高督导</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>督导</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
@@ -209,34 +274,17 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>京茶山（下马坊店）</t>
-  </si>
-  <si>
     <t>京茶山(江宁万达店)</t>
   </si>
   <si>
-    <t>花食间花艺</t>
-  </si>
-  <si>
-    <t>福客湾汽车</t>
-  </si>
-  <si>
-    <t>单店</t>
-  </si>
-  <si>
-    <t>李雪磊</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>沈芳芳</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <t>京茶山（下马坊店）</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -309,6 +357,12 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -354,7 +408,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -447,6 +501,19 @@
       </top>
       <bottom style="thin">
         <color indexed="44"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -723,7 +790,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -772,10 +839,13 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -799,10 +869,10 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -814,13 +884,13 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -832,25 +902,25 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -859,31 +929,31 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="7" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="7" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="7" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="7" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="5" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
@@ -895,37 +965,31 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1209,7 +1273,7 @@
   <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1222,279 +1286,288 @@
     <col min="7" max="7" width="15.5" style="9" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="17.875" style="9" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="17.875" style="9" customWidth="1"/>
-    <col min="10" max="10" width="17.875" style="24" customWidth="1"/>
+    <col min="10" max="10" width="17.875" style="25" customWidth="1"/>
     <col min="11" max="11" width="16" style="9" customWidth="1"/>
     <col min="12" max="12" width="17.875" style="9" customWidth="1"/>
     <col min="13" max="13" width="18.625" style="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
-      <c r="M1" s="63"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="62"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="28" t="s">
+      <c r="E2" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="29" t="s">
+      <c r="F2" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="29" t="s">
+      <c r="G2" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="30" t="s">
+      <c r="H2" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="41" t="s">
+      <c r="I2" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="42" t="s">
+      <c r="J2" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="27" t="s">
+      <c r="K2" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="28" t="s">
+      <c r="L2" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="43" t="s">
+      <c r="M2" s="44" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A3" s="64"/>
-      <c r="B3" s="31">
-        <v>51</v>
-      </c>
-      <c r="C3" s="32">
+      <c r="A3" s="63"/>
+      <c r="B3" s="32">
+        <v>48</v>
+      </c>
+      <c r="C3" s="33">
+        <v>4</v>
+      </c>
+      <c r="D3" s="34">
         <v>1</v>
       </c>
-      <c r="D3" s="33">
-        <v>1</v>
-      </c>
-      <c r="E3" s="33">
+      <c r="E3" s="34">
         <f t="shared" ref="E3:E8" si="0">C3-D3</f>
-        <v>0</v>
-      </c>
-      <c r="F3" s="34"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="34">
+        <v>3</v>
+      </c>
+      <c r="F3" s="35"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="35">
         <f t="shared" ref="H3:H8" si="1">F3-G3</f>
         <v>0</v>
       </c>
-      <c r="I3" s="44">
-        <v>1</v>
-      </c>
-      <c r="J3" s="45">
+      <c r="I3" s="45"/>
+      <c r="J3" s="46">
         <f t="shared" ref="J3:J8" si="2">I3/L3*100%</f>
-        <v>1</v>
-      </c>
-      <c r="K3" s="46">
+        <v>0</v>
+      </c>
+      <c r="K3" s="47">
         <f t="shared" ref="K3:K8" si="3">C3+G3</f>
-        <v>1</v>
-      </c>
-      <c r="L3" s="47">
+        <v>4</v>
+      </c>
+      <c r="L3" s="48">
         <f t="shared" ref="L3:L8" si="4">D3+G3</f>
         <v>1</v>
       </c>
-      <c r="M3" s="48">
+      <c r="M3" s="49">
         <f t="shared" ref="M3:M8" si="5">L3/K3*100%</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A4" s="63"/>
+      <c r="B4" s="32">
+        <v>49</v>
+      </c>
+      <c r="C4" s="33">
+        <v>4</v>
+      </c>
+      <c r="D4" s="34">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A4" s="64"/>
-      <c r="B4" s="31">
-        <v>52</v>
-      </c>
-      <c r="C4" s="32">
-        <v>5</v>
-      </c>
-      <c r="D4" s="33">
+      <c r="E4" s="34">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E4" s="33">
-        <v>2</v>
-      </c>
-      <c r="F4" s="34"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="34">
+      <c r="F4" s="35"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="35">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I4" s="44">
-        <v>2</v>
-      </c>
-      <c r="J4" s="45">
+      <c r="I4" s="45"/>
+      <c r="J4" s="46">
         <f t="shared" si="2"/>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="K4" s="46">
+        <v>0</v>
+      </c>
+      <c r="K4" s="47">
         <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="L4" s="47">
+        <v>4</v>
+      </c>
+      <c r="L4" s="48">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="M4" s="49">
+        <f t="shared" si="5"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A5" s="63"/>
+      <c r="B5" s="32">
+        <v>50</v>
+      </c>
+      <c r="C5" s="33">
+        <v>1</v>
+      </c>
+      <c r="D5" s="34">
+        <v>1</v>
+      </c>
+      <c r="E5" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F5" s="35"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I5" s="45"/>
+      <c r="J5" s="46">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K5" s="47">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="L5" s="48">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="M5" s="49">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A6" s="63"/>
+      <c r="B6" s="32">
+        <v>52</v>
+      </c>
+      <c r="C6" s="33">
+        <v>3</v>
+      </c>
+      <c r="D6" s="34">
+        <v>3</v>
+      </c>
+      <c r="E6" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F6" s="35"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I6" s="45"/>
+      <c r="J6" s="46">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K6" s="47">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="L6" s="48">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="M4" s="48">
+      <c r="M6" s="49">
         <f t="shared" si="5"/>
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A5" s="64"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A7" s="63"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F5" s="34"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="34">
+      <c r="F7" s="35"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="35">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I5" s="44"/>
-      <c r="J5" s="45" t="e">
+      <c r="I7" s="45"/>
+      <c r="J7" s="46" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K5" s="46">
+      <c r="K7" s="47">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L5" s="47">
+      <c r="L7" s="48">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M5" s="48" t="e">
+      <c r="M7" s="49" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A6" s="64"/>
-      <c r="B6" s="31"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A8" s="64"/>
+      <c r="B8" s="37"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F6" s="34"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="34">
+      <c r="F8" s="40"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="40">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I6" s="44"/>
-      <c r="J6" s="45" t="e">
+      <c r="I8" s="50"/>
+      <c r="J8" s="51" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K6" s="46">
+      <c r="K8" s="52">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L6" s="47">
+      <c r="L8" s="53">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M6" s="48" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A7" s="64"/>
-      <c r="B7" s="31"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F7" s="34"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="34">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I7" s="44"/>
-      <c r="J7" s="45" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K7" s="46">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L7" s="47">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M7" s="48" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A8" s="65"/>
-      <c r="B8" s="36"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F8" s="39"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="39">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I8" s="49"/>
-      <c r="J8" s="50" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K8" s="51">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L8" s="52">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M8" s="53" t="e">
+      <c r="M8" s="54" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
@@ -1514,406 +1587,634 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O300"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="12.875" customWidth="1"/>
     <col min="2" max="3" width="11.5" customWidth="1"/>
-    <col min="4" max="4" width="26.125" customWidth="1"/>
-    <col min="5" max="5" width="16.625" customWidth="1"/>
+    <col min="4" max="4" width="26" customWidth="1"/>
+    <col min="5" max="5" width="17.25" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
-    <col min="7" max="7" width="10.25" customWidth="1"/>
-    <col min="8" max="8" width="21.5" customWidth="1"/>
+    <col min="7" max="7" width="15.5" customWidth="1"/>
+    <col min="8" max="8" width="26.875" customWidth="1"/>
     <col min="9" max="9" width="9.875" customWidth="1"/>
     <col min="10" max="10" width="13.875" customWidth="1"/>
     <col min="11" max="11" width="18" customWidth="1"/>
     <col min="12" max="14" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="20" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:15" s="21" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A1" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="23" t="s">
+      <c r="I1" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="22" t="s">
+      <c r="J1" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="22" t="s">
+      <c r="K1" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="21" t="s">
+      <c r="L1" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="M1" s="21" t="s">
+      <c r="M1" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="N1" s="21" t="s">
+      <c r="N1" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="21" t="s">
+      <c r="O1" s="22" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A2" s="8">
-        <v>51</v>
-      </c>
-      <c r="B2" s="54">
-        <v>43091</v>
+      <c r="A2" s="65">
+        <v>48</v>
+      </c>
+      <c r="B2" s="55">
+        <v>43070</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>52</v>
+        <v>37</v>
+      </c>
+      <c r="D2" s="56" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" s="56" t="s">
+        <v>57</v>
+      </c>
+      <c r="F2" s="56" t="s">
+        <v>65</v>
       </c>
       <c r="G2" s="1">
-        <v>76118226</v>
+        <v>76112262</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
+      </c>
+      <c r="I2" s="56" t="s">
+        <v>39</v>
+      </c>
+      <c r="J2" s="56" t="s">
+        <v>41</v>
       </c>
       <c r="K2" s="1">
         <v>18251920657</v>
       </c>
-      <c r="L2" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>55</v>
+      <c r="L2" s="56" t="s">
+        <v>71</v>
+      </c>
+      <c r="M2" s="56" t="s">
+        <v>72</v>
       </c>
       <c r="N2" s="1">
-        <v>15189977010</v>
+        <v>15996485371</v>
       </c>
       <c r="O2" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A3" s="66"/>
+      <c r="B3" s="55">
+        <v>43070</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="56" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A3" s="66">
-        <v>52</v>
-      </c>
-      <c r="B3" s="57">
-        <v>43094</v>
-      </c>
-      <c r="C3" s="58" t="s">
+      <c r="E3" s="56" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="1">
+        <v>76112263</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I3" s="56" t="s">
+        <v>39</v>
+      </c>
+      <c r="J3" s="56" t="s">
+        <v>41</v>
+      </c>
+      <c r="K3" s="1">
+        <v>18251920657</v>
+      </c>
+      <c r="L3" s="56" t="s">
+        <v>71</v>
+      </c>
+      <c r="M3" s="56" t="s">
+        <v>72</v>
+      </c>
+      <c r="N3" s="1">
+        <v>15996485371</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A4" s="66"/>
+      <c r="B4" s="55">
+        <v>43070</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="59" t="s">
-        <v>57</v>
-      </c>
-      <c r="E3" s="59" t="s">
-        <v>57</v>
-      </c>
-      <c r="F3" s="58" t="s">
+      <c r="D4" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F4" s="56" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" s="1">
+        <v>76112265</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I4" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="G3" s="58">
-        <v>76115279</v>
-      </c>
-      <c r="H3" s="58" t="s">
-        <v>42</v>
-      </c>
-      <c r="I3" s="59" t="s">
-        <v>39</v>
-      </c>
-      <c r="J3" s="59" t="s">
-        <v>40</v>
-      </c>
-      <c r="K3" s="58">
-        <v>18251920657</v>
-      </c>
-      <c r="L3" s="59" t="s">
-        <v>58</v>
-      </c>
-      <c r="M3" s="59" t="s">
+      <c r="J4" s="56" t="s">
         <v>41</v>
-      </c>
-      <c r="N3" s="58">
-        <v>15895843379</v>
-      </c>
-      <c r="O3" s="58" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A4" s="67"/>
-      <c r="B4" s="57">
-        <v>43093</v>
-      </c>
-      <c r="C4" s="58" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F4" s="58" t="s">
-        <v>39</v>
-      </c>
-      <c r="G4" s="58">
-        <v>76119063</v>
-      </c>
-      <c r="H4" s="58" t="s">
-        <v>59</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>53</v>
       </c>
       <c r="K4" s="1">
         <v>18251920657</v>
       </c>
-      <c r="L4" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>55</v>
+      <c r="L4" s="56" t="s">
+        <v>73</v>
+      </c>
+      <c r="M4" s="56" t="s">
+        <v>74</v>
       </c>
       <c r="N4" s="1">
         <v>15189977010</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A5" s="68"/>
-      <c r="B5" s="57">
-        <v>43095</v>
-      </c>
-      <c r="C5" s="58" t="s">
+      <c r="A5" s="67"/>
+      <c r="B5" s="55">
+        <v>43071</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>50</v>
+      <c r="D5" s="56" t="s">
+        <v>69</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F5" s="58" t="s">
+        <v>64</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>39</v>
       </c>
       <c r="G5" s="1">
-        <v>76119382</v>
+        <v>76112267</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="I5" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>53</v>
+      <c r="I5" s="56" t="s">
+        <v>39</v>
+      </c>
+      <c r="J5" s="56" t="s">
+        <v>41</v>
       </c>
       <c r="K5" s="1">
         <v>18251920657</v>
       </c>
-      <c r="L5" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>55</v>
+      <c r="L5" s="56" t="s">
+        <v>73</v>
+      </c>
+      <c r="M5" s="56" t="s">
+        <v>74</v>
       </c>
       <c r="N5" s="1">
         <v>15189977010</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A6" s="58"/>
-      <c r="B6" s="58"/>
-      <c r="C6" s="58"/>
-      <c r="D6" s="58"/>
-      <c r="E6" s="58"/>
-      <c r="F6" s="58"/>
-      <c r="G6" s="58"/>
-      <c r="H6" s="58"/>
-      <c r="I6" s="58"/>
-      <c r="J6" s="58"/>
-      <c r="K6" s="58"/>
-      <c r="L6" s="58"/>
-      <c r="M6" s="58"/>
-      <c r="N6" s="58"/>
-      <c r="O6" s="58"/>
+      <c r="A6" s="65">
+        <v>49</v>
+      </c>
+      <c r="B6" s="55">
+        <v>43072</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F6" s="56" t="s">
+        <v>67</v>
+      </c>
+      <c r="G6" s="1">
+        <v>76112691</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I6" s="56" t="s">
+        <v>39</v>
+      </c>
+      <c r="J6" s="56" t="s">
+        <v>41</v>
+      </c>
+      <c r="K6" s="1">
+        <v>18251920657</v>
+      </c>
+      <c r="L6" s="56" t="s">
+        <v>73</v>
+      </c>
+      <c r="M6" s="56" t="s">
+        <v>74</v>
+      </c>
+      <c r="N6" s="1">
+        <v>15189977010</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
+      <c r="A7" s="66"/>
+      <c r="B7" s="55">
+        <v>43073</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="1">
+        <v>76118226</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I7" s="56" t="s">
+        <v>39</v>
+      </c>
+      <c r="J7" s="56" t="s">
+        <v>41</v>
+      </c>
+      <c r="K7" s="1">
+        <v>18251920657</v>
+      </c>
+      <c r="L7" s="56" t="s">
+        <v>73</v>
+      </c>
+      <c r="M7" s="56" t="s">
+        <v>74</v>
+      </c>
+      <c r="N7" s="1">
+        <v>15189977010</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
+      <c r="A8" s="66"/>
+      <c r="B8" s="55">
+        <v>43077</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" s="1">
+        <v>76111625</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I8" s="56" t="s">
+        <v>39</v>
+      </c>
+      <c r="J8" s="56" t="s">
+        <v>41</v>
+      </c>
+      <c r="K8" s="1">
+        <v>18251920657</v>
+      </c>
+      <c r="L8" s="56" t="s">
+        <v>73</v>
+      </c>
+      <c r="M8" s="56" t="s">
+        <v>74</v>
+      </c>
+      <c r="N8" s="1">
+        <v>15189977010</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
+      <c r="A9" s="67"/>
+      <c r="B9" s="55">
+        <v>43077</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="56" t="s">
+        <v>70</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" s="1">
+        <v>76113115</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I9" s="56" t="s">
+        <v>39</v>
+      </c>
+      <c r="J9" s="56" t="s">
+        <v>41</v>
+      </c>
+      <c r="K9" s="1">
+        <v>18251920657</v>
+      </c>
+      <c r="L9" s="56" t="s">
+        <v>42</v>
+      </c>
+      <c r="M9" s="56" t="s">
+        <v>43</v>
+      </c>
+      <c r="N9" s="1">
+        <v>18602500064</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
+      <c r="A10" s="8">
+        <v>50</v>
+      </c>
+      <c r="B10" s="55">
+        <v>43084</v>
+      </c>
+      <c r="C10" s="56" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" s="1">
+        <v>76115281</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I10" s="56" t="s">
+        <v>39</v>
+      </c>
+      <c r="J10" s="56" t="s">
+        <v>41</v>
+      </c>
+      <c r="K10" s="1">
+        <v>18251920657</v>
+      </c>
+      <c r="L10" s="56" t="s">
+        <v>46</v>
+      </c>
+      <c r="M10" s="56" t="s">
+        <v>43</v>
+      </c>
+      <c r="N10" s="1">
+        <v>13400059888</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
+      <c r="A11" s="65">
+        <v>52</v>
+      </c>
+      <c r="B11" s="55">
+        <v>43094</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="56" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="56" t="s">
+        <v>54</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" s="1">
+        <v>76115279</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" s="56" t="s">
+        <v>39</v>
+      </c>
+      <c r="J11" s="56" t="s">
+        <v>41</v>
+      </c>
+      <c r="K11" s="1">
+        <v>18251920657</v>
+      </c>
+      <c r="L11" s="56" t="s">
+        <v>75</v>
+      </c>
+      <c r="M11" s="56" t="s">
+        <v>72</v>
+      </c>
+      <c r="N11" s="1">
+        <v>15895843379</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
+      <c r="A12" s="66"/>
+      <c r="B12" s="55">
+        <v>43095</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="56" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G12" s="1">
+        <v>76119382</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I12" s="56" t="s">
+        <v>39</v>
+      </c>
+      <c r="J12" s="56" t="s">
+        <v>41</v>
+      </c>
+      <c r="K12" s="1">
+        <v>18251920657</v>
+      </c>
+      <c r="L12" s="56" t="s">
+        <v>73</v>
+      </c>
+      <c r="M12" s="56" t="s">
+        <v>74</v>
+      </c>
+      <c r="N12" s="1">
+        <v>15189977010</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
+      <c r="A13" s="67"/>
+      <c r="B13" s="55">
+        <v>43096</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="56" t="s">
+        <v>69</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G13" s="1">
+        <v>76119063</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I13" s="56" t="s">
+        <v>39</v>
+      </c>
+      <c r="J13" s="56" t="s">
+        <v>41</v>
+      </c>
+      <c r="K13" s="1">
+        <v>18251920657</v>
+      </c>
+      <c r="L13" s="56" t="s">
+        <v>73</v>
+      </c>
+      <c r="M13" s="56" t="s">
+        <v>74</v>
+      </c>
+      <c r="N13" s="1">
+        <v>15189977010</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
+      <c r="B14" s="55"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="56"/>
       <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
+      <c r="L14" s="56"/>
+      <c r="M14" s="56"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
     </row>
@@ -6780,8 +7081,10 @@
       <c r="O300" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A3:A5"/>
+  <mergeCells count="3">
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A11:A13"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <dataValidations count="4">
@@ -6791,7 +7094,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1">
       <formula1>"SaaS,库存,供应链,饮食通,饮食通老客户上线"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2 F6:F65536">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F15:F65536">
       <formula1>"单店,小连锁,KA项目"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O65536">
@@ -6807,8 +7110,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G90"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6846,54 +7149,48 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" s="66">
+      <c r="A2" s="65">
         <v>51</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="13"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="56"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" s="66"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="56"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="66"/>
+      <c r="B4" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="19">
+        <v>43089</v>
+      </c>
+      <c r="D4" s="57" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="18">
-        <v>43089</v>
-      </c>
-      <c r="D2" s="56" t="s">
-        <v>43</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G2" s="55" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="67"/>
-      <c r="B3" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="C3" s="18">
-        <v>43096</v>
-      </c>
-      <c r="D3" s="56" t="s">
-        <v>43</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G3" s="55" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="67"/>
+      <c r="E4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G4" s="56" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="67"/>
+      <c r="A5" s="66"/>
       <c r="B5" s="13"/>
       <c r="C5" s="13"/>
       <c r="D5" s="14"/>
@@ -6902,7 +7199,7 @@
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="67"/>
+      <c r="A6" s="66"/>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
       <c r="D6" s="14"/>
@@ -6911,7 +7208,7 @@
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="67"/>
+      <c r="A7" s="66"/>
       <c r="B7" s="13"/>
       <c r="C7" s="13"/>
       <c r="D7" s="14"/>
@@ -6920,7 +7217,7 @@
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" s="67"/>
+      <c r="A8" s="66"/>
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
       <c r="D8" s="14"/>
@@ -6929,7 +7226,7 @@
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A9" s="67"/>
+      <c r="A9" s="66"/>
       <c r="B9" s="13"/>
       <c r="C9" s="13"/>
       <c r="D9" s="14"/>
@@ -6938,7 +7235,7 @@
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A10" s="67"/>
+      <c r="A10" s="66"/>
       <c r="B10" s="13"/>
       <c r="C10" s="13"/>
       <c r="D10" s="14"/>
@@ -6947,7 +7244,7 @@
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A11" s="67"/>
+      <c r="A11" s="66"/>
       <c r="B11" s="13"/>
       <c r="C11" s="13"/>
       <c r="D11" s="14"/>
@@ -6956,7 +7253,7 @@
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A12" s="67"/>
+      <c r="A12" s="66"/>
       <c r="B12" s="13"/>
       <c r="C12" s="13"/>
       <c r="D12" s="14"/>
@@ -6965,7 +7262,7 @@
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A13" s="68"/>
+      <c r="A13" s="67"/>
       <c r="B13" s="13"/>
       <c r="C13" s="13"/>
       <c r="D13" s="14"/>
@@ -6973,49 +7270,35 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A14" s="66">
-        <v>50</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="C14" s="18">
-        <v>43087</v>
-      </c>
-      <c r="D14" s="56" t="s">
-        <v>43</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G14" s="55" t="s">
-        <v>65</v>
-      </c>
+    <row r="14" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A14" s="65"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="15"/>
     </row>
     <row r="15" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A15" s="67"/>
+      <c r="A15" s="66"/>
       <c r="B15" s="15"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="16"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="17"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="15"/>
     </row>
     <row r="16" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A16" s="67"/>
+      <c r="A16" s="66"/>
       <c r="B16" s="13"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="16"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="17"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="13"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="67"/>
+      <c r="A17" s="66"/>
       <c r="B17" s="13"/>
       <c r="C17" s="13"/>
       <c r="D17" s="14"/>
@@ -7024,7 +7307,7 @@
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="67"/>
+      <c r="A18" s="66"/>
       <c r="B18" s="13"/>
       <c r="C18" s="13"/>
       <c r="D18" s="14"/>
@@ -7033,7 +7316,7 @@
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A19" s="67"/>
+      <c r="A19" s="66"/>
       <c r="B19" s="13"/>
       <c r="C19" s="13"/>
       <c r="D19" s="14"/>
@@ -7042,7 +7325,7 @@
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A20" s="67"/>
+      <c r="A20" s="66"/>
       <c r="B20" s="13"/>
       <c r="C20" s="13"/>
       <c r="D20" s="14"/>
@@ -7051,7 +7334,7 @@
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21" s="67"/>
+      <c r="A21" s="66"/>
       <c r="B21" s="13"/>
       <c r="C21" s="13"/>
       <c r="D21" s="14"/>
@@ -7060,7 +7343,7 @@
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="67"/>
+      <c r="A22" s="66"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="14"/>
@@ -7069,7 +7352,7 @@
       <c r="G22" s="1"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A23" s="67"/>
+      <c r="A23" s="66"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="14"/>
@@ -7078,7 +7361,7 @@
       <c r="G23" s="1"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A24" s="67"/>
+      <c r="A24" s="66"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="14"/>
@@ -7087,7 +7370,7 @@
       <c r="G24" s="1"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A25" s="67"/>
+      <c r="A25" s="66"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="14"/>
@@ -7096,7 +7379,7 @@
       <c r="G25" s="1"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A26" s="68"/>
+      <c r="A26" s="67"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="14"/>
@@ -7105,25 +7388,25 @@
       <c r="G26" s="1"/>
     </row>
     <row r="27" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A27" s="66"/>
+      <c r="A27" s="65"/>
       <c r="B27" s="15"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="16"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="17"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="15"/>
     </row>
     <row r="28" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A28" s="67"/>
+      <c r="A28" s="66"/>
       <c r="B28" s="13"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="16"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="17"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="13"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A29" s="67"/>
+      <c r="A29" s="66"/>
       <c r="B29" s="13"/>
       <c r="C29" s="13"/>
       <c r="D29" s="14"/>
@@ -7132,7 +7415,7 @@
       <c r="G29" s="1"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A30" s="67"/>
+      <c r="A30" s="66"/>
       <c r="B30" s="13"/>
       <c r="C30" s="13"/>
       <c r="D30" s="14"/>
@@ -7141,7 +7424,7 @@
       <c r="G30" s="1"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A31" s="67"/>
+      <c r="A31" s="66"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="14"/>
@@ -7150,7 +7433,7 @@
       <c r="G31" s="1"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A32" s="67"/>
+      <c r="A32" s="66"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="14"/>
@@ -7159,7 +7442,7 @@
       <c r="G32" s="1"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A33" s="67"/>
+      <c r="A33" s="66"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="14"/>
@@ -7168,7 +7451,7 @@
       <c r="G33" s="1"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A34" s="67"/>
+      <c r="A34" s="66"/>
       <c r="B34" s="13"/>
       <c r="C34" s="13"/>
       <c r="D34" s="14"/>
@@ -7177,7 +7460,7 @@
       <c r="G34" s="1"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A35" s="67"/>
+      <c r="A35" s="66"/>
       <c r="B35" s="13"/>
       <c r="C35" s="13"/>
       <c r="D35" s="14"/>
@@ -7186,7 +7469,7 @@
       <c r="G35" s="1"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A36" s="67"/>
+      <c r="A36" s="66"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="14"/>
@@ -7195,7 +7478,7 @@
       <c r="G36" s="1"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A37" s="67"/>
+      <c r="A37" s="66"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="14"/>
@@ -7204,7 +7487,7 @@
       <c r="G37" s="1"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A38" s="67"/>
+      <c r="A38" s="66"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="14"/>
@@ -7213,7 +7496,7 @@
       <c r="G38" s="1"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A39" s="67"/>
+      <c r="A39" s="66"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="14"/>
@@ -7222,7 +7505,7 @@
       <c r="G39" s="1"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A40" s="67"/>
+      <c r="A40" s="66"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="14"/>
@@ -7231,7 +7514,7 @@
       <c r="G40" s="1"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A41" s="68"/>
+      <c r="A41" s="67"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="14"/>
@@ -7240,25 +7523,25 @@
       <c r="G41" s="1"/>
     </row>
     <row r="42" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A42" s="66"/>
+      <c r="A42" s="65"/>
       <c r="B42" s="13"/>
-      <c r="C42" s="17"/>
-      <c r="D42" s="16"/>
+      <c r="C42" s="18"/>
+      <c r="D42" s="17"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
       <c r="G42" s="13"/>
     </row>
     <row r="43" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A43" s="67"/>
+      <c r="A43" s="66"/>
       <c r="B43" s="13"/>
-      <c r="C43" s="18"/>
-      <c r="D43" s="16"/>
+      <c r="C43" s="19"/>
+      <c r="D43" s="17"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
       <c r="G43" s="8"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A44" s="67"/>
+      <c r="A44" s="66"/>
       <c r="B44" s="13"/>
       <c r="C44" s="13"/>
       <c r="D44" s="14"/>
@@ -7267,7 +7550,7 @@
       <c r="G44" s="1"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A45" s="67"/>
+      <c r="A45" s="66"/>
       <c r="B45" s="13"/>
       <c r="C45" s="13"/>
       <c r="D45" s="14"/>
@@ -7276,7 +7559,7 @@
       <c r="G45" s="1"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A46" s="67"/>
+      <c r="A46" s="66"/>
       <c r="B46" s="13"/>
       <c r="C46" s="13"/>
       <c r="D46" s="14"/>
@@ -7285,7 +7568,7 @@
       <c r="G46" s="1"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A47" s="67"/>
+      <c r="A47" s="66"/>
       <c r="B47" s="13"/>
       <c r="C47" s="13"/>
       <c r="D47" s="14"/>
@@ -7294,7 +7577,7 @@
       <c r="G47" s="1"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A48" s="67"/>
+      <c r="A48" s="66"/>
       <c r="B48" s="13"/>
       <c r="C48" s="13"/>
       <c r="D48" s="14"/>
@@ -7303,7 +7586,7 @@
       <c r="G48" s="1"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A49" s="67"/>
+      <c r="A49" s="66"/>
       <c r="B49" s="13"/>
       <c r="C49" s="13"/>
       <c r="D49" s="14"/>
@@ -7312,7 +7595,7 @@
       <c r="G49" s="1"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A50" s="67"/>
+      <c r="A50" s="66"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="14"/>
@@ -7321,7 +7604,7 @@
       <c r="G50" s="1"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A51" s="67"/>
+      <c r="A51" s="66"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="14"/>
@@ -7330,7 +7613,7 @@
       <c r="G51" s="1"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A52" s="67"/>
+      <c r="A52" s="66"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="14"/>
@@ -7339,7 +7622,7 @@
       <c r="G52" s="1"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A53" s="67"/>
+      <c r="A53" s="66"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="14"/>
@@ -7348,7 +7631,7 @@
       <c r="G53" s="1"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A54" s="67"/>
+      <c r="A54" s="66"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="14"/>
@@ -7357,7 +7640,7 @@
       <c r="G54" s="1"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A55" s="67"/>
+      <c r="A55" s="66"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="14"/>
@@ -7366,7 +7649,7 @@
       <c r="G55" s="1"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A56" s="68"/>
+      <c r="A56" s="67"/>
       <c r="B56" s="13"/>
       <c r="C56" s="13"/>
       <c r="D56" s="14"/>
@@ -7375,43 +7658,43 @@
       <c r="G56" s="1"/>
     </row>
     <row r="57" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A57" s="66"/>
+      <c r="A57" s="65"/>
       <c r="B57" s="13"/>
-      <c r="C57" s="17"/>
-      <c r="D57" s="16"/>
+      <c r="C57" s="18"/>
+      <c r="D57" s="17"/>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
       <c r="G57" s="13"/>
     </row>
     <row r="58" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A58" s="67"/>
+      <c r="A58" s="66"/>
       <c r="B58" s="13"/>
-      <c r="C58" s="18"/>
-      <c r="D58" s="16"/>
+      <c r="C58" s="19"/>
+      <c r="D58" s="17"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
       <c r="G58" s="8"/>
     </row>
     <row r="59" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A59" s="67"/>
+      <c r="A59" s="66"/>
       <c r="B59" s="13"/>
-      <c r="C59" s="18"/>
-      <c r="D59" s="16"/>
+      <c r="C59" s="19"/>
+      <c r="D59" s="17"/>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
       <c r="G59" s="8"/>
     </row>
     <row r="60" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A60" s="67"/>
+      <c r="A60" s="66"/>
       <c r="B60" s="13"/>
-      <c r="C60" s="18"/>
-      <c r="D60" s="16"/>
+      <c r="C60" s="19"/>
+      <c r="D60" s="17"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
-      <c r="G60" s="19"/>
+      <c r="G60" s="20"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A61" s="67"/>
+      <c r="A61" s="66"/>
       <c r="B61" s="13"/>
       <c r="C61" s="13"/>
       <c r="D61" s="14"/>
@@ -7420,7 +7703,7 @@
       <c r="G61" s="1"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A62" s="67"/>
+      <c r="A62" s="66"/>
       <c r="B62" s="13"/>
       <c r="C62" s="13"/>
       <c r="D62" s="14"/>
@@ -7429,7 +7712,7 @@
       <c r="G62" s="1"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A63" s="67"/>
+      <c r="A63" s="66"/>
       <c r="B63" s="13"/>
       <c r="C63" s="13"/>
       <c r="D63" s="14"/>
@@ -7438,7 +7721,7 @@
       <c r="G63" s="1"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A64" s="67"/>
+      <c r="A64" s="66"/>
       <c r="B64" s="13"/>
       <c r="C64" s="13"/>
       <c r="D64" s="14"/>
@@ -7447,7 +7730,7 @@
       <c r="G64" s="1"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A65" s="67"/>
+      <c r="A65" s="66"/>
       <c r="B65" s="13"/>
       <c r="C65" s="13"/>
       <c r="D65" s="14"/>
@@ -7456,7 +7739,7 @@
       <c r="G65" s="1"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A66" s="67"/>
+      <c r="A66" s="66"/>
       <c r="B66" s="13"/>
       <c r="C66" s="13"/>
       <c r="D66" s="14"/>
@@ -7465,7 +7748,7 @@
       <c r="G66" s="1"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A67" s="67"/>
+      <c r="A67" s="66"/>
       <c r="B67" s="13"/>
       <c r="C67" s="13"/>
       <c r="D67" s="14"/>
@@ -7474,7 +7757,7 @@
       <c r="G67" s="1"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A68" s="68"/>
+      <c r="A68" s="67"/>
       <c r="B68" s="13"/>
       <c r="C68" s="13"/>
       <c r="D68" s="14"/>
@@ -7483,43 +7766,43 @@
       <c r="G68" s="1"/>
     </row>
     <row r="69" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A69" s="66"/>
+      <c r="A69" s="65"/>
       <c r="B69" s="13"/>
-      <c r="C69" s="17"/>
-      <c r="D69" s="16"/>
+      <c r="C69" s="18"/>
+      <c r="D69" s="17"/>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
       <c r="G69" s="13"/>
     </row>
     <row r="70" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A70" s="67"/>
+      <c r="A70" s="66"/>
       <c r="B70" s="13"/>
-      <c r="C70" s="18"/>
-      <c r="D70" s="16"/>
+      <c r="C70" s="19"/>
+      <c r="D70" s="17"/>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
       <c r="G70" s="8"/>
     </row>
     <row r="71" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A71" s="67"/>
+      <c r="A71" s="66"/>
       <c r="B71" s="13"/>
-      <c r="C71" s="18"/>
-      <c r="D71" s="16"/>
+      <c r="C71" s="19"/>
+      <c r="D71" s="17"/>
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
       <c r="G71" s="8"/>
     </row>
     <row r="72" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A72" s="67"/>
+      <c r="A72" s="66"/>
       <c r="B72" s="13"/>
-      <c r="C72" s="18"/>
-      <c r="D72" s="16"/>
+      <c r="C72" s="19"/>
+      <c r="D72" s="17"/>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
-      <c r="G72" s="19"/>
+      <c r="G72" s="20"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A73" s="67"/>
+      <c r="A73" s="66"/>
       <c r="B73" s="13"/>
       <c r="C73" s="13"/>
       <c r="D73" s="14"/>
@@ -7528,7 +7811,7 @@
       <c r="G73" s="1"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A74" s="67"/>
+      <c r="A74" s="66"/>
       <c r="B74" s="13"/>
       <c r="C74" s="13"/>
       <c r="D74" s="14"/>
@@ -7537,7 +7820,7 @@
       <c r="G74" s="1"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A75" s="67"/>
+      <c r="A75" s="66"/>
       <c r="B75" s="13"/>
       <c r="C75" s="13"/>
       <c r="D75" s="14"/>
@@ -7546,7 +7829,7 @@
       <c r="G75" s="1"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A76" s="67"/>
+      <c r="A76" s="66"/>
       <c r="B76" s="13"/>
       <c r="C76" s="13"/>
       <c r="D76" s="14"/>
@@ -7555,7 +7838,7 @@
       <c r="G76" s="1"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A77" s="67"/>
+      <c r="A77" s="66"/>
       <c r="B77" s="13"/>
       <c r="C77" s="13"/>
       <c r="D77" s="14"/>
@@ -7564,7 +7847,7 @@
       <c r="G77" s="1"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A78" s="67"/>
+      <c r="A78" s="66"/>
       <c r="B78" s="13"/>
       <c r="C78" s="13"/>
       <c r="D78" s="14"/>
@@ -7573,7 +7856,7 @@
       <c r="G78" s="1"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A79" s="67"/>
+      <c r="A79" s="66"/>
       <c r="B79" s="13"/>
       <c r="C79" s="13"/>
       <c r="D79" s="14"/>
@@ -7582,7 +7865,7 @@
       <c r="G79" s="1"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A80" s="68"/>
+      <c r="A80" s="67"/>
       <c r="B80" s="13"/>
       <c r="C80" s="13"/>
       <c r="D80" s="14"/>
@@ -7591,25 +7874,25 @@
       <c r="G80" s="1"/>
     </row>
     <row r="81" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A81" s="67"/>
+      <c r="A81" s="66"/>
       <c r="B81" s="13"/>
-      <c r="C81" s="18"/>
-      <c r="D81" s="16"/>
+      <c r="C81" s="19"/>
+      <c r="D81" s="17"/>
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
       <c r="G81" s="8"/>
     </row>
     <row r="82" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A82" s="67"/>
+      <c r="A82" s="66"/>
       <c r="B82" s="13"/>
-      <c r="C82" s="18"/>
-      <c r="D82" s="16"/>
+      <c r="C82" s="19"/>
+      <c r="D82" s="17"/>
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
-      <c r="G82" s="19"/>
+      <c r="G82" s="20"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A83" s="67"/>
+      <c r="A83" s="66"/>
       <c r="B83" s="13"/>
       <c r="C83" s="13"/>
       <c r="D83" s="14"/>
@@ -7618,7 +7901,7 @@
       <c r="G83" s="1"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A84" s="67"/>
+      <c r="A84" s="66"/>
       <c r="B84" s="13"/>
       <c r="C84" s="13"/>
       <c r="D84" s="14"/>
@@ -7627,7 +7910,7 @@
       <c r="G84" s="1"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A85" s="67"/>
+      <c r="A85" s="66"/>
       <c r="B85" s="13"/>
       <c r="C85" s="13"/>
       <c r="D85" s="14"/>
@@ -7636,7 +7919,7 @@
       <c r="G85" s="1"/>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A86" s="67"/>
+      <c r="A86" s="66"/>
       <c r="B86" s="13"/>
       <c r="C86" s="13"/>
       <c r="D86" s="14"/>
@@ -7645,7 +7928,7 @@
       <c r="G86" s="1"/>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A87" s="67"/>
+      <c r="A87" s="66"/>
       <c r="B87" s="13"/>
       <c r="C87" s="13"/>
       <c r="D87" s="14"/>
@@ -7654,7 +7937,7 @@
       <c r="G87" s="1"/>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A88" s="67"/>
+      <c r="A88" s="66"/>
       <c r="B88" s="13"/>
       <c r="C88" s="13"/>
       <c r="D88" s="14"/>
@@ -7663,7 +7946,7 @@
       <c r="G88" s="1"/>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A89" s="67"/>
+      <c r="A89" s="66"/>
       <c r="B89" s="13"/>
       <c r="C89" s="13"/>
       <c r="D89" s="14"/>
@@ -7672,7 +7955,7 @@
       <c r="G89" s="1"/>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A90" s="68"/>
+      <c r="A90" s="67"/>
       <c r="B90" s="13"/>
       <c r="C90" s="13"/>
       <c r="D90" s="14"/>
@@ -7693,15 +7976,15 @@
   <phoneticPr fontId="9" type="noConversion"/>
   <dataValidations count="3">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E3 E5:E65536">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E65536">
       <formula1>"单店,连锁,KA,供应链"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="saas" sqref="F2:F3 F5:F65536">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="saas" sqref="F2:F65536">
       <formula1>"SAAS,供应链,SAAS+微信,SAAS+供应链,SAAS+微信+供应链"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/周数据/《个人上线率统计表》-潘辰.xlsx
+++ b/周数据/《个人上线率统计表》-潘辰.xlsx
@@ -1588,7 +1588,7 @@
   <dimension ref="A1:O300"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1885,7 +1885,7 @@
     <row r="7" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A7" s="66"/>
       <c r="B7" s="55">
-        <v>43073</v>
+        <v>43077</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>37</v>
@@ -1900,10 +1900,10 @@
         <v>39</v>
       </c>
       <c r="G7" s="1">
-        <v>76118226</v>
+        <v>76111625</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="I7" s="56" t="s">
         <v>39</v>
@@ -1929,93 +1929,23 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A8" s="66"/>
-      <c r="B8" s="55">
-        <v>43077</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G8" s="1">
-        <v>76111625</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="I8" s="56" t="s">
-        <v>39</v>
-      </c>
-      <c r="J8" s="56" t="s">
-        <v>41</v>
-      </c>
-      <c r="K8" s="1">
-        <v>18251920657</v>
-      </c>
-      <c r="L8" s="56" t="s">
-        <v>73</v>
-      </c>
-      <c r="M8" s="56" t="s">
-        <v>74</v>
-      </c>
-      <c r="N8" s="1">
-        <v>15189977010</v>
-      </c>
-      <c r="O8" s="1" t="s">
-        <v>68</v>
-      </c>
+      <c r="B8" s="55"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="56"/>
+      <c r="J8" s="56"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="56"/>
+      <c r="M8" s="56"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A9" s="67"/>
-      <c r="B9" s="55">
-        <v>43077</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" s="56" t="s">
-        <v>70</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G9" s="1">
-        <v>76113115</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I9" s="56" t="s">
-        <v>39</v>
-      </c>
-      <c r="J9" s="56" t="s">
-        <v>41</v>
-      </c>
-      <c r="K9" s="1">
-        <v>18251920657</v>
-      </c>
-      <c r="L9" s="56" t="s">
-        <v>42</v>
-      </c>
-      <c r="M9" s="56" t="s">
-        <v>43</v>
-      </c>
-      <c r="N9" s="1">
-        <v>18602500064</v>
-      </c>
-      <c r="O9" s="1" t="s">
-        <v>38</v>
-      </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A10" s="8">
@@ -2157,7 +2087,7 @@
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A13" s="67"/>
+      <c r="A13" s="66"/>
       <c r="B13" s="55">
         <v>43096</v>
       </c>
@@ -2202,38 +2132,94 @@
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A14" s="1"/>
-      <c r="B14" s="55"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="56"/>
-      <c r="J14" s="56"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="56"/>
-      <c r="M14" s="56"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
+      <c r="A14" s="66"/>
+      <c r="B14" s="55">
+        <v>43096</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G14" s="1">
+        <v>76118226</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I14" s="56" t="s">
+        <v>39</v>
+      </c>
+      <c r="J14" s="56" t="s">
+        <v>41</v>
+      </c>
+      <c r="K14" s="1">
+        <v>18251920657</v>
+      </c>
+      <c r="L14" s="56" t="s">
+        <v>73</v>
+      </c>
+      <c r="M14" s="56" t="s">
+        <v>74</v>
+      </c>
+      <c r="N14" s="1">
+        <v>15189977010</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
+      <c r="A15" s="67"/>
+      <c r="B15" s="55">
+        <v>43096</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="56" t="s">
+        <v>70</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G15" s="1">
+        <v>76113115</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I15" s="56" t="s">
+        <v>39</v>
+      </c>
+      <c r="J15" s="56" t="s">
+        <v>41</v>
+      </c>
+      <c r="K15" s="1">
+        <v>18251920657</v>
+      </c>
+      <c r="L15" s="56" t="s">
+        <v>42</v>
+      </c>
+      <c r="M15" s="56" t="s">
+        <v>43</v>
+      </c>
+      <c r="N15" s="1">
+        <v>18602500064</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A16" s="1"/>
@@ -7084,7 +7070,7 @@
   <mergeCells count="3">
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A11:A15"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <dataValidations count="4">
@@ -7097,7 +7083,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F15:F65536">
       <formula1>"单店,小连锁,KA项目"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O65536">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O8 O10:O65536">
       <formula1>"新品牌,老品牌"</formula1>
     </dataValidation>
   </dataValidations>

--- a/周数据/《个人上线率统计表》-潘辰.xlsx
+++ b/周数据/《个人上线率统计表》-潘辰.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="91">
   <si>
     <t>个人上线率分析表</t>
   </si>
@@ -322,6 +322,10 @@
   </si>
   <si>
     <t>督导</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -1701,8 +1705,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O300"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2060,6 +2064,7 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A9" s="66"/>
+      <c r="B9" s="1"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A10" s="8">
@@ -2466,8 +2471,12 @@
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
+      <c r="A20" s="8">
+        <v>3</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>90</v>
+      </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>

--- a/周数据/《个人上线率统计表》-潘辰.xlsx
+++ b/周数据/《个人上线率统计表》-潘辰.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21300" windowHeight="9330" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21300" windowHeight="9330"/>
   </bookViews>
   <sheets>
     <sheet name="项目数据分析表" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="99">
   <si>
     <t>个人上线率分析表</t>
   </si>
@@ -326,6 +326,32 @@
   </si>
   <si>
     <t>无</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>京茶山手作茶物（汕头店）</t>
+  </si>
+  <si>
+    <t>京茶山手作茶物（南通名都店）</t>
+  </si>
+  <si>
+    <t>京茶山手作茶物（南通南大街店）</t>
+  </si>
+  <si>
+    <t>蛙爵记</t>
+  </si>
+  <si>
+    <t>花食间花艺</t>
+  </si>
+  <si>
+    <t>单店</t>
+  </si>
+  <si>
+    <t>沈芳芳</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>李雪磊</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -457,7 +483,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="34">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -562,19 +588,6 @@
         <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
         <color indexed="44"/>
       </bottom>
       <diagonal/>
@@ -890,7 +903,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -939,13 +952,10 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -969,10 +979,10 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -984,13 +994,13 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1002,25 +1012,25 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1029,31 +1039,31 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="7" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="7" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="7" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="7" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="5" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
@@ -1068,28 +1078,31 @@
     <xf numFmtId="14" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1104,14 +1117,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1390,8 +1406,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1404,288 +1420,290 @@
     <col min="7" max="7" width="15.5" style="9" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="17.875" style="9" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="17.875" style="9" customWidth="1"/>
-    <col min="10" max="10" width="17.875" style="25" customWidth="1"/>
+    <col min="10" max="10" width="17.875" style="24" customWidth="1"/>
     <col min="11" max="11" width="16" style="9" customWidth="1"/>
     <col min="12" max="12" width="17.875" style="9" customWidth="1"/>
     <col min="13" max="13" width="18.625" style="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
-      <c r="M1" s="62"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="61"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="D2" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="29" t="s">
+      <c r="E2" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="30" t="s">
+      <c r="F2" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="30" t="s">
+      <c r="G2" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="31" t="s">
+      <c r="H2" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="42" t="s">
+      <c r="I2" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="43" t="s">
+      <c r="J2" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="28" t="s">
+      <c r="K2" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="29" t="s">
+      <c r="L2" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="44" t="s">
+      <c r="M2" s="43" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A3" s="63"/>
-      <c r="B3" s="32">
+      <c r="A3" s="62"/>
+      <c r="B3" s="31">
         <v>48</v>
       </c>
-      <c r="C3" s="33">
+      <c r="C3" s="32">
         <v>4</v>
       </c>
-      <c r="D3" s="34">
+      <c r="D3" s="33">
         <v>1</v>
       </c>
-      <c r="E3" s="34">
+      <c r="E3" s="33">
         <f t="shared" ref="E3:E8" si="0">C3-D3</f>
         <v>3</v>
       </c>
-      <c r="F3" s="35"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="35">
+      <c r="F3" s="34"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="34">
         <f t="shared" ref="H3:H8" si="1">F3-G3</f>
         <v>0</v>
       </c>
-      <c r="I3" s="45"/>
-      <c r="J3" s="46">
+      <c r="I3" s="44"/>
+      <c r="J3" s="45">
         <f t="shared" ref="J3:J8" si="2">I3/L3*100%</f>
         <v>0</v>
       </c>
-      <c r="K3" s="47">
+      <c r="K3" s="46">
         <f t="shared" ref="K3:K8" si="3">C3+G3</f>
         <v>4</v>
       </c>
-      <c r="L3" s="48">
+      <c r="L3" s="47">
         <f t="shared" ref="L3:L8" si="4">D3+G3</f>
         <v>1</v>
       </c>
-      <c r="M3" s="49">
+      <c r="M3" s="48">
         <f t="shared" ref="M3:M8" si="5">L3/K3*100%</f>
         <v>0.25</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A4" s="63"/>
-      <c r="B4" s="32">
+      <c r="A4" s="62"/>
+      <c r="B4" s="31">
         <v>49</v>
       </c>
-      <c r="C4" s="33">
+      <c r="C4" s="32">
         <v>4</v>
       </c>
-      <c r="D4" s="34">
+      <c r="D4" s="33">
         <v>1</v>
       </c>
-      <c r="E4" s="34">
+      <c r="E4" s="33">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="F4" s="35"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="35">
+      <c r="F4" s="34"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="34">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I4" s="45"/>
-      <c r="J4" s="46">
+      <c r="I4" s="44"/>
+      <c r="J4" s="45">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K4" s="47">
+      <c r="K4" s="46">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="L4" s="48">
+      <c r="L4" s="47">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="M4" s="49">
+      <c r="M4" s="48">
         <f t="shared" si="5"/>
         <v>0.25</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A5" s="63"/>
-      <c r="B5" s="32">
+      <c r="A5" s="62"/>
+      <c r="B5" s="31">
         <v>50</v>
       </c>
-      <c r="C5" s="33">
+      <c r="C5" s="32">
         <v>1</v>
       </c>
-      <c r="D5" s="34">
+      <c r="D5" s="33">
         <v>1</v>
       </c>
-      <c r="E5" s="34">
+      <c r="E5" s="33">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F5" s="35"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="35">
+      <c r="F5" s="34"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="34">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I5" s="45"/>
-      <c r="J5" s="46">
+      <c r="I5" s="44"/>
+      <c r="J5" s="45">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K5" s="47">
+      <c r="K5" s="46">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="L5" s="48">
+      <c r="L5" s="47">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="M5" s="49">
+      <c r="M5" s="48">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A6" s="63"/>
-      <c r="B6" s="32">
+      <c r="A6" s="62"/>
+      <c r="B6" s="31">
         <v>52</v>
       </c>
-      <c r="C6" s="33">
+      <c r="C6" s="32">
         <v>3</v>
       </c>
-      <c r="D6" s="34">
+      <c r="D6" s="33">
         <v>3</v>
       </c>
-      <c r="E6" s="34">
+      <c r="E6" s="33">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F6" s="35"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="35">
+      <c r="F6" s="34"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="34">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I6" s="45"/>
-      <c r="J6" s="46">
+      <c r="I6" s="44"/>
+      <c r="J6" s="45">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K6" s="47">
+      <c r="K6" s="46">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="L6" s="48">
+      <c r="L6" s="47">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="M6" s="49">
+      <c r="M6" s="48">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A7" s="63"/>
-      <c r="B7" s="32"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34">
+      <c r="A7" s="62"/>
+      <c r="B7" s="31">
+        <v>3</v>
+      </c>
+      <c r="C7" s="32"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F7" s="35"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="35">
+      <c r="F7" s="34"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="34">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I7" s="45"/>
-      <c r="J7" s="46" t="e">
+      <c r="I7" s="44"/>
+      <c r="J7" s="45" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K7" s="47">
+      <c r="K7" s="46">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L7" s="48">
+      <c r="L7" s="47">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M7" s="49" t="e">
+      <c r="M7" s="48" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A8" s="64"/>
-      <c r="B8" s="37"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="39">
+      <c r="A8" s="63"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F8" s="40"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="40">
+      <c r="F8" s="39"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="39">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I8" s="50"/>
-      <c r="J8" s="51" t="e">
+      <c r="I8" s="49"/>
+      <c r="J8" s="50" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K8" s="52">
+      <c r="K8" s="51">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L8" s="53">
+      <c r="L8" s="52">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M8" s="54" t="e">
+      <c r="M8" s="53" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
@@ -1705,7 +1723,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O300"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="A6" sqref="A6:A9"/>
     </sheetView>
   </sheetViews>
@@ -1724,70 +1742,70 @@
     <col min="12" max="14" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="21" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:15" s="20" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A1" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="G1" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="24" t="s">
+      <c r="I1" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="23" t="s">
+      <c r="J1" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="23" t="s">
+      <c r="K1" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="22" t="s">
+      <c r="L1" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="M1" s="22" t="s">
+      <c r="M1" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="N1" s="22" t="s">
+      <c r="N1" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="22" t="s">
+      <c r="O1" s="21" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A2" s="65">
+      <c r="A2" s="64">
         <v>48</v>
       </c>
-      <c r="B2" s="55">
+      <c r="B2" s="54">
         <v>43070</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="56" t="s">
+      <c r="D2" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="E2" s="56" t="s">
+      <c r="E2" s="55" t="s">
         <v>57</v>
       </c>
-      <c r="F2" s="56" t="s">
+      <c r="F2" s="55" t="s">
         <v>65</v>
       </c>
       <c r="G2" s="1">
@@ -1796,19 +1814,19 @@
       <c r="H2" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="I2" s="56" t="s">
+      <c r="I2" s="55" t="s">
         <v>39</v>
       </c>
-      <c r="J2" s="56" t="s">
+      <c r="J2" s="55" t="s">
         <v>41</v>
       </c>
       <c r="K2" s="1">
         <v>18251920657</v>
       </c>
-      <c r="L2" s="56" t="s">
+      <c r="L2" s="55" t="s">
         <v>71</v>
       </c>
-      <c r="M2" s="56" t="s">
+      <c r="M2" s="55" t="s">
         <v>72</v>
       </c>
       <c r="N2" s="1">
@@ -1819,17 +1837,17 @@
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A3" s="73"/>
-      <c r="B3" s="55">
+      <c r="A3" s="72"/>
+      <c r="B3" s="54">
         <v>43070</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="56" t="s">
+      <c r="D3" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="E3" s="56" t="s">
+      <c r="E3" s="55" t="s">
         <v>57</v>
       </c>
       <c r="F3" s="1" t="s">
@@ -1841,19 +1859,19 @@
       <c r="H3" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="I3" s="56" t="s">
+      <c r="I3" s="55" t="s">
         <v>39</v>
       </c>
-      <c r="J3" s="56" t="s">
+      <c r="J3" s="55" t="s">
         <v>41</v>
       </c>
       <c r="K3" s="1">
         <v>18251920657</v>
       </c>
-      <c r="L3" s="56" t="s">
+      <c r="L3" s="55" t="s">
         <v>71</v>
       </c>
-      <c r="M3" s="56" t="s">
+      <c r="M3" s="55" t="s">
         <v>72</v>
       </c>
       <c r="N3" s="1">
@@ -1864,8 +1882,8 @@
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A4" s="73"/>
-      <c r="B4" s="55">
+      <c r="A4" s="72"/>
+      <c r="B4" s="54">
         <v>43070</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -1877,7 +1895,7 @@
       <c r="E4" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F4" s="56" t="s">
+      <c r="F4" s="55" t="s">
         <v>66</v>
       </c>
       <c r="G4" s="1">
@@ -1886,19 +1904,19 @@
       <c r="H4" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="I4" s="56" t="s">
+      <c r="I4" s="55" t="s">
         <v>39</v>
       </c>
-      <c r="J4" s="56" t="s">
+      <c r="J4" s="55" t="s">
         <v>41</v>
       </c>
       <c r="K4" s="1">
         <v>18251920657</v>
       </c>
-      <c r="L4" s="56" t="s">
+      <c r="L4" s="55" t="s">
         <v>73</v>
       </c>
-      <c r="M4" s="56" t="s">
+      <c r="M4" s="55" t="s">
         <v>74</v>
       </c>
       <c r="N4" s="1">
@@ -1909,14 +1927,14 @@
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A5" s="66"/>
-      <c r="B5" s="55">
+      <c r="A5" s="65"/>
+      <c r="B5" s="54">
         <v>43071</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="56" t="s">
+      <c r="D5" s="55" t="s">
         <v>69</v>
       </c>
       <c r="E5" s="1" t="s">
@@ -1931,19 +1949,19 @@
       <c r="H5" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="I5" s="56" t="s">
+      <c r="I5" s="55" t="s">
         <v>39</v>
       </c>
-      <c r="J5" s="56" t="s">
+      <c r="J5" s="55" t="s">
         <v>41</v>
       </c>
       <c r="K5" s="1">
         <v>18251920657</v>
       </c>
-      <c r="L5" s="56" t="s">
+      <c r="L5" s="55" t="s">
         <v>73</v>
       </c>
-      <c r="M5" s="56" t="s">
+      <c r="M5" s="55" t="s">
         <v>74</v>
       </c>
       <c r="N5" s="1">
@@ -1954,10 +1972,10 @@
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A6" s="65">
+      <c r="A6" s="64">
         <v>49</v>
       </c>
-      <c r="B6" s="55">
+      <c r="B6" s="54">
         <v>43072</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -1969,7 +1987,7 @@
       <c r="E6" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F6" s="56" t="s">
+      <c r="F6" s="55" t="s">
         <v>67</v>
       </c>
       <c r="G6" s="1">
@@ -1978,19 +1996,19 @@
       <c r="H6" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="I6" s="56" t="s">
+      <c r="I6" s="55" t="s">
         <v>39</v>
       </c>
-      <c r="J6" s="56" t="s">
+      <c r="J6" s="55" t="s">
         <v>41</v>
       </c>
       <c r="K6" s="1">
         <v>18251920657</v>
       </c>
-      <c r="L6" s="56" t="s">
+      <c r="L6" s="55" t="s">
         <v>73</v>
       </c>
-      <c r="M6" s="56" t="s">
+      <c r="M6" s="55" t="s">
         <v>74</v>
       </c>
       <c r="N6" s="1">
@@ -2001,8 +2019,8 @@
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A7" s="73"/>
-      <c r="B7" s="55">
+      <c r="A7" s="72"/>
+      <c r="B7" s="54">
         <v>43077</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -2023,19 +2041,19 @@
       <c r="H7" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="I7" s="56" t="s">
+      <c r="I7" s="55" t="s">
         <v>39</v>
       </c>
-      <c r="J7" s="56" t="s">
+      <c r="J7" s="55" t="s">
         <v>41</v>
       </c>
       <c r="K7" s="1">
         <v>18251920657</v>
       </c>
-      <c r="L7" s="56" t="s">
+      <c r="L7" s="55" t="s">
         <v>73</v>
       </c>
-      <c r="M7" s="56" t="s">
+      <c r="M7" s="55" t="s">
         <v>74</v>
       </c>
       <c r="N7" s="1">
@@ -2046,34 +2064,34 @@
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A8" s="73"/>
-      <c r="B8" s="55"/>
+      <c r="A8" s="72"/>
+      <c r="B8" s="54"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
-      <c r="I8" s="56"/>
-      <c r="J8" s="56"/>
+      <c r="I8" s="55"/>
+      <c r="J8" s="55"/>
       <c r="K8" s="1"/>
-      <c r="L8" s="56"/>
-      <c r="M8" s="56"/>
+      <c r="L8" s="55"/>
+      <c r="M8" s="55"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A9" s="66"/>
+      <c r="A9" s="65"/>
       <c r="B9" s="1"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A10" s="8">
         <v>50</v>
       </c>
-      <c r="B10" s="55">
+      <c r="B10" s="54">
         <v>43084</v>
       </c>
-      <c r="C10" s="56" t="s">
+      <c r="C10" s="55" t="s">
         <v>37</v>
       </c>
       <c r="D10" s="1" t="s">
@@ -2091,19 +2109,19 @@
       <c r="H10" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="I10" s="56" t="s">
+      <c r="I10" s="55" t="s">
         <v>39</v>
       </c>
-      <c r="J10" s="56" t="s">
+      <c r="J10" s="55" t="s">
         <v>41</v>
       </c>
       <c r="K10" s="1">
         <v>18251920657</v>
       </c>
-      <c r="L10" s="56" t="s">
+      <c r="L10" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="M10" s="56" t="s">
+      <c r="M10" s="55" t="s">
         <v>43</v>
       </c>
       <c r="N10" s="1">
@@ -2114,19 +2132,19 @@
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A11" s="65">
+      <c r="A11" s="64">
         <v>52</v>
       </c>
-      <c r="B11" s="55">
+      <c r="B11" s="54">
         <v>43094</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="56" t="s">
+      <c r="D11" s="55" t="s">
         <v>54</v>
       </c>
-      <c r="E11" s="56" t="s">
+      <c r="E11" s="55" t="s">
         <v>54</v>
       </c>
       <c r="F11" s="1" t="s">
@@ -2138,19 +2156,19 @@
       <c r="H11" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="I11" s="56" t="s">
+      <c r="I11" s="55" t="s">
         <v>39</v>
       </c>
-      <c r="J11" s="56" t="s">
+      <c r="J11" s="55" t="s">
         <v>41</v>
       </c>
       <c r="K11" s="1">
         <v>18251920657</v>
       </c>
-      <c r="L11" s="56" t="s">
+      <c r="L11" s="55" t="s">
         <v>75</v>
       </c>
-      <c r="M11" s="56" t="s">
+      <c r="M11" s="55" t="s">
         <v>72</v>
       </c>
       <c r="N11" s="1">
@@ -2161,14 +2179,14 @@
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A12" s="73"/>
-      <c r="B12" s="55">
+      <c r="A12" s="72"/>
+      <c r="B12" s="54">
         <v>43095</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="56" t="s">
+      <c r="D12" s="55" t="s">
         <v>69</v>
       </c>
       <c r="E12" s="1" t="s">
@@ -2183,19 +2201,19 @@
       <c r="H12" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="I12" s="56" t="s">
+      <c r="I12" s="55" t="s">
         <v>39</v>
       </c>
-      <c r="J12" s="56" t="s">
+      <c r="J12" s="55" t="s">
         <v>41</v>
       </c>
       <c r="K12" s="1">
         <v>18251920657</v>
       </c>
-      <c r="L12" s="56" t="s">
+      <c r="L12" s="55" t="s">
         <v>73</v>
       </c>
-      <c r="M12" s="56" t="s">
+      <c r="M12" s="55" t="s">
         <v>74</v>
       </c>
       <c r="N12" s="1">
@@ -2206,14 +2224,14 @@
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A13" s="73"/>
-      <c r="B13" s="55">
+      <c r="A13" s="72"/>
+      <c r="B13" s="54">
         <v>43096</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="56" t="s">
+      <c r="D13" s="55" t="s">
         <v>69</v>
       </c>
       <c r="E13" s="1" t="s">
@@ -2228,19 +2246,19 @@
       <c r="H13" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="I13" s="56" t="s">
+      <c r="I13" s="55" t="s">
         <v>39</v>
       </c>
-      <c r="J13" s="56" t="s">
+      <c r="J13" s="55" t="s">
         <v>41</v>
       </c>
       <c r="K13" s="1">
         <v>18251920657</v>
       </c>
-      <c r="L13" s="56" t="s">
+      <c r="L13" s="55" t="s">
         <v>73</v>
       </c>
-      <c r="M13" s="56" t="s">
+      <c r="M13" s="55" t="s">
         <v>74</v>
       </c>
       <c r="N13" s="1">
@@ -2251,8 +2269,8 @@
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A14" s="73"/>
-      <c r="B14" s="55">
+      <c r="A14" s="72"/>
+      <c r="B14" s="54">
         <v>43096</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -2273,19 +2291,19 @@
       <c r="H14" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="I14" s="56" t="s">
+      <c r="I14" s="55" t="s">
         <v>39</v>
       </c>
-      <c r="J14" s="56" t="s">
+      <c r="J14" s="55" t="s">
         <v>41</v>
       </c>
       <c r="K14" s="1">
         <v>18251920657</v>
       </c>
-      <c r="L14" s="56" t="s">
+      <c r="L14" s="55" t="s">
         <v>73</v>
       </c>
-      <c r="M14" s="56" t="s">
+      <c r="M14" s="55" t="s">
         <v>74</v>
       </c>
       <c r="N14" s="1">
@@ -2296,14 +2314,14 @@
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A15" s="66"/>
-      <c r="B15" s="55">
+      <c r="A15" s="65"/>
+      <c r="B15" s="54">
         <v>43096</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D15" s="56" t="s">
+      <c r="D15" s="55" t="s">
         <v>70</v>
       </c>
       <c r="E15" s="1" t="s">
@@ -2318,19 +2336,19 @@
       <c r="H15" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="I15" s="56" t="s">
+      <c r="I15" s="55" t="s">
         <v>39</v>
       </c>
-      <c r="J15" s="56" t="s">
+      <c r="J15" s="55" t="s">
         <v>41</v>
       </c>
       <c r="K15" s="1">
         <v>18251920657</v>
       </c>
-      <c r="L15" s="56" t="s">
+      <c r="L15" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="M15" s="56" t="s">
+      <c r="M15" s="55" t="s">
         <v>43</v>
       </c>
       <c r="N15" s="1">
@@ -2341,48 +2359,48 @@
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A16" s="65">
+      <c r="A16" s="64">
         <v>1</v>
       </c>
-      <c r="B16" s="65" t="s">
+      <c r="B16" s="64" t="s">
         <v>78</v>
       </c>
-      <c r="C16" s="67"/>
-      <c r="D16" s="68"/>
-      <c r="E16" s="68"/>
-      <c r="F16" s="68"/>
-      <c r="G16" s="68"/>
-      <c r="H16" s="68"/>
-      <c r="I16" s="68"/>
-      <c r="J16" s="68"/>
-      <c r="K16" s="68"/>
-      <c r="L16" s="68"/>
-      <c r="M16" s="68"/>
-      <c r="N16" s="68"/>
-      <c r="O16" s="69"/>
+      <c r="C16" s="66"/>
+      <c r="D16" s="67"/>
+      <c r="E16" s="67"/>
+      <c r="F16" s="67"/>
+      <c r="G16" s="67"/>
+      <c r="H16" s="67"/>
+      <c r="I16" s="67"/>
+      <c r="J16" s="67"/>
+      <c r="K16" s="67"/>
+      <c r="L16" s="67"/>
+      <c r="M16" s="67"/>
+      <c r="N16" s="67"/>
+      <c r="O16" s="68"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A17" s="66"/>
-      <c r="B17" s="66"/>
-      <c r="C17" s="70"/>
-      <c r="D17" s="71"/>
-      <c r="E17" s="71"/>
-      <c r="F17" s="71"/>
-      <c r="G17" s="71"/>
-      <c r="H17" s="71"/>
-      <c r="I17" s="71"/>
-      <c r="J17" s="71"/>
-      <c r="K17" s="71"/>
-      <c r="L17" s="71"/>
-      <c r="M17" s="71"/>
-      <c r="N17" s="71"/>
-      <c r="O17" s="72"/>
+      <c r="A17" s="65"/>
+      <c r="B17" s="65"/>
+      <c r="C17" s="69"/>
+      <c r="D17" s="70"/>
+      <c r="E17" s="70"/>
+      <c r="F17" s="70"/>
+      <c r="G17" s="70"/>
+      <c r="H17" s="70"/>
+      <c r="I17" s="70"/>
+      <c r="J17" s="70"/>
+      <c r="K17" s="70"/>
+      <c r="L17" s="70"/>
+      <c r="M17" s="70"/>
+      <c r="N17" s="70"/>
+      <c r="O17" s="71"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A18" s="65">
+      <c r="A18" s="64">
         <v>2</v>
       </c>
-      <c r="B18" s="55">
+      <c r="B18" s="54">
         <v>43109</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -2394,7 +2412,7 @@
       <c r="E18" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F18" s="56" t="s">
+      <c r="F18" s="55" t="s">
         <v>80</v>
       </c>
       <c r="G18" s="1">
@@ -2403,19 +2421,19 @@
       <c r="H18" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="I18" s="56" t="s">
+      <c r="I18" s="55" t="s">
         <v>82</v>
       </c>
-      <c r="J18" s="56" t="s">
+      <c r="J18" s="55" t="s">
         <v>83</v>
       </c>
       <c r="K18" s="1">
         <v>18251920657</v>
       </c>
-      <c r="L18" s="56" t="s">
+      <c r="L18" s="55" t="s">
         <v>86</v>
       </c>
-      <c r="M18" s="56" t="s">
+      <c r="M18" s="55" t="s">
         <v>87</v>
       </c>
       <c r="N18" s="1">
@@ -2426,8 +2444,8 @@
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A19" s="66"/>
-      <c r="B19" s="55">
+      <c r="A19" s="65"/>
+      <c r="B19" s="54">
         <v>43109</v>
       </c>
       <c r="C19" s="1" t="s">
@@ -2439,7 +2457,7 @@
       <c r="E19" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="F19" s="56" t="s">
+      <c r="F19" s="55" t="s">
         <v>39</v>
       </c>
       <c r="G19" s="1">
@@ -2448,19 +2466,19 @@
       <c r="H19" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="I19" s="56" t="s">
+      <c r="I19" s="55" t="s">
         <v>39</v>
       </c>
-      <c r="J19" s="56" t="s">
+      <c r="J19" s="55" t="s">
         <v>41</v>
       </c>
       <c r="K19" s="1">
         <v>18251920657</v>
       </c>
-      <c r="L19" s="56" t="s">
+      <c r="L19" s="55" t="s">
         <v>88</v>
       </c>
-      <c r="M19" s="56" t="s">
+      <c r="M19" s="55" t="s">
         <v>89</v>
       </c>
       <c r="N19" s="1">
@@ -7286,13 +7304,13 @@
   <dimension ref="A1:G90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:G3"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="8.625" style="9"/>
-    <col min="2" max="2" width="18.625" customWidth="1"/>
+    <col min="2" max="2" width="29.875" customWidth="1"/>
     <col min="3" max="3" width="12.75" customWidth="1"/>
     <col min="4" max="4" width="35.25" style="10" customWidth="1"/>
     <col min="5" max="5" width="13.5" customWidth="1"/>
@@ -7324,34 +7342,34 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" s="65">
+      <c r="A2" s="64">
         <v>51</v>
       </c>
       <c r="B2" s="13"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="56"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
-      <c r="G2" s="56"/>
+      <c r="G2" s="55"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="73"/>
+      <c r="A3" s="72"/>
       <c r="B3" s="13"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="57"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="56"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
-      <c r="G3" s="56"/>
+      <c r="G3" s="55"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="73"/>
-      <c r="B4" s="13" t="s">
+      <c r="A4" s="72"/>
+      <c r="B4" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="C4" s="19">
+      <c r="C4" s="18">
         <v>43089</v>
       </c>
-      <c r="D4" s="57" t="s">
+      <c r="D4" s="56" t="s">
         <v>48</v>
       </c>
       <c r="E4" s="1" t="s">
@@ -7360,12 +7378,12 @@
       <c r="F4" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G4" s="56" t="s">
+      <c r="G4" s="55" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="73"/>
+      <c r="A5" s="72"/>
       <c r="B5" s="13"/>
       <c r="C5" s="13"/>
       <c r="D5" s="14"/>
@@ -7374,7 +7392,7 @@
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="73"/>
+      <c r="A6" s="72"/>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
       <c r="D6" s="14"/>
@@ -7383,7 +7401,7 @@
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="73"/>
+      <c r="A7" s="72"/>
       <c r="B7" s="13"/>
       <c r="C7" s="13"/>
       <c r="D7" s="14"/>
@@ -7392,7 +7410,7 @@
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" s="73"/>
+      <c r="A8" s="72"/>
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
       <c r="D8" s="14"/>
@@ -7401,7 +7419,7 @@
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A9" s="73"/>
+      <c r="A9" s="72"/>
       <c r="B9" s="13"/>
       <c r="C9" s="13"/>
       <c r="D9" s="14"/>
@@ -7410,7 +7428,7 @@
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A10" s="73"/>
+      <c r="A10" s="72"/>
       <c r="B10" s="13"/>
       <c r="C10" s="13"/>
       <c r="D10" s="14"/>
@@ -7419,7 +7437,7 @@
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A11" s="73"/>
+      <c r="A11" s="72"/>
       <c r="B11" s="13"/>
       <c r="C11" s="13"/>
       <c r="D11" s="14"/>
@@ -7428,7 +7446,7 @@
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A12" s="73"/>
+      <c r="A12" s="72"/>
       <c r="B12" s="13"/>
       <c r="C12" s="13"/>
       <c r="D12" s="14"/>
@@ -7437,7 +7455,7 @@
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A13" s="66"/>
+      <c r="A13" s="65"/>
       <c r="B13" s="13"/>
       <c r="C13" s="13"/>
       <c r="D13" s="14"/>
@@ -7446,61 +7464,121 @@
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A14" s="65"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="15"/>
+      <c r="A14" s="64">
+        <v>3</v>
+      </c>
+      <c r="B14" s="73" t="s">
+        <v>91</v>
+      </c>
+      <c r="C14" s="18">
+        <v>42744</v>
+      </c>
+      <c r="D14" s="56" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G14" s="55" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="15" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A15" s="73"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="15"/>
+      <c r="A15" s="72"/>
+      <c r="B15" s="73" t="s">
+        <v>92</v>
+      </c>
+      <c r="C15" s="18">
+        <v>42744</v>
+      </c>
+      <c r="D15" s="56" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G15" s="55" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="16" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A16" s="73"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="13"/>
+      <c r="A16" s="72"/>
+      <c r="B16" s="74" t="s">
+        <v>93</v>
+      </c>
+      <c r="C16" s="17"/>
+      <c r="D16" s="56" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G16" s="55" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="73"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
+      <c r="A17" s="72"/>
+      <c r="B17" s="74" t="s">
+        <v>94</v>
+      </c>
+      <c r="C17" s="18">
+        <v>42737</v>
+      </c>
+      <c r="D17" s="56" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G17" s="55" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="73"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
+      <c r="A18" s="72"/>
+      <c r="B18" s="74" t="s">
+        <v>95</v>
+      </c>
+      <c r="C18" s="18">
+        <v>43096</v>
+      </c>
+      <c r="D18" s="56" t="s">
+        <v>48</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G18" s="55" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A19" s="73"/>
+      <c r="A19" s="72"/>
       <c r="B19" s="13"/>
       <c r="C19" s="13"/>
-      <c r="D19" s="14"/>
+      <c r="D19" s="56"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A20" s="73"/>
+      <c r="A20" s="72"/>
       <c r="B20" s="13"/>
       <c r="C20" s="13"/>
       <c r="D20" s="14"/>
@@ -7509,7 +7587,7 @@
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21" s="73"/>
+      <c r="A21" s="72"/>
       <c r="B21" s="13"/>
       <c r="C21" s="13"/>
       <c r="D21" s="14"/>
@@ -7518,7 +7596,7 @@
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="73"/>
+      <c r="A22" s="72"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="14"/>
@@ -7527,7 +7605,7 @@
       <c r="G22" s="1"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A23" s="73"/>
+      <c r="A23" s="72"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="14"/>
@@ -7536,7 +7614,7 @@
       <c r="G23" s="1"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A24" s="73"/>
+      <c r="A24" s="72"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="14"/>
@@ -7545,7 +7623,7 @@
       <c r="G24" s="1"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A25" s="73"/>
+      <c r="A25" s="72"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="14"/>
@@ -7554,7 +7632,7 @@
       <c r="G25" s="1"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A26" s="66"/>
+      <c r="A26" s="65"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="14"/>
@@ -7563,25 +7641,25 @@
       <c r="G26" s="1"/>
     </row>
     <row r="27" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A27" s="65"/>
+      <c r="A27" s="64"/>
       <c r="B27" s="15"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="17"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="16"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="15"/>
     </row>
     <row r="28" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A28" s="73"/>
+      <c r="A28" s="72"/>
       <c r="B28" s="13"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="17"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="16"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="13"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A29" s="73"/>
+      <c r="A29" s="72"/>
       <c r="B29" s="13"/>
       <c r="C29" s="13"/>
       <c r="D29" s="14"/>
@@ -7590,7 +7668,7 @@
       <c r="G29" s="1"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A30" s="73"/>
+      <c r="A30" s="72"/>
       <c r="B30" s="13"/>
       <c r="C30" s="13"/>
       <c r="D30" s="14"/>
@@ -7599,7 +7677,7 @@
       <c r="G30" s="1"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A31" s="73"/>
+      <c r="A31" s="72"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="14"/>
@@ -7608,7 +7686,7 @@
       <c r="G31" s="1"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A32" s="73"/>
+      <c r="A32" s="72"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="14"/>
@@ -7617,7 +7695,7 @@
       <c r="G32" s="1"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A33" s="73"/>
+      <c r="A33" s="72"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="14"/>
@@ -7626,7 +7704,7 @@
       <c r="G33" s="1"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A34" s="73"/>
+      <c r="A34" s="72"/>
       <c r="B34" s="13"/>
       <c r="C34" s="13"/>
       <c r="D34" s="14"/>
@@ -7635,7 +7713,7 @@
       <c r="G34" s="1"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A35" s="73"/>
+      <c r="A35" s="72"/>
       <c r="B35" s="13"/>
       <c r="C35" s="13"/>
       <c r="D35" s="14"/>
@@ -7644,7 +7722,7 @@
       <c r="G35" s="1"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A36" s="73"/>
+      <c r="A36" s="72"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="14"/>
@@ -7653,7 +7731,7 @@
       <c r="G36" s="1"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A37" s="73"/>
+      <c r="A37" s="72"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="14"/>
@@ -7662,7 +7740,7 @@
       <c r="G37" s="1"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A38" s="73"/>
+      <c r="A38" s="72"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="14"/>
@@ -7671,7 +7749,7 @@
       <c r="G38" s="1"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A39" s="73"/>
+      <c r="A39" s="72"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="14"/>
@@ -7680,7 +7758,7 @@
       <c r="G39" s="1"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A40" s="73"/>
+      <c r="A40" s="72"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="14"/>
@@ -7689,7 +7767,7 @@
       <c r="G40" s="1"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A41" s="66"/>
+      <c r="A41" s="65"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="14"/>
@@ -7698,25 +7776,25 @@
       <c r="G41" s="1"/>
     </row>
     <row r="42" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A42" s="65"/>
+      <c r="A42" s="64"/>
       <c r="B42" s="13"/>
-      <c r="C42" s="18"/>
-      <c r="D42" s="17"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="16"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
       <c r="G42" s="13"/>
     </row>
     <row r="43" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A43" s="73"/>
+      <c r="A43" s="72"/>
       <c r="B43" s="13"/>
-      <c r="C43" s="19"/>
-      <c r="D43" s="17"/>
+      <c r="C43" s="18"/>
+      <c r="D43" s="16"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
       <c r="G43" s="8"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A44" s="73"/>
+      <c r="A44" s="72"/>
       <c r="B44" s="13"/>
       <c r="C44" s="13"/>
       <c r="D44" s="14"/>
@@ -7725,7 +7803,7 @@
       <c r="G44" s="1"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A45" s="73"/>
+      <c r="A45" s="72"/>
       <c r="B45" s="13"/>
       <c r="C45" s="13"/>
       <c r="D45" s="14"/>
@@ -7734,7 +7812,7 @@
       <c r="G45" s="1"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A46" s="73"/>
+      <c r="A46" s="72"/>
       <c r="B46" s="13"/>
       <c r="C46" s="13"/>
       <c r="D46" s="14"/>
@@ -7743,7 +7821,7 @@
       <c r="G46" s="1"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A47" s="73"/>
+      <c r="A47" s="72"/>
       <c r="B47" s="13"/>
       <c r="C47" s="13"/>
       <c r="D47" s="14"/>
@@ -7752,7 +7830,7 @@
       <c r="G47" s="1"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A48" s="73"/>
+      <c r="A48" s="72"/>
       <c r="B48" s="13"/>
       <c r="C48" s="13"/>
       <c r="D48" s="14"/>
@@ -7761,7 +7839,7 @@
       <c r="G48" s="1"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A49" s="73"/>
+      <c r="A49" s="72"/>
       <c r="B49" s="13"/>
       <c r="C49" s="13"/>
       <c r="D49" s="14"/>
@@ -7770,7 +7848,7 @@
       <c r="G49" s="1"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A50" s="73"/>
+      <c r="A50" s="72"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="14"/>
@@ -7779,7 +7857,7 @@
       <c r="G50" s="1"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A51" s="73"/>
+      <c r="A51" s="72"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="14"/>
@@ -7788,7 +7866,7 @@
       <c r="G51" s="1"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A52" s="73"/>
+      <c r="A52" s="72"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="14"/>
@@ -7797,7 +7875,7 @@
       <c r="G52" s="1"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A53" s="73"/>
+      <c r="A53" s="72"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="14"/>
@@ -7806,7 +7884,7 @@
       <c r="G53" s="1"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A54" s="73"/>
+      <c r="A54" s="72"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="14"/>
@@ -7815,7 +7893,7 @@
       <c r="G54" s="1"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A55" s="73"/>
+      <c r="A55" s="72"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="14"/>
@@ -7824,7 +7902,7 @@
       <c r="G55" s="1"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A56" s="66"/>
+      <c r="A56" s="65"/>
       <c r="B56" s="13"/>
       <c r="C56" s="13"/>
       <c r="D56" s="14"/>
@@ -7833,43 +7911,43 @@
       <c r="G56" s="1"/>
     </row>
     <row r="57" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A57" s="65"/>
+      <c r="A57" s="64"/>
       <c r="B57" s="13"/>
-      <c r="C57" s="18"/>
-      <c r="D57" s="17"/>
+      <c r="C57" s="17"/>
+      <c r="D57" s="16"/>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
       <c r="G57" s="13"/>
     </row>
     <row r="58" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A58" s="73"/>
+      <c r="A58" s="72"/>
       <c r="B58" s="13"/>
-      <c r="C58" s="19"/>
-      <c r="D58" s="17"/>
+      <c r="C58" s="18"/>
+      <c r="D58" s="16"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
       <c r="G58" s="8"/>
     </row>
     <row r="59" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A59" s="73"/>
+      <c r="A59" s="72"/>
       <c r="B59" s="13"/>
-      <c r="C59" s="19"/>
-      <c r="D59" s="17"/>
+      <c r="C59" s="18"/>
+      <c r="D59" s="16"/>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
       <c r="G59" s="8"/>
     </row>
     <row r="60" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A60" s="73"/>
+      <c r="A60" s="72"/>
       <c r="B60" s="13"/>
-      <c r="C60" s="19"/>
-      <c r="D60" s="17"/>
+      <c r="C60" s="18"/>
+      <c r="D60" s="16"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
-      <c r="G60" s="20"/>
+      <c r="G60" s="19"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A61" s="73"/>
+      <c r="A61" s="72"/>
       <c r="B61" s="13"/>
       <c r="C61" s="13"/>
       <c r="D61" s="14"/>
@@ -7878,7 +7956,7 @@
       <c r="G61" s="1"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A62" s="73"/>
+      <c r="A62" s="72"/>
       <c r="B62" s="13"/>
       <c r="C62" s="13"/>
       <c r="D62" s="14"/>
@@ -7887,7 +7965,7 @@
       <c r="G62" s="1"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A63" s="73"/>
+      <c r="A63" s="72"/>
       <c r="B63" s="13"/>
       <c r="C63" s="13"/>
       <c r="D63" s="14"/>
@@ -7896,7 +7974,7 @@
       <c r="G63" s="1"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A64" s="73"/>
+      <c r="A64" s="72"/>
       <c r="B64" s="13"/>
       <c r="C64" s="13"/>
       <c r="D64" s="14"/>
@@ -7905,7 +7983,7 @@
       <c r="G64" s="1"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A65" s="73"/>
+      <c r="A65" s="72"/>
       <c r="B65" s="13"/>
       <c r="C65" s="13"/>
       <c r="D65" s="14"/>
@@ -7914,7 +7992,7 @@
       <c r="G65" s="1"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A66" s="73"/>
+      <c r="A66" s="72"/>
       <c r="B66" s="13"/>
       <c r="C66" s="13"/>
       <c r="D66" s="14"/>
@@ -7923,7 +8001,7 @@
       <c r="G66" s="1"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A67" s="73"/>
+      <c r="A67" s="72"/>
       <c r="B67" s="13"/>
       <c r="C67" s="13"/>
       <c r="D67" s="14"/>
@@ -7932,7 +8010,7 @@
       <c r="G67" s="1"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A68" s="66"/>
+      <c r="A68" s="65"/>
       <c r="B68" s="13"/>
       <c r="C68" s="13"/>
       <c r="D68" s="14"/>
@@ -7941,43 +8019,43 @@
       <c r="G68" s="1"/>
     </row>
     <row r="69" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A69" s="65"/>
+      <c r="A69" s="64"/>
       <c r="B69" s="13"/>
-      <c r="C69" s="18"/>
-      <c r="D69" s="17"/>
+      <c r="C69" s="17"/>
+      <c r="D69" s="16"/>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
       <c r="G69" s="13"/>
     </row>
     <row r="70" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A70" s="73"/>
+      <c r="A70" s="72"/>
       <c r="B70" s="13"/>
-      <c r="C70" s="19"/>
-      <c r="D70" s="17"/>
+      <c r="C70" s="18"/>
+      <c r="D70" s="16"/>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
       <c r="G70" s="8"/>
     </row>
     <row r="71" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A71" s="73"/>
+      <c r="A71" s="72"/>
       <c r="B71" s="13"/>
-      <c r="C71" s="19"/>
-      <c r="D71" s="17"/>
+      <c r="C71" s="18"/>
+      <c r="D71" s="16"/>
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
       <c r="G71" s="8"/>
     </row>
     <row r="72" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A72" s="73"/>
+      <c r="A72" s="72"/>
       <c r="B72" s="13"/>
-      <c r="C72" s="19"/>
-      <c r="D72" s="17"/>
+      <c r="C72" s="18"/>
+      <c r="D72" s="16"/>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
-      <c r="G72" s="20"/>
+      <c r="G72" s="19"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A73" s="73"/>
+      <c r="A73" s="72"/>
       <c r="B73" s="13"/>
       <c r="C73" s="13"/>
       <c r="D73" s="14"/>
@@ -7986,7 +8064,7 @@
       <c r="G73" s="1"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A74" s="73"/>
+      <c r="A74" s="72"/>
       <c r="B74" s="13"/>
       <c r="C74" s="13"/>
       <c r="D74" s="14"/>
@@ -7995,7 +8073,7 @@
       <c r="G74" s="1"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A75" s="73"/>
+      <c r="A75" s="72"/>
       <c r="B75" s="13"/>
       <c r="C75" s="13"/>
       <c r="D75" s="14"/>
@@ -8004,7 +8082,7 @@
       <c r="G75" s="1"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A76" s="73"/>
+      <c r="A76" s="72"/>
       <c r="B76" s="13"/>
       <c r="C76" s="13"/>
       <c r="D76" s="14"/>
@@ -8013,7 +8091,7 @@
       <c r="G76" s="1"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A77" s="73"/>
+      <c r="A77" s="72"/>
       <c r="B77" s="13"/>
       <c r="C77" s="13"/>
       <c r="D77" s="14"/>
@@ -8022,7 +8100,7 @@
       <c r="G77" s="1"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A78" s="73"/>
+      <c r="A78" s="72"/>
       <c r="B78" s="13"/>
       <c r="C78" s="13"/>
       <c r="D78" s="14"/>
@@ -8031,7 +8109,7 @@
       <c r="G78" s="1"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A79" s="73"/>
+      <c r="A79" s="72"/>
       <c r="B79" s="13"/>
       <c r="C79" s="13"/>
       <c r="D79" s="14"/>
@@ -8040,7 +8118,7 @@
       <c r="G79" s="1"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A80" s="66"/>
+      <c r="A80" s="65"/>
       <c r="B80" s="13"/>
       <c r="C80" s="13"/>
       <c r="D80" s="14"/>
@@ -8049,25 +8127,25 @@
       <c r="G80" s="1"/>
     </row>
     <row r="81" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A81" s="73"/>
+      <c r="A81" s="72"/>
       <c r="B81" s="13"/>
-      <c r="C81" s="19"/>
-      <c r="D81" s="17"/>
+      <c r="C81" s="18"/>
+      <c r="D81" s="16"/>
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
       <c r="G81" s="8"/>
     </row>
     <row r="82" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A82" s="73"/>
+      <c r="A82" s="72"/>
       <c r="B82" s="13"/>
-      <c r="C82" s="19"/>
-      <c r="D82" s="17"/>
+      <c r="C82" s="18"/>
+      <c r="D82" s="16"/>
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
-      <c r="G82" s="20"/>
+      <c r="G82" s="19"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A83" s="73"/>
+      <c r="A83" s="72"/>
       <c r="B83" s="13"/>
       <c r="C83" s="13"/>
       <c r="D83" s="14"/>
@@ -8076,7 +8154,7 @@
       <c r="G83" s="1"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A84" s="73"/>
+      <c r="A84" s="72"/>
       <c r="B84" s="13"/>
       <c r="C84" s="13"/>
       <c r="D84" s="14"/>
@@ -8085,7 +8163,7 @@
       <c r="G84" s="1"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A85" s="73"/>
+      <c r="A85" s="72"/>
       <c r="B85" s="13"/>
       <c r="C85" s="13"/>
       <c r="D85" s="14"/>
@@ -8094,7 +8172,7 @@
       <c r="G85" s="1"/>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A86" s="73"/>
+      <c r="A86" s="72"/>
       <c r="B86" s="13"/>
       <c r="C86" s="13"/>
       <c r="D86" s="14"/>
@@ -8103,7 +8181,7 @@
       <c r="G86" s="1"/>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A87" s="73"/>
+      <c r="A87" s="72"/>
       <c r="B87" s="13"/>
       <c r="C87" s="13"/>
       <c r="D87" s="14"/>
@@ -8112,7 +8190,7 @@
       <c r="G87" s="1"/>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A88" s="73"/>
+      <c r="A88" s="72"/>
       <c r="B88" s="13"/>
       <c r="C88" s="13"/>
       <c r="D88" s="14"/>
@@ -8121,7 +8199,7 @@
       <c r="G88" s="1"/>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A89" s="73"/>
+      <c r="A89" s="72"/>
       <c r="B89" s="13"/>
       <c r="C89" s="13"/>
       <c r="D89" s="14"/>
@@ -8130,7 +8208,7 @@
       <c r="G89" s="1"/>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A90" s="66"/>
+      <c r="A90" s="65"/>
       <c r="B90" s="13"/>
       <c r="C90" s="13"/>
       <c r="D90" s="14"/>

--- a/周数据/《个人上线率统计表》-潘辰.xlsx
+++ b/周数据/《个人上线率统计表》-潘辰.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21300" windowHeight="9330"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21300" windowHeight="9330" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="项目数据分析表" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="104">
   <si>
     <t>个人上线率分析表</t>
   </si>
@@ -352,6 +352,25 @@
   </si>
   <si>
     <t>李雪磊</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>清溪川韩国烤肉</t>
+  </si>
+  <si>
+    <t>南京</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>潘辰</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>老板</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>金永灿</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -1078,6 +1097,12 @@
     <xf numFmtId="14" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1122,12 +1147,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1406,7 +1425,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -1427,21 +1446,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-      <c r="M1" s="61"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
+      <c r="M1" s="63"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2" s="25" t="s">
@@ -1485,7 +1504,7 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A3" s="62"/>
+      <c r="A3" s="64"/>
       <c r="B3" s="31">
         <v>48</v>
       </c>
@@ -1524,7 +1543,7 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A4" s="62"/>
+      <c r="A4" s="64"/>
       <c r="B4" s="31">
         <v>49</v>
       </c>
@@ -1563,7 +1582,7 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A5" s="62"/>
+      <c r="A5" s="64"/>
       <c r="B5" s="31">
         <v>50</v>
       </c>
@@ -1602,7 +1621,7 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A6" s="62"/>
+      <c r="A6" s="64"/>
       <c r="B6" s="31">
         <v>52</v>
       </c>
@@ -1641,7 +1660,7 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A7" s="62"/>
+      <c r="A7" s="64"/>
       <c r="B7" s="31">
         <v>3</v>
       </c>
@@ -1676,7 +1695,7 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A8" s="63"/>
+      <c r="A8" s="65"/>
       <c r="B8" s="36"/>
       <c r="C8" s="37"/>
       <c r="D8" s="38"/>
@@ -1723,8 +1742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O300"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:A9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1790,7 +1809,7 @@
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A2" s="64">
+      <c r="A2" s="66">
         <v>48</v>
       </c>
       <c r="B2" s="54">
@@ -1837,7 +1856,7 @@
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A3" s="72"/>
+      <c r="A3" s="74"/>
       <c r="B3" s="54">
         <v>43070</v>
       </c>
@@ -1882,7 +1901,7 @@
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A4" s="72"/>
+      <c r="A4" s="74"/>
       <c r="B4" s="54">
         <v>43070</v>
       </c>
@@ -1927,7 +1946,7 @@
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A5" s="65"/>
+      <c r="A5" s="67"/>
       <c r="B5" s="54">
         <v>43071</v>
       </c>
@@ -1972,7 +1991,7 @@
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A6" s="64">
+      <c r="A6" s="66">
         <v>49</v>
       </c>
       <c r="B6" s="54">
@@ -2019,7 +2038,7 @@
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A7" s="72"/>
+      <c r="A7" s="74"/>
       <c r="B7" s="54">
         <v>43077</v>
       </c>
@@ -2064,7 +2083,7 @@
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A8" s="72"/>
+      <c r="A8" s="74"/>
       <c r="B8" s="54"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -2081,7 +2100,7 @@
       <c r="O8" s="1"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A9" s="65"/>
+      <c r="A9" s="67"/>
       <c r="B9" s="1"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.15">
@@ -2132,7 +2151,7 @@
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A11" s="64">
+      <c r="A11" s="66">
         <v>52</v>
       </c>
       <c r="B11" s="54">
@@ -2179,7 +2198,7 @@
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A12" s="72"/>
+      <c r="A12" s="74"/>
       <c r="B12" s="54">
         <v>43095</v>
       </c>
@@ -2224,7 +2243,7 @@
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A13" s="72"/>
+      <c r="A13" s="74"/>
       <c r="B13" s="54">
         <v>43096</v>
       </c>
@@ -2269,7 +2288,7 @@
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A14" s="72"/>
+      <c r="A14" s="74"/>
       <c r="B14" s="54">
         <v>43096</v>
       </c>
@@ -2314,7 +2333,7 @@
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A15" s="65"/>
+      <c r="A15" s="67"/>
       <c r="B15" s="54">
         <v>43096</v>
       </c>
@@ -2359,45 +2378,45 @@
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A16" s="64">
+      <c r="A16" s="66">
         <v>1</v>
       </c>
-      <c r="B16" s="64" t="s">
+      <c r="B16" s="66" t="s">
         <v>78</v>
       </c>
-      <c r="C16" s="66"/>
-      <c r="D16" s="67"/>
-      <c r="E16" s="67"/>
-      <c r="F16" s="67"/>
-      <c r="G16" s="67"/>
-      <c r="H16" s="67"/>
-      <c r="I16" s="67"/>
-      <c r="J16" s="67"/>
-      <c r="K16" s="67"/>
-      <c r="L16" s="67"/>
-      <c r="M16" s="67"/>
-      <c r="N16" s="67"/>
-      <c r="O16" s="68"/>
+      <c r="C16" s="68"/>
+      <c r="D16" s="69"/>
+      <c r="E16" s="69"/>
+      <c r="F16" s="69"/>
+      <c r="G16" s="69"/>
+      <c r="H16" s="69"/>
+      <c r="I16" s="69"/>
+      <c r="J16" s="69"/>
+      <c r="K16" s="69"/>
+      <c r="L16" s="69"/>
+      <c r="M16" s="69"/>
+      <c r="N16" s="69"/>
+      <c r="O16" s="70"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A17" s="65"/>
-      <c r="B17" s="65"/>
-      <c r="C17" s="69"/>
-      <c r="D17" s="70"/>
-      <c r="E17" s="70"/>
-      <c r="F17" s="70"/>
-      <c r="G17" s="70"/>
-      <c r="H17" s="70"/>
-      <c r="I17" s="70"/>
-      <c r="J17" s="70"/>
-      <c r="K17" s="70"/>
-      <c r="L17" s="70"/>
-      <c r="M17" s="70"/>
-      <c r="N17" s="70"/>
-      <c r="O17" s="71"/>
+      <c r="A17" s="67"/>
+      <c r="B17" s="67"/>
+      <c r="C17" s="71"/>
+      <c r="D17" s="72"/>
+      <c r="E17" s="72"/>
+      <c r="F17" s="72"/>
+      <c r="G17" s="72"/>
+      <c r="H17" s="72"/>
+      <c r="I17" s="72"/>
+      <c r="J17" s="72"/>
+      <c r="K17" s="72"/>
+      <c r="L17" s="72"/>
+      <c r="M17" s="72"/>
+      <c r="N17" s="72"/>
+      <c r="O17" s="73"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A18" s="64">
+      <c r="A18" s="66">
         <v>2</v>
       </c>
       <c r="B18" s="54">
@@ -2444,7 +2463,7 @@
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A19" s="65"/>
+      <c r="A19" s="67"/>
       <c r="B19" s="54">
         <v>43109</v>
       </c>
@@ -2510,21 +2529,51 @@
       <c r="O20" s="1"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
+      <c r="A21" s="8">
+        <v>4</v>
+      </c>
+      <c r="B21" s="54">
+        <v>43122</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F21" s="55" t="s">
+        <v>39</v>
+      </c>
+      <c r="G21" s="1">
+        <v>76127081</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="I21" s="55" t="s">
+        <v>100</v>
+      </c>
+      <c r="J21" s="55" t="s">
+        <v>101</v>
+      </c>
+      <c r="K21" s="1">
+        <v>18251920657</v>
+      </c>
+      <c r="L21" s="55" t="s">
+        <v>103</v>
+      </c>
+      <c r="M21" s="55" t="s">
+        <v>102</v>
+      </c>
+      <c r="N21" s="1">
+        <v>18651861349</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A22" s="1"/>
@@ -7287,7 +7336,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1">
       <formula1>"SaaS,库存,供应链,饮食通,饮食通老客户上线"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F15 F20:F65536">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F15 F20 F22:F65536">
       <formula1>"单店,小连锁,KA项目"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O8 O10:O15 O18:O65536">
@@ -7342,7 +7391,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" s="64">
+      <c r="A2" s="66">
         <v>51</v>
       </c>
       <c r="B2" s="13"/>
@@ -7353,7 +7402,7 @@
       <c r="G2" s="55"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="72"/>
+      <c r="A3" s="74"/>
       <c r="B3" s="13"/>
       <c r="C3" s="18"/>
       <c r="D3" s="56"/>
@@ -7362,8 +7411,8 @@
       <c r="G3" s="55"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="72"/>
-      <c r="B4" s="74" t="s">
+      <c r="A4" s="74"/>
+      <c r="B4" s="59" t="s">
         <v>53</v>
       </c>
       <c r="C4" s="18">
@@ -7383,7 +7432,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="72"/>
+      <c r="A5" s="74"/>
       <c r="B5" s="13"/>
       <c r="C5" s="13"/>
       <c r="D5" s="14"/>
@@ -7392,7 +7441,7 @@
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="72"/>
+      <c r="A6" s="74"/>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
       <c r="D6" s="14"/>
@@ -7401,7 +7450,7 @@
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="72"/>
+      <c r="A7" s="74"/>
       <c r="B7" s="13"/>
       <c r="C7" s="13"/>
       <c r="D7" s="14"/>
@@ -7410,7 +7459,7 @@
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" s="72"/>
+      <c r="A8" s="74"/>
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
       <c r="D8" s="14"/>
@@ -7419,7 +7468,7 @@
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A9" s="72"/>
+      <c r="A9" s="74"/>
       <c r="B9" s="13"/>
       <c r="C9" s="13"/>
       <c r="D9" s="14"/>
@@ -7428,7 +7477,7 @@
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A10" s="72"/>
+      <c r="A10" s="74"/>
       <c r="B10" s="13"/>
       <c r="C10" s="13"/>
       <c r="D10" s="14"/>
@@ -7437,7 +7486,7 @@
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A11" s="72"/>
+      <c r="A11" s="74"/>
       <c r="B11" s="13"/>
       <c r="C11" s="13"/>
       <c r="D11" s="14"/>
@@ -7446,7 +7495,7 @@
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A12" s="72"/>
+      <c r="A12" s="74"/>
       <c r="B12" s="13"/>
       <c r="C12" s="13"/>
       <c r="D12" s="14"/>
@@ -7455,7 +7504,7 @@
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A13" s="65"/>
+      <c r="A13" s="67"/>
       <c r="B13" s="13"/>
       <c r="C13" s="13"/>
       <c r="D13" s="14"/>
@@ -7464,10 +7513,10 @@
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A14" s="64">
+      <c r="A14" s="66">
         <v>3</v>
       </c>
-      <c r="B14" s="73" t="s">
+      <c r="B14" s="58" t="s">
         <v>91</v>
       </c>
       <c r="C14" s="18">
@@ -7487,8 +7536,8 @@
       </c>
     </row>
     <row r="15" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A15" s="72"/>
-      <c r="B15" s="73" t="s">
+      <c r="A15" s="74"/>
+      <c r="B15" s="58" t="s">
         <v>92</v>
       </c>
       <c r="C15" s="18">
@@ -7508,8 +7557,8 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A16" s="72"/>
-      <c r="B16" s="74" t="s">
+      <c r="A16" s="74"/>
+      <c r="B16" s="59" t="s">
         <v>93</v>
       </c>
       <c r="C16" s="17"/>
@@ -7527,8 +7576,8 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="72"/>
-      <c r="B17" s="74" t="s">
+      <c r="A17" s="74"/>
+      <c r="B17" s="59" t="s">
         <v>94</v>
       </c>
       <c r="C17" s="18">
@@ -7548,8 +7597,8 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="72"/>
-      <c r="B18" s="74" t="s">
+      <c r="A18" s="74"/>
+      <c r="B18" s="59" t="s">
         <v>95</v>
       </c>
       <c r="C18" s="18">
@@ -7569,7 +7618,7 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A19" s="72"/>
+      <c r="A19" s="74"/>
       <c r="B19" s="13"/>
       <c r="C19" s="13"/>
       <c r="D19" s="56"/>
@@ -7578,7 +7627,7 @@
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A20" s="72"/>
+      <c r="A20" s="74"/>
       <c r="B20" s="13"/>
       <c r="C20" s="13"/>
       <c r="D20" s="14"/>
@@ -7587,7 +7636,7 @@
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21" s="72"/>
+      <c r="A21" s="74"/>
       <c r="B21" s="13"/>
       <c r="C21" s="13"/>
       <c r="D21" s="14"/>
@@ -7596,7 +7645,7 @@
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="72"/>
+      <c r="A22" s="74"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="14"/>
@@ -7605,7 +7654,7 @@
       <c r="G22" s="1"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A23" s="72"/>
+      <c r="A23" s="74"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="14"/>
@@ -7614,7 +7663,7 @@
       <c r="G23" s="1"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A24" s="72"/>
+      <c r="A24" s="74"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="14"/>
@@ -7623,7 +7672,7 @@
       <c r="G24" s="1"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A25" s="72"/>
+      <c r="A25" s="74"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="14"/>
@@ -7632,7 +7681,7 @@
       <c r="G25" s="1"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A26" s="65"/>
+      <c r="A26" s="67"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="14"/>
@@ -7641,7 +7690,7 @@
       <c r="G26" s="1"/>
     </row>
     <row r="27" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A27" s="64"/>
+      <c r="A27" s="66"/>
       <c r="B27" s="15"/>
       <c r="C27" s="17"/>
       <c r="D27" s="16"/>
@@ -7650,7 +7699,7 @@
       <c r="G27" s="15"/>
     </row>
     <row r="28" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A28" s="72"/>
+      <c r="A28" s="74"/>
       <c r="B28" s="13"/>
       <c r="C28" s="17"/>
       <c r="D28" s="16"/>
@@ -7659,7 +7708,7 @@
       <c r="G28" s="13"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A29" s="72"/>
+      <c r="A29" s="74"/>
       <c r="B29" s="13"/>
       <c r="C29" s="13"/>
       <c r="D29" s="14"/>
@@ -7668,7 +7717,7 @@
       <c r="G29" s="1"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A30" s="72"/>
+      <c r="A30" s="74"/>
       <c r="B30" s="13"/>
       <c r="C30" s="13"/>
       <c r="D30" s="14"/>
@@ -7677,7 +7726,7 @@
       <c r="G30" s="1"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A31" s="72"/>
+      <c r="A31" s="74"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="14"/>
@@ -7686,7 +7735,7 @@
       <c r="G31" s="1"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A32" s="72"/>
+      <c r="A32" s="74"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="14"/>
@@ -7695,7 +7744,7 @@
       <c r="G32" s="1"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A33" s="72"/>
+      <c r="A33" s="74"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="14"/>
@@ -7704,7 +7753,7 @@
       <c r="G33" s="1"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A34" s="72"/>
+      <c r="A34" s="74"/>
       <c r="B34" s="13"/>
       <c r="C34" s="13"/>
       <c r="D34" s="14"/>
@@ -7713,7 +7762,7 @@
       <c r="G34" s="1"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A35" s="72"/>
+      <c r="A35" s="74"/>
       <c r="B35" s="13"/>
       <c r="C35" s="13"/>
       <c r="D35" s="14"/>
@@ -7722,7 +7771,7 @@
       <c r="G35" s="1"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A36" s="72"/>
+      <c r="A36" s="74"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="14"/>
@@ -7731,7 +7780,7 @@
       <c r="G36" s="1"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A37" s="72"/>
+      <c r="A37" s="74"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="14"/>
@@ -7740,7 +7789,7 @@
       <c r="G37" s="1"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A38" s="72"/>
+      <c r="A38" s="74"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="14"/>
@@ -7749,7 +7798,7 @@
       <c r="G38" s="1"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A39" s="72"/>
+      <c r="A39" s="74"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="14"/>
@@ -7758,7 +7807,7 @@
       <c r="G39" s="1"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A40" s="72"/>
+      <c r="A40" s="74"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="14"/>
@@ -7767,7 +7816,7 @@
       <c r="G40" s="1"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A41" s="65"/>
+      <c r="A41" s="67"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="14"/>
@@ -7776,7 +7825,7 @@
       <c r="G41" s="1"/>
     </row>
     <row r="42" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A42" s="64"/>
+      <c r="A42" s="66"/>
       <c r="B42" s="13"/>
       <c r="C42" s="17"/>
       <c r="D42" s="16"/>
@@ -7785,7 +7834,7 @@
       <c r="G42" s="13"/>
     </row>
     <row r="43" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A43" s="72"/>
+      <c r="A43" s="74"/>
       <c r="B43" s="13"/>
       <c r="C43" s="18"/>
       <c r="D43" s="16"/>
@@ -7794,7 +7843,7 @@
       <c r="G43" s="8"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A44" s="72"/>
+      <c r="A44" s="74"/>
       <c r="B44" s="13"/>
       <c r="C44" s="13"/>
       <c r="D44" s="14"/>
@@ -7803,7 +7852,7 @@
       <c r="G44" s="1"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A45" s="72"/>
+      <c r="A45" s="74"/>
       <c r="B45" s="13"/>
       <c r="C45" s="13"/>
       <c r="D45" s="14"/>
@@ -7812,7 +7861,7 @@
       <c r="G45" s="1"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A46" s="72"/>
+      <c r="A46" s="74"/>
       <c r="B46" s="13"/>
       <c r="C46" s="13"/>
       <c r="D46" s="14"/>
@@ -7821,7 +7870,7 @@
       <c r="G46" s="1"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A47" s="72"/>
+      <c r="A47" s="74"/>
       <c r="B47" s="13"/>
       <c r="C47" s="13"/>
       <c r="D47" s="14"/>
@@ -7830,7 +7879,7 @@
       <c r="G47" s="1"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A48" s="72"/>
+      <c r="A48" s="74"/>
       <c r="B48" s="13"/>
       <c r="C48" s="13"/>
       <c r="D48" s="14"/>
@@ -7839,7 +7888,7 @@
       <c r="G48" s="1"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A49" s="72"/>
+      <c r="A49" s="74"/>
       <c r="B49" s="13"/>
       <c r="C49" s="13"/>
       <c r="D49" s="14"/>
@@ -7848,7 +7897,7 @@
       <c r="G49" s="1"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A50" s="72"/>
+      <c r="A50" s="74"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="14"/>
@@ -7857,7 +7906,7 @@
       <c r="G50" s="1"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A51" s="72"/>
+      <c r="A51" s="74"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="14"/>
@@ -7866,7 +7915,7 @@
       <c r="G51" s="1"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A52" s="72"/>
+      <c r="A52" s="74"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="14"/>
@@ -7875,7 +7924,7 @@
       <c r="G52" s="1"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A53" s="72"/>
+      <c r="A53" s="74"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="14"/>
@@ -7884,7 +7933,7 @@
       <c r="G53" s="1"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A54" s="72"/>
+      <c r="A54" s="74"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="14"/>
@@ -7893,7 +7942,7 @@
       <c r="G54" s="1"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A55" s="72"/>
+      <c r="A55" s="74"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="14"/>
@@ -7902,7 +7951,7 @@
       <c r="G55" s="1"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A56" s="65"/>
+      <c r="A56" s="67"/>
       <c r="B56" s="13"/>
       <c r="C56" s="13"/>
       <c r="D56" s="14"/>
@@ -7911,7 +7960,7 @@
       <c r="G56" s="1"/>
     </row>
     <row r="57" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A57" s="64"/>
+      <c r="A57" s="66"/>
       <c r="B57" s="13"/>
       <c r="C57" s="17"/>
       <c r="D57" s="16"/>
@@ -7920,7 +7969,7 @@
       <c r="G57" s="13"/>
     </row>
     <row r="58" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A58" s="72"/>
+      <c r="A58" s="74"/>
       <c r="B58" s="13"/>
       <c r="C58" s="18"/>
       <c r="D58" s="16"/>
@@ -7929,7 +7978,7 @@
       <c r="G58" s="8"/>
     </row>
     <row r="59" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A59" s="72"/>
+      <c r="A59" s="74"/>
       <c r="B59" s="13"/>
       <c r="C59" s="18"/>
       <c r="D59" s="16"/>
@@ -7938,7 +7987,7 @@
       <c r="G59" s="8"/>
     </row>
     <row r="60" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A60" s="72"/>
+      <c r="A60" s="74"/>
       <c r="B60" s="13"/>
       <c r="C60" s="18"/>
       <c r="D60" s="16"/>
@@ -7947,7 +7996,7 @@
       <c r="G60" s="19"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A61" s="72"/>
+      <c r="A61" s="74"/>
       <c r="B61" s="13"/>
       <c r="C61" s="13"/>
       <c r="D61" s="14"/>
@@ -7956,7 +8005,7 @@
       <c r="G61" s="1"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A62" s="72"/>
+      <c r="A62" s="74"/>
       <c r="B62" s="13"/>
       <c r="C62" s="13"/>
       <c r="D62" s="14"/>
@@ -7965,7 +8014,7 @@
       <c r="G62" s="1"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A63" s="72"/>
+      <c r="A63" s="74"/>
       <c r="B63" s="13"/>
       <c r="C63" s="13"/>
       <c r="D63" s="14"/>
@@ -7974,7 +8023,7 @@
       <c r="G63" s="1"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A64" s="72"/>
+      <c r="A64" s="74"/>
       <c r="B64" s="13"/>
       <c r="C64" s="13"/>
       <c r="D64" s="14"/>
@@ -7983,7 +8032,7 @@
       <c r="G64" s="1"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A65" s="72"/>
+      <c r="A65" s="74"/>
       <c r="B65" s="13"/>
       <c r="C65" s="13"/>
       <c r="D65" s="14"/>
@@ -7992,7 +8041,7 @@
       <c r="G65" s="1"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A66" s="72"/>
+      <c r="A66" s="74"/>
       <c r="B66" s="13"/>
       <c r="C66" s="13"/>
       <c r="D66" s="14"/>
@@ -8001,7 +8050,7 @@
       <c r="G66" s="1"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A67" s="72"/>
+      <c r="A67" s="74"/>
       <c r="B67" s="13"/>
       <c r="C67" s="13"/>
       <c r="D67" s="14"/>
@@ -8010,7 +8059,7 @@
       <c r="G67" s="1"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A68" s="65"/>
+      <c r="A68" s="67"/>
       <c r="B68" s="13"/>
       <c r="C68" s="13"/>
       <c r="D68" s="14"/>
@@ -8019,7 +8068,7 @@
       <c r="G68" s="1"/>
     </row>
     <row r="69" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A69" s="64"/>
+      <c r="A69" s="66"/>
       <c r="B69" s="13"/>
       <c r="C69" s="17"/>
       <c r="D69" s="16"/>
@@ -8028,7 +8077,7 @@
       <c r="G69" s="13"/>
     </row>
     <row r="70" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A70" s="72"/>
+      <c r="A70" s="74"/>
       <c r="B70" s="13"/>
       <c r="C70" s="18"/>
       <c r="D70" s="16"/>
@@ -8037,7 +8086,7 @@
       <c r="G70" s="8"/>
     </row>
     <row r="71" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A71" s="72"/>
+      <c r="A71" s="74"/>
       <c r="B71" s="13"/>
       <c r="C71" s="18"/>
       <c r="D71" s="16"/>
@@ -8046,7 +8095,7 @@
       <c r="G71" s="8"/>
     </row>
     <row r="72" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A72" s="72"/>
+      <c r="A72" s="74"/>
       <c r="B72" s="13"/>
       <c r="C72" s="18"/>
       <c r="D72" s="16"/>
@@ -8055,7 +8104,7 @@
       <c r="G72" s="19"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A73" s="72"/>
+      <c r="A73" s="74"/>
       <c r="B73" s="13"/>
       <c r="C73" s="13"/>
       <c r="D73" s="14"/>
@@ -8064,7 +8113,7 @@
       <c r="G73" s="1"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A74" s="72"/>
+      <c r="A74" s="74"/>
       <c r="B74" s="13"/>
       <c r="C74" s="13"/>
       <c r="D74" s="14"/>
@@ -8073,7 +8122,7 @@
       <c r="G74" s="1"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A75" s="72"/>
+      <c r="A75" s="74"/>
       <c r="B75" s="13"/>
       <c r="C75" s="13"/>
       <c r="D75" s="14"/>
@@ -8082,7 +8131,7 @@
       <c r="G75" s="1"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A76" s="72"/>
+      <c r="A76" s="74"/>
       <c r="B76" s="13"/>
       <c r="C76" s="13"/>
       <c r="D76" s="14"/>
@@ -8091,7 +8140,7 @@
       <c r="G76" s="1"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A77" s="72"/>
+      <c r="A77" s="74"/>
       <c r="B77" s="13"/>
       <c r="C77" s="13"/>
       <c r="D77" s="14"/>
@@ -8100,7 +8149,7 @@
       <c r="G77" s="1"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A78" s="72"/>
+      <c r="A78" s="74"/>
       <c r="B78" s="13"/>
       <c r="C78" s="13"/>
       <c r="D78" s="14"/>
@@ -8109,7 +8158,7 @@
       <c r="G78" s="1"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A79" s="72"/>
+      <c r="A79" s="74"/>
       <c r="B79" s="13"/>
       <c r="C79" s="13"/>
       <c r="D79" s="14"/>
@@ -8118,7 +8167,7 @@
       <c r="G79" s="1"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A80" s="65"/>
+      <c r="A80" s="67"/>
       <c r="B80" s="13"/>
       <c r="C80" s="13"/>
       <c r="D80" s="14"/>
@@ -8127,7 +8176,7 @@
       <c r="G80" s="1"/>
     </row>
     <row r="81" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A81" s="72"/>
+      <c r="A81" s="74"/>
       <c r="B81" s="13"/>
       <c r="C81" s="18"/>
       <c r="D81" s="16"/>
@@ -8136,7 +8185,7 @@
       <c r="G81" s="8"/>
     </row>
     <row r="82" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A82" s="72"/>
+      <c r="A82" s="74"/>
       <c r="B82" s="13"/>
       <c r="C82" s="18"/>
       <c r="D82" s="16"/>
@@ -8145,7 +8194,7 @@
       <c r="G82" s="19"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A83" s="72"/>
+      <c r="A83" s="74"/>
       <c r="B83" s="13"/>
       <c r="C83" s="13"/>
       <c r="D83" s="14"/>
@@ -8154,7 +8203,7 @@
       <c r="G83" s="1"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A84" s="72"/>
+      <c r="A84" s="74"/>
       <c r="B84" s="13"/>
       <c r="C84" s="13"/>
       <c r="D84" s="14"/>
@@ -8163,7 +8212,7 @@
       <c r="G84" s="1"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A85" s="72"/>
+      <c r="A85" s="74"/>
       <c r="B85" s="13"/>
       <c r="C85" s="13"/>
       <c r="D85" s="14"/>
@@ -8172,7 +8221,7 @@
       <c r="G85" s="1"/>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A86" s="72"/>
+      <c r="A86" s="74"/>
       <c r="B86" s="13"/>
       <c r="C86" s="13"/>
       <c r="D86" s="14"/>
@@ -8181,7 +8230,7 @@
       <c r="G86" s="1"/>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A87" s="72"/>
+      <c r="A87" s="74"/>
       <c r="B87" s="13"/>
       <c r="C87" s="13"/>
       <c r="D87" s="14"/>
@@ -8190,7 +8239,7 @@
       <c r="G87" s="1"/>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A88" s="72"/>
+      <c r="A88" s="74"/>
       <c r="B88" s="13"/>
       <c r="C88" s="13"/>
       <c r="D88" s="14"/>
@@ -8199,7 +8248,7 @@
       <c r="G88" s="1"/>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A89" s="72"/>
+      <c r="A89" s="74"/>
       <c r="B89" s="13"/>
       <c r="C89" s="13"/>
       <c r="D89" s="14"/>
@@ -8208,7 +8257,7 @@
       <c r="G89" s="1"/>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A90" s="65"/>
+      <c r="A90" s="67"/>
       <c r="B90" s="13"/>
       <c r="C90" s="13"/>
       <c r="D90" s="14"/>

--- a/周数据/《个人上线率统计表》-潘辰.xlsx
+++ b/周数据/《个人上线率统计表》-潘辰.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="105">
   <si>
     <t>个人上线率分析表</t>
   </si>
@@ -371,6 +371,10 @@
   </si>
   <si>
     <t>金永灿</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>南通</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -1742,8 +1746,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O300"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+    <sheetView tabSelected="1" topLeftCell="F7" workbookViewId="0">
+      <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2529,7 +2533,7 @@
       <c r="O20" s="1"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A21" s="8">
+      <c r="A21" s="66">
         <v>4</v>
       </c>
       <c r="B21" s="54">
@@ -2576,21 +2580,49 @@
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
+      <c r="A22" s="67"/>
+      <c r="B22" s="54">
+        <v>43124</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F22" s="55" t="s">
+        <v>104</v>
+      </c>
+      <c r="G22" s="1">
+        <v>76122869</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I22" s="55" t="s">
+        <v>39</v>
+      </c>
+      <c r="J22" s="55" t="s">
+        <v>41</v>
+      </c>
+      <c r="K22" s="1">
+        <v>18251920657</v>
+      </c>
+      <c r="L22" s="55" t="s">
+        <v>73</v>
+      </c>
+      <c r="M22" s="55" t="s">
+        <v>74</v>
+      </c>
+      <c r="N22" s="1">
+        <v>15189977010</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A23" s="1"/>
@@ -7319,7 +7351,8 @@
       <c r="O300" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="A21:A22"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="C16:O17"/>
     <mergeCell ref="A2:A5"/>
@@ -7336,7 +7369,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1">
       <formula1>"SaaS,库存,供应链,饮食通,饮食通老客户上线"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F15 F20 F22:F65536">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F15 F20 F23:F65536">
       <formula1>"单店,小连锁,KA项目"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O8 O10:O15 O18:O65536">

--- a/周数据/《个人上线率统计表》-潘辰.xlsx
+++ b/周数据/《个人上线率统计表》-潘辰.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21300" windowHeight="9330"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21300" windowHeight="9330" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="项目数据分析表" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="105">
   <si>
     <t>个人上线率分析表</t>
   </si>
@@ -352,6 +352,29 @@
   </si>
   <si>
     <t>李雪磊</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>清溪川韩国烤肉</t>
+  </si>
+  <si>
+    <t>南京</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>潘辰</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>老板</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>金永灿</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>南通</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -1078,6 +1101,12 @@
     <xf numFmtId="14" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1122,12 +1151,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1406,7 +1429,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -1427,21 +1450,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-      <c r="M1" s="61"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
+      <c r="M1" s="63"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2" s="25" t="s">
@@ -1485,7 +1508,7 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A3" s="62"/>
+      <c r="A3" s="64"/>
       <c r="B3" s="31">
         <v>48</v>
       </c>
@@ -1524,7 +1547,7 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A4" s="62"/>
+      <c r="A4" s="64"/>
       <c r="B4" s="31">
         <v>49</v>
       </c>
@@ -1563,7 +1586,7 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A5" s="62"/>
+      <c r="A5" s="64"/>
       <c r="B5" s="31">
         <v>50</v>
       </c>
@@ -1602,7 +1625,7 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A6" s="62"/>
+      <c r="A6" s="64"/>
       <c r="B6" s="31">
         <v>52</v>
       </c>
@@ -1641,7 +1664,7 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A7" s="62"/>
+      <c r="A7" s="64"/>
       <c r="B7" s="31">
         <v>3</v>
       </c>
@@ -1676,7 +1699,7 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A8" s="63"/>
+      <c r="A8" s="65"/>
       <c r="B8" s="36"/>
       <c r="C8" s="37"/>
       <c r="D8" s="38"/>
@@ -1723,8 +1746,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O300"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:A9"/>
+    <sheetView tabSelected="1" topLeftCell="F7" workbookViewId="0">
+      <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1790,7 +1813,7 @@
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A2" s="64">
+      <c r="A2" s="66">
         <v>48</v>
       </c>
       <c r="B2" s="54">
@@ -1837,7 +1860,7 @@
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A3" s="72"/>
+      <c r="A3" s="74"/>
       <c r="B3" s="54">
         <v>43070</v>
       </c>
@@ -1882,7 +1905,7 @@
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A4" s="72"/>
+      <c r="A4" s="74"/>
       <c r="B4" s="54">
         <v>43070</v>
       </c>
@@ -1927,7 +1950,7 @@
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A5" s="65"/>
+      <c r="A5" s="67"/>
       <c r="B5" s="54">
         <v>43071</v>
       </c>
@@ -1972,7 +1995,7 @@
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A6" s="64">
+      <c r="A6" s="66">
         <v>49</v>
       </c>
       <c r="B6" s="54">
@@ -2019,7 +2042,7 @@
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A7" s="72"/>
+      <c r="A7" s="74"/>
       <c r="B7" s="54">
         <v>43077</v>
       </c>
@@ -2064,7 +2087,7 @@
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A8" s="72"/>
+      <c r="A8" s="74"/>
       <c r="B8" s="54"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -2081,7 +2104,7 @@
       <c r="O8" s="1"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A9" s="65"/>
+      <c r="A9" s="67"/>
       <c r="B9" s="1"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.15">
@@ -2132,7 +2155,7 @@
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A11" s="64">
+      <c r="A11" s="66">
         <v>52</v>
       </c>
       <c r="B11" s="54">
@@ -2179,7 +2202,7 @@
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A12" s="72"/>
+      <c r="A12" s="74"/>
       <c r="B12" s="54">
         <v>43095</v>
       </c>
@@ -2224,7 +2247,7 @@
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A13" s="72"/>
+      <c r="A13" s="74"/>
       <c r="B13" s="54">
         <v>43096</v>
       </c>
@@ -2269,7 +2292,7 @@
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A14" s="72"/>
+      <c r="A14" s="74"/>
       <c r="B14" s="54">
         <v>43096</v>
       </c>
@@ -2314,7 +2337,7 @@
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A15" s="65"/>
+      <c r="A15" s="67"/>
       <c r="B15" s="54">
         <v>43096</v>
       </c>
@@ -2359,45 +2382,45 @@
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A16" s="64">
+      <c r="A16" s="66">
         <v>1</v>
       </c>
-      <c r="B16" s="64" t="s">
+      <c r="B16" s="66" t="s">
         <v>78</v>
       </c>
-      <c r="C16" s="66"/>
-      <c r="D16" s="67"/>
-      <c r="E16" s="67"/>
-      <c r="F16" s="67"/>
-      <c r="G16" s="67"/>
-      <c r="H16" s="67"/>
-      <c r="I16" s="67"/>
-      <c r="J16" s="67"/>
-      <c r="K16" s="67"/>
-      <c r="L16" s="67"/>
-      <c r="M16" s="67"/>
-      <c r="N16" s="67"/>
-      <c r="O16" s="68"/>
+      <c r="C16" s="68"/>
+      <c r="D16" s="69"/>
+      <c r="E16" s="69"/>
+      <c r="F16" s="69"/>
+      <c r="G16" s="69"/>
+      <c r="H16" s="69"/>
+      <c r="I16" s="69"/>
+      <c r="J16" s="69"/>
+      <c r="K16" s="69"/>
+      <c r="L16" s="69"/>
+      <c r="M16" s="69"/>
+      <c r="N16" s="69"/>
+      <c r="O16" s="70"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A17" s="65"/>
-      <c r="B17" s="65"/>
-      <c r="C17" s="69"/>
-      <c r="D17" s="70"/>
-      <c r="E17" s="70"/>
-      <c r="F17" s="70"/>
-      <c r="G17" s="70"/>
-      <c r="H17" s="70"/>
-      <c r="I17" s="70"/>
-      <c r="J17" s="70"/>
-      <c r="K17" s="70"/>
-      <c r="L17" s="70"/>
-      <c r="M17" s="70"/>
-      <c r="N17" s="70"/>
-      <c r="O17" s="71"/>
+      <c r="A17" s="67"/>
+      <c r="B17" s="67"/>
+      <c r="C17" s="71"/>
+      <c r="D17" s="72"/>
+      <c r="E17" s="72"/>
+      <c r="F17" s="72"/>
+      <c r="G17" s="72"/>
+      <c r="H17" s="72"/>
+      <c r="I17" s="72"/>
+      <c r="J17" s="72"/>
+      <c r="K17" s="72"/>
+      <c r="L17" s="72"/>
+      <c r="M17" s="72"/>
+      <c r="N17" s="72"/>
+      <c r="O17" s="73"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A18" s="64">
+      <c r="A18" s="66">
         <v>2</v>
       </c>
       <c r="B18" s="54">
@@ -2444,7 +2467,7 @@
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A19" s="65"/>
+      <c r="A19" s="67"/>
       <c r="B19" s="54">
         <v>43109</v>
       </c>
@@ -2510,38 +2533,96 @@
       <c r="O20" s="1"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
+      <c r="A21" s="66">
+        <v>4</v>
+      </c>
+      <c r="B21" s="54">
+        <v>43122</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F21" s="55" t="s">
+        <v>39</v>
+      </c>
+      <c r="G21" s="1">
+        <v>76127081</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="I21" s="55" t="s">
+        <v>100</v>
+      </c>
+      <c r="J21" s="55" t="s">
+        <v>101</v>
+      </c>
+      <c r="K21" s="1">
+        <v>18251920657</v>
+      </c>
+      <c r="L21" s="55" t="s">
+        <v>103</v>
+      </c>
+      <c r="M21" s="55" t="s">
+        <v>102</v>
+      </c>
+      <c r="N21" s="1">
+        <v>18651861349</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
+      <c r="A22" s="67"/>
+      <c r="B22" s="54">
+        <v>43124</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F22" s="55" t="s">
+        <v>104</v>
+      </c>
+      <c r="G22" s="1">
+        <v>76122869</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I22" s="55" t="s">
+        <v>39</v>
+      </c>
+      <c r="J22" s="55" t="s">
+        <v>41</v>
+      </c>
+      <c r="K22" s="1">
+        <v>18251920657</v>
+      </c>
+      <c r="L22" s="55" t="s">
+        <v>73</v>
+      </c>
+      <c r="M22" s="55" t="s">
+        <v>74</v>
+      </c>
+      <c r="N22" s="1">
+        <v>15189977010</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A23" s="1"/>
@@ -7270,7 +7351,8 @@
       <c r="O300" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="A21:A22"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="C16:O17"/>
     <mergeCell ref="A2:A5"/>
@@ -7287,7 +7369,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1">
       <formula1>"SaaS,库存,供应链,饮食通,饮食通老客户上线"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F15 F20:F65536">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F15 F20 F23:F65536">
       <formula1>"单店,小连锁,KA项目"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O8 O10:O15 O18:O65536">
@@ -7342,7 +7424,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" s="64">
+      <c r="A2" s="66">
         <v>51</v>
       </c>
       <c r="B2" s="13"/>
@@ -7353,7 +7435,7 @@
       <c r="G2" s="55"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="72"/>
+      <c r="A3" s="74"/>
       <c r="B3" s="13"/>
       <c r="C3" s="18"/>
       <c r="D3" s="56"/>
@@ -7362,8 +7444,8 @@
       <c r="G3" s="55"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="72"/>
-      <c r="B4" s="74" t="s">
+      <c r="A4" s="74"/>
+      <c r="B4" s="59" t="s">
         <v>53</v>
       </c>
       <c r="C4" s="18">
@@ -7383,7 +7465,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="72"/>
+      <c r="A5" s="74"/>
       <c r="B5" s="13"/>
       <c r="C5" s="13"/>
       <c r="D5" s="14"/>
@@ -7392,7 +7474,7 @@
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="72"/>
+      <c r="A6" s="74"/>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
       <c r="D6" s="14"/>
@@ -7401,7 +7483,7 @@
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="72"/>
+      <c r="A7" s="74"/>
       <c r="B7" s="13"/>
       <c r="C7" s="13"/>
       <c r="D7" s="14"/>
@@ -7410,7 +7492,7 @@
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" s="72"/>
+      <c r="A8" s="74"/>
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
       <c r="D8" s="14"/>
@@ -7419,7 +7501,7 @@
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A9" s="72"/>
+      <c r="A9" s="74"/>
       <c r="B9" s="13"/>
       <c r="C9" s="13"/>
       <c r="D9" s="14"/>
@@ -7428,7 +7510,7 @@
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A10" s="72"/>
+      <c r="A10" s="74"/>
       <c r="B10" s="13"/>
       <c r="C10" s="13"/>
       <c r="D10" s="14"/>
@@ -7437,7 +7519,7 @@
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A11" s="72"/>
+      <c r="A11" s="74"/>
       <c r="B11" s="13"/>
       <c r="C11" s="13"/>
       <c r="D11" s="14"/>
@@ -7446,7 +7528,7 @@
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A12" s="72"/>
+      <c r="A12" s="74"/>
       <c r="B12" s="13"/>
       <c r="C12" s="13"/>
       <c r="D12" s="14"/>
@@ -7455,7 +7537,7 @@
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A13" s="65"/>
+      <c r="A13" s="67"/>
       <c r="B13" s="13"/>
       <c r="C13" s="13"/>
       <c r="D13" s="14"/>
@@ -7464,10 +7546,10 @@
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A14" s="64">
+      <c r="A14" s="66">
         <v>3</v>
       </c>
-      <c r="B14" s="73" t="s">
+      <c r="B14" s="58" t="s">
         <v>91</v>
       </c>
       <c r="C14" s="18">
@@ -7487,8 +7569,8 @@
       </c>
     </row>
     <row r="15" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A15" s="72"/>
-      <c r="B15" s="73" t="s">
+      <c r="A15" s="74"/>
+      <c r="B15" s="58" t="s">
         <v>92</v>
       </c>
       <c r="C15" s="18">
@@ -7508,8 +7590,8 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A16" s="72"/>
-      <c r="B16" s="74" t="s">
+      <c r="A16" s="74"/>
+      <c r="B16" s="59" t="s">
         <v>93</v>
       </c>
       <c r="C16" s="17"/>
@@ -7527,8 +7609,8 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="72"/>
-      <c r="B17" s="74" t="s">
+      <c r="A17" s="74"/>
+      <c r="B17" s="59" t="s">
         <v>94</v>
       </c>
       <c r="C17" s="18">
@@ -7548,8 +7630,8 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="72"/>
-      <c r="B18" s="74" t="s">
+      <c r="A18" s="74"/>
+      <c r="B18" s="59" t="s">
         <v>95</v>
       </c>
       <c r="C18" s="18">
@@ -7569,7 +7651,7 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A19" s="72"/>
+      <c r="A19" s="74"/>
       <c r="B19" s="13"/>
       <c r="C19" s="13"/>
       <c r="D19" s="56"/>
@@ -7578,7 +7660,7 @@
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A20" s="72"/>
+      <c r="A20" s="74"/>
       <c r="B20" s="13"/>
       <c r="C20" s="13"/>
       <c r="D20" s="14"/>
@@ -7587,7 +7669,7 @@
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21" s="72"/>
+      <c r="A21" s="74"/>
       <c r="B21" s="13"/>
       <c r="C21" s="13"/>
       <c r="D21" s="14"/>
@@ -7596,7 +7678,7 @@
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="72"/>
+      <c r="A22" s="74"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="14"/>
@@ -7605,7 +7687,7 @@
       <c r="G22" s="1"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A23" s="72"/>
+      <c r="A23" s="74"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="14"/>
@@ -7614,7 +7696,7 @@
       <c r="G23" s="1"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A24" s="72"/>
+      <c r="A24" s="74"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="14"/>
@@ -7623,7 +7705,7 @@
       <c r="G24" s="1"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A25" s="72"/>
+      <c r="A25" s="74"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="14"/>
@@ -7632,7 +7714,7 @@
       <c r="G25" s="1"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A26" s="65"/>
+      <c r="A26" s="67"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="14"/>
@@ -7641,7 +7723,7 @@
       <c r="G26" s="1"/>
     </row>
     <row r="27" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A27" s="64"/>
+      <c r="A27" s="66"/>
       <c r="B27" s="15"/>
       <c r="C27" s="17"/>
       <c r="D27" s="16"/>
@@ -7650,7 +7732,7 @@
       <c r="G27" s="15"/>
     </row>
     <row r="28" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A28" s="72"/>
+      <c r="A28" s="74"/>
       <c r="B28" s="13"/>
       <c r="C28" s="17"/>
       <c r="D28" s="16"/>
@@ -7659,7 +7741,7 @@
       <c r="G28" s="13"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A29" s="72"/>
+      <c r="A29" s="74"/>
       <c r="B29" s="13"/>
       <c r="C29" s="13"/>
       <c r="D29" s="14"/>
@@ -7668,7 +7750,7 @@
       <c r="G29" s="1"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A30" s="72"/>
+      <c r="A30" s="74"/>
       <c r="B30" s="13"/>
       <c r="C30" s="13"/>
       <c r="D30" s="14"/>
@@ -7677,7 +7759,7 @@
       <c r="G30" s="1"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A31" s="72"/>
+      <c r="A31" s="74"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="14"/>
@@ -7686,7 +7768,7 @@
       <c r="G31" s="1"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A32" s="72"/>
+      <c r="A32" s="74"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="14"/>
@@ -7695,7 +7777,7 @@
       <c r="G32" s="1"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A33" s="72"/>
+      <c r="A33" s="74"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="14"/>
@@ -7704,7 +7786,7 @@
       <c r="G33" s="1"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A34" s="72"/>
+      <c r="A34" s="74"/>
       <c r="B34" s="13"/>
       <c r="C34" s="13"/>
       <c r="D34" s="14"/>
@@ -7713,7 +7795,7 @@
       <c r="G34" s="1"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A35" s="72"/>
+      <c r="A35" s="74"/>
       <c r="B35" s="13"/>
       <c r="C35" s="13"/>
       <c r="D35" s="14"/>
@@ -7722,7 +7804,7 @@
       <c r="G35" s="1"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A36" s="72"/>
+      <c r="A36" s="74"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="14"/>
@@ -7731,7 +7813,7 @@
       <c r="G36" s="1"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A37" s="72"/>
+      <c r="A37" s="74"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="14"/>
@@ -7740,7 +7822,7 @@
       <c r="G37" s="1"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A38" s="72"/>
+      <c r="A38" s="74"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="14"/>
@@ -7749,7 +7831,7 @@
       <c r="G38" s="1"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A39" s="72"/>
+      <c r="A39" s="74"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="14"/>
@@ -7758,7 +7840,7 @@
       <c r="G39" s="1"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A40" s="72"/>
+      <c r="A40" s="74"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="14"/>
@@ -7767,7 +7849,7 @@
       <c r="G40" s="1"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A41" s="65"/>
+      <c r="A41" s="67"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="14"/>
@@ -7776,7 +7858,7 @@
       <c r="G41" s="1"/>
     </row>
     <row r="42" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A42" s="64"/>
+      <c r="A42" s="66"/>
       <c r="B42" s="13"/>
       <c r="C42" s="17"/>
       <c r="D42" s="16"/>
@@ -7785,7 +7867,7 @@
       <c r="G42" s="13"/>
     </row>
     <row r="43" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A43" s="72"/>
+      <c r="A43" s="74"/>
       <c r="B43" s="13"/>
       <c r="C43" s="18"/>
       <c r="D43" s="16"/>
@@ -7794,7 +7876,7 @@
       <c r="G43" s="8"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A44" s="72"/>
+      <c r="A44" s="74"/>
       <c r="B44" s="13"/>
       <c r="C44" s="13"/>
       <c r="D44" s="14"/>
@@ -7803,7 +7885,7 @@
       <c r="G44" s="1"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A45" s="72"/>
+      <c r="A45" s="74"/>
       <c r="B45" s="13"/>
       <c r="C45" s="13"/>
       <c r="D45" s="14"/>
@@ -7812,7 +7894,7 @@
       <c r="G45" s="1"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A46" s="72"/>
+      <c r="A46" s="74"/>
       <c r="B46" s="13"/>
       <c r="C46" s="13"/>
       <c r="D46" s="14"/>
@@ -7821,7 +7903,7 @@
       <c r="G46" s="1"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A47" s="72"/>
+      <c r="A47" s="74"/>
       <c r="B47" s="13"/>
       <c r="C47" s="13"/>
       <c r="D47" s="14"/>
@@ -7830,7 +7912,7 @@
       <c r="G47" s="1"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A48" s="72"/>
+      <c r="A48" s="74"/>
       <c r="B48" s="13"/>
       <c r="C48" s="13"/>
       <c r="D48" s="14"/>
@@ -7839,7 +7921,7 @@
       <c r="G48" s="1"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A49" s="72"/>
+      <c r="A49" s="74"/>
       <c r="B49" s="13"/>
       <c r="C49" s="13"/>
       <c r="D49" s="14"/>
@@ -7848,7 +7930,7 @@
       <c r="G49" s="1"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A50" s="72"/>
+      <c r="A50" s="74"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="14"/>
@@ -7857,7 +7939,7 @@
       <c r="G50" s="1"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A51" s="72"/>
+      <c r="A51" s="74"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="14"/>
@@ -7866,7 +7948,7 @@
       <c r="G51" s="1"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A52" s="72"/>
+      <c r="A52" s="74"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="14"/>
@@ -7875,7 +7957,7 @@
       <c r="G52" s="1"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A53" s="72"/>
+      <c r="A53" s="74"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="14"/>
@@ -7884,7 +7966,7 @@
       <c r="G53" s="1"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A54" s="72"/>
+      <c r="A54" s="74"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="14"/>
@@ -7893,7 +7975,7 @@
       <c r="G54" s="1"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A55" s="72"/>
+      <c r="A55" s="74"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="14"/>
@@ -7902,7 +7984,7 @@
       <c r="G55" s="1"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A56" s="65"/>
+      <c r="A56" s="67"/>
       <c r="B56" s="13"/>
       <c r="C56" s="13"/>
       <c r="D56" s="14"/>
@@ -7911,7 +7993,7 @@
       <c r="G56" s="1"/>
     </row>
     <row r="57" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A57" s="64"/>
+      <c r="A57" s="66"/>
       <c r="B57" s="13"/>
       <c r="C57" s="17"/>
       <c r="D57" s="16"/>
@@ -7920,7 +8002,7 @@
       <c r="G57" s="13"/>
     </row>
     <row r="58" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A58" s="72"/>
+      <c r="A58" s="74"/>
       <c r="B58" s="13"/>
       <c r="C58" s="18"/>
       <c r="D58" s="16"/>
@@ -7929,7 +8011,7 @@
       <c r="G58" s="8"/>
     </row>
     <row r="59" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A59" s="72"/>
+      <c r="A59" s="74"/>
       <c r="B59" s="13"/>
       <c r="C59" s="18"/>
       <c r="D59" s="16"/>
@@ -7938,7 +8020,7 @@
       <c r="G59" s="8"/>
     </row>
     <row r="60" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A60" s="72"/>
+      <c r="A60" s="74"/>
       <c r="B60" s="13"/>
       <c r="C60" s="18"/>
       <c r="D60" s="16"/>
@@ -7947,7 +8029,7 @@
       <c r="G60" s="19"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A61" s="72"/>
+      <c r="A61" s="74"/>
       <c r="B61" s="13"/>
       <c r="C61" s="13"/>
       <c r="D61" s="14"/>
@@ -7956,7 +8038,7 @@
       <c r="G61" s="1"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A62" s="72"/>
+      <c r="A62" s="74"/>
       <c r="B62" s="13"/>
       <c r="C62" s="13"/>
       <c r="D62" s="14"/>
@@ -7965,7 +8047,7 @@
       <c r="G62" s="1"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A63" s="72"/>
+      <c r="A63" s="74"/>
       <c r="B63" s="13"/>
       <c r="C63" s="13"/>
       <c r="D63" s="14"/>
@@ -7974,7 +8056,7 @@
       <c r="G63" s="1"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A64" s="72"/>
+      <c r="A64" s="74"/>
       <c r="B64" s="13"/>
       <c r="C64" s="13"/>
       <c r="D64" s="14"/>
@@ -7983,7 +8065,7 @@
       <c r="G64" s="1"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A65" s="72"/>
+      <c r="A65" s="74"/>
       <c r="B65" s="13"/>
       <c r="C65" s="13"/>
       <c r="D65" s="14"/>
@@ -7992,7 +8074,7 @@
       <c r="G65" s="1"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A66" s="72"/>
+      <c r="A66" s="74"/>
       <c r="B66" s="13"/>
       <c r="C66" s="13"/>
       <c r="D66" s="14"/>
@@ -8001,7 +8083,7 @@
       <c r="G66" s="1"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A67" s="72"/>
+      <c r="A67" s="74"/>
       <c r="B67" s="13"/>
       <c r="C67" s="13"/>
       <c r="D67" s="14"/>
@@ -8010,7 +8092,7 @@
       <c r="G67" s="1"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A68" s="65"/>
+      <c r="A68" s="67"/>
       <c r="B68" s="13"/>
       <c r="C68" s="13"/>
       <c r="D68" s="14"/>
@@ -8019,7 +8101,7 @@
       <c r="G68" s="1"/>
     </row>
     <row r="69" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A69" s="64"/>
+      <c r="A69" s="66"/>
       <c r="B69" s="13"/>
       <c r="C69" s="17"/>
       <c r="D69" s="16"/>
@@ -8028,7 +8110,7 @@
       <c r="G69" s="13"/>
     </row>
     <row r="70" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A70" s="72"/>
+      <c r="A70" s="74"/>
       <c r="B70" s="13"/>
       <c r="C70" s="18"/>
       <c r="D70" s="16"/>
@@ -8037,7 +8119,7 @@
       <c r="G70" s="8"/>
     </row>
     <row r="71" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A71" s="72"/>
+      <c r="A71" s="74"/>
       <c r="B71" s="13"/>
       <c r="C71" s="18"/>
       <c r="D71" s="16"/>
@@ -8046,7 +8128,7 @@
       <c r="G71" s="8"/>
     </row>
     <row r="72" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A72" s="72"/>
+      <c r="A72" s="74"/>
       <c r="B72" s="13"/>
       <c r="C72" s="18"/>
       <c r="D72" s="16"/>
@@ -8055,7 +8137,7 @@
       <c r="G72" s="19"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A73" s="72"/>
+      <c r="A73" s="74"/>
       <c r="B73" s="13"/>
       <c r="C73" s="13"/>
       <c r="D73" s="14"/>
@@ -8064,7 +8146,7 @@
       <c r="G73" s="1"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A74" s="72"/>
+      <c r="A74" s="74"/>
       <c r="B74" s="13"/>
       <c r="C74" s="13"/>
       <c r="D74" s="14"/>
@@ -8073,7 +8155,7 @@
       <c r="G74" s="1"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A75" s="72"/>
+      <c r="A75" s="74"/>
       <c r="B75" s="13"/>
       <c r="C75" s="13"/>
       <c r="D75" s="14"/>
@@ -8082,7 +8164,7 @@
       <c r="G75" s="1"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A76" s="72"/>
+      <c r="A76" s="74"/>
       <c r="B76" s="13"/>
       <c r="C76" s="13"/>
       <c r="D76" s="14"/>
@@ -8091,7 +8173,7 @@
       <c r="G76" s="1"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A77" s="72"/>
+      <c r="A77" s="74"/>
       <c r="B77" s="13"/>
       <c r="C77" s="13"/>
       <c r="D77" s="14"/>
@@ -8100,7 +8182,7 @@
       <c r="G77" s="1"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A78" s="72"/>
+      <c r="A78" s="74"/>
       <c r="B78" s="13"/>
       <c r="C78" s="13"/>
       <c r="D78" s="14"/>
@@ -8109,7 +8191,7 @@
       <c r="G78" s="1"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A79" s="72"/>
+      <c r="A79" s="74"/>
       <c r="B79" s="13"/>
       <c r="C79" s="13"/>
       <c r="D79" s="14"/>
@@ -8118,7 +8200,7 @@
       <c r="G79" s="1"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A80" s="65"/>
+      <c r="A80" s="67"/>
       <c r="B80" s="13"/>
       <c r="C80" s="13"/>
       <c r="D80" s="14"/>
@@ -8127,7 +8209,7 @@
       <c r="G80" s="1"/>
     </row>
     <row r="81" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A81" s="72"/>
+      <c r="A81" s="74"/>
       <c r="B81" s="13"/>
       <c r="C81" s="18"/>
       <c r="D81" s="16"/>
@@ -8136,7 +8218,7 @@
       <c r="G81" s="8"/>
     </row>
     <row r="82" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A82" s="72"/>
+      <c r="A82" s="74"/>
       <c r="B82" s="13"/>
       <c r="C82" s="18"/>
       <c r="D82" s="16"/>
@@ -8145,7 +8227,7 @@
       <c r="G82" s="19"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A83" s="72"/>
+      <c r="A83" s="74"/>
       <c r="B83" s="13"/>
       <c r="C83" s="13"/>
       <c r="D83" s="14"/>
@@ -8154,7 +8236,7 @@
       <c r="G83" s="1"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A84" s="72"/>
+      <c r="A84" s="74"/>
       <c r="B84" s="13"/>
       <c r="C84" s="13"/>
       <c r="D84" s="14"/>
@@ -8163,7 +8245,7 @@
       <c r="G84" s="1"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A85" s="72"/>
+      <c r="A85" s="74"/>
       <c r="B85" s="13"/>
       <c r="C85" s="13"/>
       <c r="D85" s="14"/>
@@ -8172,7 +8254,7 @@
       <c r="G85" s="1"/>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A86" s="72"/>
+      <c r="A86" s="74"/>
       <c r="B86" s="13"/>
       <c r="C86" s="13"/>
       <c r="D86" s="14"/>
@@ -8181,7 +8263,7 @@
       <c r="G86" s="1"/>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A87" s="72"/>
+      <c r="A87" s="74"/>
       <c r="B87" s="13"/>
       <c r="C87" s="13"/>
       <c r="D87" s="14"/>
@@ -8190,7 +8272,7 @@
       <c r="G87" s="1"/>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A88" s="72"/>
+      <c r="A88" s="74"/>
       <c r="B88" s="13"/>
       <c r="C88" s="13"/>
       <c r="D88" s="14"/>
@@ -8199,7 +8281,7 @@
       <c r="G88" s="1"/>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A89" s="72"/>
+      <c r="A89" s="74"/>
       <c r="B89" s="13"/>
       <c r="C89" s="13"/>
       <c r="D89" s="14"/>
@@ -8208,7 +8290,7 @@
       <c r="G89" s="1"/>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A90" s="65"/>
+      <c r="A90" s="67"/>
       <c r="B90" s="13"/>
       <c r="C90" s="13"/>
       <c r="D90" s="14"/>

--- a/周数据/《个人上线率统计表》-潘辰.xlsx
+++ b/周数据/《个人上线率统计表》-潘辰.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\hualala\NanJing\周数据\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21300" windowHeight="9330" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21300" windowHeight="9330"/>
   </bookViews>
   <sheets>
     <sheet name="项目数据分析表" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="107">
   <si>
     <t>个人上线率分析表</t>
   </si>
@@ -376,13 +376,19 @@
   <si>
     <t>南通</t>
     <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>京茶山手作茶物（成都天益街店）</t>
+  </si>
+  <si>
+    <t>京茶山手作茶物（凤凰西街店）</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -455,12 +461,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -926,7 +926,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1097,9 +1097,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1429,8 +1426,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1450,21 +1447,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
-      <c r="M1" s="63"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="62"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2" s="25" t="s">
@@ -1508,7 +1505,7 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A3" s="64"/>
+      <c r="A3" s="63"/>
       <c r="B3" s="31">
         <v>48</v>
       </c>
@@ -1547,7 +1544,7 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A4" s="64"/>
+      <c r="A4" s="63"/>
       <c r="B4" s="31">
         <v>49</v>
       </c>
@@ -1586,7 +1583,7 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A5" s="64"/>
+      <c r="A5" s="63"/>
       <c r="B5" s="31">
         <v>50</v>
       </c>
@@ -1625,7 +1622,7 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A6" s="64"/>
+      <c r="A6" s="63"/>
       <c r="B6" s="31">
         <v>52</v>
       </c>
@@ -1664,12 +1661,16 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A7" s="64"/>
+      <c r="A7" s="63"/>
       <c r="B7" s="31">
         <v>3</v>
       </c>
-      <c r="C7" s="32"/>
-      <c r="D7" s="33"/>
+      <c r="C7" s="32">
+        <v>0</v>
+      </c>
+      <c r="D7" s="33">
+        <v>0</v>
+      </c>
       <c r="E7" s="33">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1699,13 +1700,18 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A8" s="65"/>
-      <c r="B8" s="36"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="38"/>
+      <c r="A8" s="64"/>
+      <c r="B8" s="36">
+        <v>4</v>
+      </c>
+      <c r="C8" s="37">
+        <v>2</v>
+      </c>
+      <c r="D8" s="38">
+        <v>2</v>
+      </c>
       <c r="E8" s="38">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F8" s="39"/>
       <c r="G8" s="40"/>
@@ -1713,22 +1719,24 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I8" s="49"/>
-      <c r="J8" s="50" t="e">
+      <c r="I8" s="49">
+        <v>1</v>
+      </c>
+      <c r="J8" s="50">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>0.5</v>
       </c>
       <c r="K8" s="51">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L8" s="52">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M8" s="53" t="e">
+        <v>2</v>
+      </c>
+      <c r="M8" s="53">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1746,7 +1754,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O300"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
@@ -1813,7 +1821,7 @@
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A2" s="66">
+      <c r="A2" s="65">
         <v>48</v>
       </c>
       <c r="B2" s="54">
@@ -1860,7 +1868,7 @@
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A3" s="74"/>
+      <c r="A3" s="73"/>
       <c r="B3" s="54">
         <v>43070</v>
       </c>
@@ -1905,7 +1913,7 @@
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A4" s="74"/>
+      <c r="A4" s="73"/>
       <c r="B4" s="54">
         <v>43070</v>
       </c>
@@ -1950,7 +1958,7 @@
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A5" s="67"/>
+      <c r="A5" s="66"/>
       <c r="B5" s="54">
         <v>43071</v>
       </c>
@@ -1995,7 +2003,7 @@
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A6" s="66">
+      <c r="A6" s="65">
         <v>49</v>
       </c>
       <c r="B6" s="54">
@@ -2042,7 +2050,7 @@
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A7" s="74"/>
+      <c r="A7" s="73"/>
       <c r="B7" s="54">
         <v>43077</v>
       </c>
@@ -2087,7 +2095,7 @@
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A8" s="74"/>
+      <c r="A8" s="73"/>
       <c r="B8" s="54"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -2104,7 +2112,7 @@
       <c r="O8" s="1"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A9" s="67"/>
+      <c r="A9" s="66"/>
       <c r="B9" s="1"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.15">
@@ -2155,7 +2163,7 @@
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A11" s="66">
+      <c r="A11" s="65">
         <v>52</v>
       </c>
       <c r="B11" s="54">
@@ -2202,7 +2210,7 @@
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A12" s="74"/>
+      <c r="A12" s="73"/>
       <c r="B12" s="54">
         <v>43095</v>
       </c>
@@ -2247,7 +2255,7 @@
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A13" s="74"/>
+      <c r="A13" s="73"/>
       <c r="B13" s="54">
         <v>43096</v>
       </c>
@@ -2292,7 +2300,7 @@
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A14" s="74"/>
+      <c r="A14" s="73"/>
       <c r="B14" s="54">
         <v>43096</v>
       </c>
@@ -2337,7 +2345,7 @@
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A15" s="67"/>
+      <c r="A15" s="66"/>
       <c r="B15" s="54">
         <v>43096</v>
       </c>
@@ -2382,45 +2390,45 @@
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A16" s="66">
+      <c r="A16" s="65">
         <v>1</v>
       </c>
-      <c r="B16" s="66" t="s">
+      <c r="B16" s="65" t="s">
         <v>78</v>
       </c>
-      <c r="C16" s="68"/>
-      <c r="D16" s="69"/>
-      <c r="E16" s="69"/>
-      <c r="F16" s="69"/>
-      <c r="G16" s="69"/>
-      <c r="H16" s="69"/>
-      <c r="I16" s="69"/>
-      <c r="J16" s="69"/>
-      <c r="K16" s="69"/>
-      <c r="L16" s="69"/>
-      <c r="M16" s="69"/>
-      <c r="N16" s="69"/>
-      <c r="O16" s="70"/>
+      <c r="C16" s="67"/>
+      <c r="D16" s="68"/>
+      <c r="E16" s="68"/>
+      <c r="F16" s="68"/>
+      <c r="G16" s="68"/>
+      <c r="H16" s="68"/>
+      <c r="I16" s="68"/>
+      <c r="J16" s="68"/>
+      <c r="K16" s="68"/>
+      <c r="L16" s="68"/>
+      <c r="M16" s="68"/>
+      <c r="N16" s="68"/>
+      <c r="O16" s="69"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A17" s="67"/>
-      <c r="B17" s="67"/>
-      <c r="C17" s="71"/>
-      <c r="D17" s="72"/>
-      <c r="E17" s="72"/>
-      <c r="F17" s="72"/>
-      <c r="G17" s="72"/>
-      <c r="H17" s="72"/>
-      <c r="I17" s="72"/>
-      <c r="J17" s="72"/>
-      <c r="K17" s="72"/>
-      <c r="L17" s="72"/>
-      <c r="M17" s="72"/>
-      <c r="N17" s="72"/>
-      <c r="O17" s="73"/>
+      <c r="A17" s="66"/>
+      <c r="B17" s="66"/>
+      <c r="C17" s="70"/>
+      <c r="D17" s="71"/>
+      <c r="E17" s="71"/>
+      <c r="F17" s="71"/>
+      <c r="G17" s="71"/>
+      <c r="H17" s="71"/>
+      <c r="I17" s="71"/>
+      <c r="J17" s="71"/>
+      <c r="K17" s="71"/>
+      <c r="L17" s="71"/>
+      <c r="M17" s="71"/>
+      <c r="N17" s="71"/>
+      <c r="O17" s="72"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A18" s="66">
+      <c r="A18" s="65">
         <v>2</v>
       </c>
       <c r="B18" s="54">
@@ -2467,7 +2475,7 @@
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A19" s="67"/>
+      <c r="A19" s="66"/>
       <c r="B19" s="54">
         <v>43109</v>
       </c>
@@ -2533,7 +2541,7 @@
       <c r="O20" s="1"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A21" s="66">
+      <c r="A21" s="65">
         <v>4</v>
       </c>
       <c r="B21" s="54">
@@ -2580,7 +2588,7 @@
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A22" s="67"/>
+      <c r="A22" s="66"/>
       <c r="B22" s="54">
         <v>43124</v>
       </c>
@@ -7386,7 +7394,7 @@
   <dimension ref="A1:G90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7423,76 +7431,136 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" s="66">
+    <row r="2" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A2" s="65">
+        <v>4</v>
+      </c>
+      <c r="B2" s="57" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" s="18">
+        <v>42744</v>
+      </c>
+      <c r="D2" s="56" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="55"/>
+      <c r="G2" s="55" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="74"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="55"/>
+      <c r="A3" s="73"/>
+      <c r="B3" s="58" t="s">
+        <v>93</v>
+      </c>
+      <c r="C3" s="18">
+        <v>42745</v>
+      </c>
+      <c r="D3" s="56" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G3" s="55" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="74"/>
-      <c r="B4" s="59" t="s">
-        <v>53</v>
+      <c r="A4" s="73"/>
+      <c r="B4" s="58" t="s">
+        <v>94</v>
       </c>
       <c r="C4" s="18">
-        <v>43089</v>
+        <v>42737</v>
       </c>
       <c r="D4" s="56" t="s">
         <v>48</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>49</v>
+        <v>96</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>51</v>
       </c>
       <c r="G4" s="55" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="73"/>
+      <c r="B5" s="58" t="s">
+        <v>95</v>
+      </c>
+      <c r="C5" s="18">
+        <v>43096</v>
+      </c>
+      <c r="D5" s="56" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G5" s="55" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="73"/>
+      <c r="B6" s="58" t="s">
+        <v>105</v>
+      </c>
+      <c r="C6" s="18">
+        <v>43124</v>
+      </c>
+      <c r="D6" s="56" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G6" s="55" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="74"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="74"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-    </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="74"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
+      <c r="A7" s="73"/>
+      <c r="B7" s="58" t="s">
+        <v>106</v>
+      </c>
+      <c r="C7" s="18">
+        <v>43124</v>
+      </c>
+      <c r="D7" s="56" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G7" s="55" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" s="74"/>
+      <c r="A8" s="73"/>
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
       <c r="D8" s="14"/>
@@ -7501,7 +7569,7 @@
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A9" s="74"/>
+      <c r="A9" s="73"/>
       <c r="B9" s="13"/>
       <c r="C9" s="13"/>
       <c r="D9" s="14"/>
@@ -7510,7 +7578,7 @@
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A10" s="74"/>
+      <c r="A10" s="73"/>
       <c r="B10" s="13"/>
       <c r="C10" s="13"/>
       <c r="D10" s="14"/>
@@ -7519,7 +7587,7 @@
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A11" s="74"/>
+      <c r="A11" s="73"/>
       <c r="B11" s="13"/>
       <c r="C11" s="13"/>
       <c r="D11" s="14"/>
@@ -7528,7 +7596,7 @@
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A12" s="74"/>
+      <c r="A12" s="73"/>
       <c r="B12" s="13"/>
       <c r="C12" s="13"/>
       <c r="D12" s="14"/>
@@ -7537,7 +7605,7 @@
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A13" s="67"/>
+      <c r="A13" s="66"/>
       <c r="B13" s="13"/>
       <c r="C13" s="13"/>
       <c r="D13" s="14"/>
@@ -7546,112 +7614,52 @@
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A14" s="66">
-        <v>3</v>
-      </c>
-      <c r="B14" s="58" t="s">
-        <v>91</v>
-      </c>
-      <c r="C14" s="18">
-        <v>42744</v>
-      </c>
-      <c r="D14" s="56" t="s">
-        <v>48</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G14" s="55" t="s">
-        <v>50</v>
-      </c>
+      <c r="A14" s="65"/>
+      <c r="B14" s="57"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="56"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="55"/>
     </row>
     <row r="15" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A15" s="74"/>
-      <c r="B15" s="58" t="s">
-        <v>92</v>
-      </c>
-      <c r="C15" s="18">
-        <v>42744</v>
-      </c>
-      <c r="D15" s="56" t="s">
-        <v>48</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G15" s="55" t="s">
-        <v>50</v>
-      </c>
+      <c r="A15" s="73"/>
+      <c r="B15" s="57"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="56"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="55"/>
     </row>
     <row r="16" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A16" s="74"/>
-      <c r="B16" s="59" t="s">
-        <v>93</v>
-      </c>
+      <c r="A16" s="73"/>
+      <c r="B16" s="58"/>
       <c r="C16" s="17"/>
-      <c r="D16" s="56" t="s">
-        <v>48</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G16" s="55" t="s">
-        <v>50</v>
-      </c>
+      <c r="D16" s="56"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="55"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="74"/>
-      <c r="B17" s="59" t="s">
-        <v>94</v>
-      </c>
-      <c r="C17" s="18">
-        <v>42737</v>
-      </c>
-      <c r="D17" s="56" t="s">
-        <v>48</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G17" s="55" t="s">
-        <v>97</v>
-      </c>
+      <c r="A17" s="73"/>
+      <c r="B17" s="58"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="56"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="55"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="74"/>
-      <c r="B18" s="59" t="s">
-        <v>95</v>
-      </c>
-      <c r="C18" s="18">
-        <v>43096</v>
-      </c>
-      <c r="D18" s="56" t="s">
-        <v>48</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G18" s="55" t="s">
-        <v>98</v>
-      </c>
+      <c r="A18" s="73"/>
+      <c r="B18" s="58"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="56"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="55"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A19" s="74"/>
+      <c r="A19" s="73"/>
       <c r="B19" s="13"/>
       <c r="C19" s="13"/>
       <c r="D19" s="56"/>
@@ -7660,7 +7668,7 @@
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A20" s="74"/>
+      <c r="A20" s="73"/>
       <c r="B20" s="13"/>
       <c r="C20" s="13"/>
       <c r="D20" s="14"/>
@@ -7669,7 +7677,7 @@
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21" s="74"/>
+      <c r="A21" s="73"/>
       <c r="B21" s="13"/>
       <c r="C21" s="13"/>
       <c r="D21" s="14"/>
@@ -7678,7 +7686,7 @@
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="74"/>
+      <c r="A22" s="73"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="14"/>
@@ -7687,7 +7695,7 @@
       <c r="G22" s="1"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A23" s="74"/>
+      <c r="A23" s="73"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="14"/>
@@ -7696,7 +7704,7 @@
       <c r="G23" s="1"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A24" s="74"/>
+      <c r="A24" s="73"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="14"/>
@@ -7705,7 +7713,7 @@
       <c r="G24" s="1"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A25" s="74"/>
+      <c r="A25" s="73"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="14"/>
@@ -7714,7 +7722,7 @@
       <c r="G25" s="1"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A26" s="67"/>
+      <c r="A26" s="66"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="14"/>
@@ -7723,7 +7731,7 @@
       <c r="G26" s="1"/>
     </row>
     <row r="27" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A27" s="66"/>
+      <c r="A27" s="65"/>
       <c r="B27" s="15"/>
       <c r="C27" s="17"/>
       <c r="D27" s="16"/>
@@ -7732,7 +7740,7 @@
       <c r="G27" s="15"/>
     </row>
     <row r="28" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A28" s="74"/>
+      <c r="A28" s="73"/>
       <c r="B28" s="13"/>
       <c r="C28" s="17"/>
       <c r="D28" s="16"/>
@@ -7741,7 +7749,7 @@
       <c r="G28" s="13"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A29" s="74"/>
+      <c r="A29" s="73"/>
       <c r="B29" s="13"/>
       <c r="C29" s="13"/>
       <c r="D29" s="14"/>
@@ -7750,7 +7758,7 @@
       <c r="G29" s="1"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A30" s="74"/>
+      <c r="A30" s="73"/>
       <c r="B30" s="13"/>
       <c r="C30" s="13"/>
       <c r="D30" s="14"/>
@@ -7759,7 +7767,7 @@
       <c r="G30" s="1"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A31" s="74"/>
+      <c r="A31" s="73"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="14"/>
@@ -7768,7 +7776,7 @@
       <c r="G31" s="1"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A32" s="74"/>
+      <c r="A32" s="73"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="14"/>
@@ -7777,7 +7785,7 @@
       <c r="G32" s="1"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A33" s="74"/>
+      <c r="A33" s="73"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="14"/>
@@ -7786,7 +7794,7 @@
       <c r="G33" s="1"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A34" s="74"/>
+      <c r="A34" s="73"/>
       <c r="B34" s="13"/>
       <c r="C34" s="13"/>
       <c r="D34" s="14"/>
@@ -7795,7 +7803,7 @@
       <c r="G34" s="1"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A35" s="74"/>
+      <c r="A35" s="73"/>
       <c r="B35" s="13"/>
       <c r="C35" s="13"/>
       <c r="D35" s="14"/>
@@ -7804,7 +7812,7 @@
       <c r="G35" s="1"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A36" s="74"/>
+      <c r="A36" s="73"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="14"/>
@@ -7813,7 +7821,7 @@
       <c r="G36" s="1"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A37" s="74"/>
+      <c r="A37" s="73"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="14"/>
@@ -7822,7 +7830,7 @@
       <c r="G37" s="1"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A38" s="74"/>
+      <c r="A38" s="73"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="14"/>
@@ -7831,7 +7839,7 @@
       <c r="G38" s="1"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A39" s="74"/>
+      <c r="A39" s="73"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="14"/>
@@ -7840,7 +7848,7 @@
       <c r="G39" s="1"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A40" s="74"/>
+      <c r="A40" s="73"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="14"/>
@@ -7849,7 +7857,7 @@
       <c r="G40" s="1"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A41" s="67"/>
+      <c r="A41" s="66"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="14"/>
@@ -7858,7 +7866,7 @@
       <c r="G41" s="1"/>
     </row>
     <row r="42" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A42" s="66"/>
+      <c r="A42" s="65"/>
       <c r="B42" s="13"/>
       <c r="C42" s="17"/>
       <c r="D42" s="16"/>
@@ -7867,7 +7875,7 @@
       <c r="G42" s="13"/>
     </row>
     <row r="43" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A43" s="74"/>
+      <c r="A43" s="73"/>
       <c r="B43" s="13"/>
       <c r="C43" s="18"/>
       <c r="D43" s="16"/>
@@ -7876,7 +7884,7 @@
       <c r="G43" s="8"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A44" s="74"/>
+      <c r="A44" s="73"/>
       <c r="B44" s="13"/>
       <c r="C44" s="13"/>
       <c r="D44" s="14"/>
@@ -7885,7 +7893,7 @@
       <c r="G44" s="1"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A45" s="74"/>
+      <c r="A45" s="73"/>
       <c r="B45" s="13"/>
       <c r="C45" s="13"/>
       <c r="D45" s="14"/>
@@ -7894,7 +7902,7 @@
       <c r="G45" s="1"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A46" s="74"/>
+      <c r="A46" s="73"/>
       <c r="B46" s="13"/>
       <c r="C46" s="13"/>
       <c r="D46" s="14"/>
@@ -7903,7 +7911,7 @@
       <c r="G46" s="1"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A47" s="74"/>
+      <c r="A47" s="73"/>
       <c r="B47" s="13"/>
       <c r="C47" s="13"/>
       <c r="D47" s="14"/>
@@ -7912,7 +7920,7 @@
       <c r="G47" s="1"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A48" s="74"/>
+      <c r="A48" s="73"/>
       <c r="B48" s="13"/>
       <c r="C48" s="13"/>
       <c r="D48" s="14"/>
@@ -7921,7 +7929,7 @@
       <c r="G48" s="1"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A49" s="74"/>
+      <c r="A49" s="73"/>
       <c r="B49" s="13"/>
       <c r="C49" s="13"/>
       <c r="D49" s="14"/>
@@ -7930,7 +7938,7 @@
       <c r="G49" s="1"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A50" s="74"/>
+      <c r="A50" s="73"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="14"/>
@@ -7939,7 +7947,7 @@
       <c r="G50" s="1"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A51" s="74"/>
+      <c r="A51" s="73"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="14"/>
@@ -7948,7 +7956,7 @@
       <c r="G51" s="1"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A52" s="74"/>
+      <c r="A52" s="73"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="14"/>
@@ -7957,7 +7965,7 @@
       <c r="G52" s="1"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A53" s="74"/>
+      <c r="A53" s="73"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="14"/>
@@ -7966,7 +7974,7 @@
       <c r="G53" s="1"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A54" s="74"/>
+      <c r="A54" s="73"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="14"/>
@@ -7975,7 +7983,7 @@
       <c r="G54" s="1"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A55" s="74"/>
+      <c r="A55" s="73"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="14"/>
@@ -7984,7 +7992,7 @@
       <c r="G55" s="1"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A56" s="67"/>
+      <c r="A56" s="66"/>
       <c r="B56" s="13"/>
       <c r="C56" s="13"/>
       <c r="D56" s="14"/>
@@ -7993,7 +8001,7 @@
       <c r="G56" s="1"/>
     </row>
     <row r="57" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A57" s="66"/>
+      <c r="A57" s="65"/>
       <c r="B57" s="13"/>
       <c r="C57" s="17"/>
       <c r="D57" s="16"/>
@@ -8002,7 +8010,7 @@
       <c r="G57" s="13"/>
     </row>
     <row r="58" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A58" s="74"/>
+      <c r="A58" s="73"/>
       <c r="B58" s="13"/>
       <c r="C58" s="18"/>
       <c r="D58" s="16"/>
@@ -8011,7 +8019,7 @@
       <c r="G58" s="8"/>
     </row>
     <row r="59" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A59" s="74"/>
+      <c r="A59" s="73"/>
       <c r="B59" s="13"/>
       <c r="C59" s="18"/>
       <c r="D59" s="16"/>
@@ -8020,7 +8028,7 @@
       <c r="G59" s="8"/>
     </row>
     <row r="60" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A60" s="74"/>
+      <c r="A60" s="73"/>
       <c r="B60" s="13"/>
       <c r="C60" s="18"/>
       <c r="D60" s="16"/>
@@ -8029,7 +8037,7 @@
       <c r="G60" s="19"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A61" s="74"/>
+      <c r="A61" s="73"/>
       <c r="B61" s="13"/>
       <c r="C61" s="13"/>
       <c r="D61" s="14"/>
@@ -8038,7 +8046,7 @@
       <c r="G61" s="1"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A62" s="74"/>
+      <c r="A62" s="73"/>
       <c r="B62" s="13"/>
       <c r="C62" s="13"/>
       <c r="D62" s="14"/>
@@ -8047,7 +8055,7 @@
       <c r="G62" s="1"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A63" s="74"/>
+      <c r="A63" s="73"/>
       <c r="B63" s="13"/>
       <c r="C63" s="13"/>
       <c r="D63" s="14"/>
@@ -8056,7 +8064,7 @@
       <c r="G63" s="1"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A64" s="74"/>
+      <c r="A64" s="73"/>
       <c r="B64" s="13"/>
       <c r="C64" s="13"/>
       <c r="D64" s="14"/>
@@ -8065,7 +8073,7 @@
       <c r="G64" s="1"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A65" s="74"/>
+      <c r="A65" s="73"/>
       <c r="B65" s="13"/>
       <c r="C65" s="13"/>
       <c r="D65" s="14"/>
@@ -8074,7 +8082,7 @@
       <c r="G65" s="1"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A66" s="74"/>
+      <c r="A66" s="73"/>
       <c r="B66" s="13"/>
       <c r="C66" s="13"/>
       <c r="D66" s="14"/>
@@ -8083,7 +8091,7 @@
       <c r="G66" s="1"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A67" s="74"/>
+      <c r="A67" s="73"/>
       <c r="B67" s="13"/>
       <c r="C67" s="13"/>
       <c r="D67" s="14"/>
@@ -8092,7 +8100,7 @@
       <c r="G67" s="1"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A68" s="67"/>
+      <c r="A68" s="66"/>
       <c r="B68" s="13"/>
       <c r="C68" s="13"/>
       <c r="D68" s="14"/>
@@ -8101,7 +8109,7 @@
       <c r="G68" s="1"/>
     </row>
     <row r="69" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A69" s="66"/>
+      <c r="A69" s="65"/>
       <c r="B69" s="13"/>
       <c r="C69" s="17"/>
       <c r="D69" s="16"/>
@@ -8110,7 +8118,7 @@
       <c r="G69" s="13"/>
     </row>
     <row r="70" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A70" s="74"/>
+      <c r="A70" s="73"/>
       <c r="B70" s="13"/>
       <c r="C70" s="18"/>
       <c r="D70" s="16"/>
@@ -8119,7 +8127,7 @@
       <c r="G70" s="8"/>
     </row>
     <row r="71" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A71" s="74"/>
+      <c r="A71" s="73"/>
       <c r="B71" s="13"/>
       <c r="C71" s="18"/>
       <c r="D71" s="16"/>
@@ -8128,7 +8136,7 @@
       <c r="G71" s="8"/>
     </row>
     <row r="72" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A72" s="74"/>
+      <c r="A72" s="73"/>
       <c r="B72" s="13"/>
       <c r="C72" s="18"/>
       <c r="D72" s="16"/>
@@ -8137,7 +8145,7 @@
       <c r="G72" s="19"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A73" s="74"/>
+      <c r="A73" s="73"/>
       <c r="B73" s="13"/>
       <c r="C73" s="13"/>
       <c r="D73" s="14"/>
@@ -8146,7 +8154,7 @@
       <c r="G73" s="1"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A74" s="74"/>
+      <c r="A74" s="73"/>
       <c r="B74" s="13"/>
       <c r="C74" s="13"/>
       <c r="D74" s="14"/>
@@ -8155,7 +8163,7 @@
       <c r="G74" s="1"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A75" s="74"/>
+      <c r="A75" s="73"/>
       <c r="B75" s="13"/>
       <c r="C75" s="13"/>
       <c r="D75" s="14"/>
@@ -8164,7 +8172,7 @@
       <c r="G75" s="1"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A76" s="74"/>
+      <c r="A76" s="73"/>
       <c r="B76" s="13"/>
       <c r="C76" s="13"/>
       <c r="D76" s="14"/>
@@ -8173,7 +8181,7 @@
       <c r="G76" s="1"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A77" s="74"/>
+      <c r="A77" s="73"/>
       <c r="B77" s="13"/>
       <c r="C77" s="13"/>
       <c r="D77" s="14"/>
@@ -8182,7 +8190,7 @@
       <c r="G77" s="1"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A78" s="74"/>
+      <c r="A78" s="73"/>
       <c r="B78" s="13"/>
       <c r="C78" s="13"/>
       <c r="D78" s="14"/>
@@ -8191,7 +8199,7 @@
       <c r="G78" s="1"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A79" s="74"/>
+      <c r="A79" s="73"/>
       <c r="B79" s="13"/>
       <c r="C79" s="13"/>
       <c r="D79" s="14"/>
@@ -8200,7 +8208,7 @@
       <c r="G79" s="1"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A80" s="67"/>
+      <c r="A80" s="66"/>
       <c r="B80" s="13"/>
       <c r="C80" s="13"/>
       <c r="D80" s="14"/>
@@ -8209,7 +8217,7 @@
       <c r="G80" s="1"/>
     </row>
     <row r="81" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A81" s="74"/>
+      <c r="A81" s="73"/>
       <c r="B81" s="13"/>
       <c r="C81" s="18"/>
       <c r="D81" s="16"/>
@@ -8218,7 +8226,7 @@
       <c r="G81" s="8"/>
     </row>
     <row r="82" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A82" s="74"/>
+      <c r="A82" s="73"/>
       <c r="B82" s="13"/>
       <c r="C82" s="18"/>
       <c r="D82" s="16"/>
@@ -8227,7 +8235,7 @@
       <c r="G82" s="19"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A83" s="74"/>
+      <c r="A83" s="73"/>
       <c r="B83" s="13"/>
       <c r="C83" s="13"/>
       <c r="D83" s="14"/>
@@ -8236,7 +8244,7 @@
       <c r="G83" s="1"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A84" s="74"/>
+      <c r="A84" s="73"/>
       <c r="B84" s="13"/>
       <c r="C84" s="13"/>
       <c r="D84" s="14"/>
@@ -8245,7 +8253,7 @@
       <c r="G84" s="1"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A85" s="74"/>
+      <c r="A85" s="73"/>
       <c r="B85" s="13"/>
       <c r="C85" s="13"/>
       <c r="D85" s="14"/>
@@ -8254,7 +8262,7 @@
       <c r="G85" s="1"/>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A86" s="74"/>
+      <c r="A86" s="73"/>
       <c r="B86" s="13"/>
       <c r="C86" s="13"/>
       <c r="D86" s="14"/>
@@ -8263,7 +8271,7 @@
       <c r="G86" s="1"/>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A87" s="74"/>
+      <c r="A87" s="73"/>
       <c r="B87" s="13"/>
       <c r="C87" s="13"/>
       <c r="D87" s="14"/>
@@ -8272,7 +8280,7 @@
       <c r="G87" s="1"/>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A88" s="74"/>
+      <c r="A88" s="73"/>
       <c r="B88" s="13"/>
       <c r="C88" s="13"/>
       <c r="D88" s="14"/>
@@ -8281,7 +8289,7 @@
       <c r="G88" s="1"/>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A89" s="74"/>
+      <c r="A89" s="73"/>
       <c r="B89" s="13"/>
       <c r="C89" s="13"/>
       <c r="D89" s="14"/>
@@ -8290,7 +8298,7 @@
       <c r="G89" s="1"/>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A90" s="67"/>
+      <c r="A90" s="66"/>
       <c r="B90" s="13"/>
       <c r="C90" s="13"/>
       <c r="D90" s="14"/>

--- a/周数据/《个人上线率统计表》-潘辰.xlsx
+++ b/周数据/《个人上线率统计表》-潘辰.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21300" windowHeight="9330" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21300" windowHeight="9330"/>
   </bookViews>
   <sheets>
     <sheet name="项目数据分析表" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="107">
   <si>
     <t>个人上线率分析表</t>
   </si>
@@ -376,13 +376,19 @@
   <si>
     <t>南通</t>
     <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>京茶山手作茶物（成都天益街店）</t>
+  </si>
+  <si>
+    <t>京茶山手作茶物（凤凰西街店）</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -455,12 +461,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -926,7 +926,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1097,9 +1097,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1429,8 +1426,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1450,21 +1447,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
-      <c r="M1" s="63"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="62"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2" s="25" t="s">
@@ -1508,7 +1505,7 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A3" s="64"/>
+      <c r="A3" s="63"/>
       <c r="B3" s="31">
         <v>48</v>
       </c>
@@ -1547,7 +1544,7 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A4" s="64"/>
+      <c r="A4" s="63"/>
       <c r="B4" s="31">
         <v>49</v>
       </c>
@@ -1586,7 +1583,7 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A5" s="64"/>
+      <c r="A5" s="63"/>
       <c r="B5" s="31">
         <v>50</v>
       </c>
@@ -1625,7 +1622,7 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A6" s="64"/>
+      <c r="A6" s="63"/>
       <c r="B6" s="31">
         <v>52</v>
       </c>
@@ -1664,12 +1661,16 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A7" s="64"/>
+      <c r="A7" s="63"/>
       <c r="B7" s="31">
         <v>3</v>
       </c>
-      <c r="C7" s="32"/>
-      <c r="D7" s="33"/>
+      <c r="C7" s="32">
+        <v>0</v>
+      </c>
+      <c r="D7" s="33">
+        <v>0</v>
+      </c>
       <c r="E7" s="33">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1699,13 +1700,18 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A8" s="65"/>
-      <c r="B8" s="36"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="38"/>
+      <c r="A8" s="64"/>
+      <c r="B8" s="36">
+        <v>4</v>
+      </c>
+      <c r="C8" s="37">
+        <v>2</v>
+      </c>
+      <c r="D8" s="38">
+        <v>2</v>
+      </c>
       <c r="E8" s="38">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F8" s="39"/>
       <c r="G8" s="40"/>
@@ -1713,22 +1719,24 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I8" s="49"/>
-      <c r="J8" s="50" t="e">
+      <c r="I8" s="49">
+        <v>1</v>
+      </c>
+      <c r="J8" s="50">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>0.5</v>
       </c>
       <c r="K8" s="51">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L8" s="52">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M8" s="53" t="e">
+        <v>2</v>
+      </c>
+      <c r="M8" s="53">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1746,7 +1754,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O300"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
@@ -1813,7 +1821,7 @@
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A2" s="66">
+      <c r="A2" s="65">
         <v>48</v>
       </c>
       <c r="B2" s="54">
@@ -1860,7 +1868,7 @@
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A3" s="74"/>
+      <c r="A3" s="73"/>
       <c r="B3" s="54">
         <v>43070</v>
       </c>
@@ -1905,7 +1913,7 @@
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A4" s="74"/>
+      <c r="A4" s="73"/>
       <c r="B4" s="54">
         <v>43070</v>
       </c>
@@ -1950,7 +1958,7 @@
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A5" s="67"/>
+      <c r="A5" s="66"/>
       <c r="B5" s="54">
         <v>43071</v>
       </c>
@@ -1995,7 +2003,7 @@
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A6" s="66">
+      <c r="A6" s="65">
         <v>49</v>
       </c>
       <c r="B6" s="54">
@@ -2042,7 +2050,7 @@
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A7" s="74"/>
+      <c r="A7" s="73"/>
       <c r="B7" s="54">
         <v>43077</v>
       </c>
@@ -2087,7 +2095,7 @@
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A8" s="74"/>
+      <c r="A8" s="73"/>
       <c r="B8" s="54"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -2104,7 +2112,7 @@
       <c r="O8" s="1"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A9" s="67"/>
+      <c r="A9" s="66"/>
       <c r="B9" s="1"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.15">
@@ -2155,7 +2163,7 @@
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A11" s="66">
+      <c r="A11" s="65">
         <v>52</v>
       </c>
       <c r="B11" s="54">
@@ -2202,7 +2210,7 @@
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A12" s="74"/>
+      <c r="A12" s="73"/>
       <c r="B12" s="54">
         <v>43095</v>
       </c>
@@ -2247,7 +2255,7 @@
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A13" s="74"/>
+      <c r="A13" s="73"/>
       <c r="B13" s="54">
         <v>43096</v>
       </c>
@@ -2292,7 +2300,7 @@
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A14" s="74"/>
+      <c r="A14" s="73"/>
       <c r="B14" s="54">
         <v>43096</v>
       </c>
@@ -2337,7 +2345,7 @@
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A15" s="67"/>
+      <c r="A15" s="66"/>
       <c r="B15" s="54">
         <v>43096</v>
       </c>
@@ -2382,45 +2390,45 @@
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A16" s="66">
+      <c r="A16" s="65">
         <v>1</v>
       </c>
-      <c r="B16" s="66" t="s">
+      <c r="B16" s="65" t="s">
         <v>78</v>
       </c>
-      <c r="C16" s="68"/>
-      <c r="D16" s="69"/>
-      <c r="E16" s="69"/>
-      <c r="F16" s="69"/>
-      <c r="G16" s="69"/>
-      <c r="H16" s="69"/>
-      <c r="I16" s="69"/>
-      <c r="J16" s="69"/>
-      <c r="K16" s="69"/>
-      <c r="L16" s="69"/>
-      <c r="M16" s="69"/>
-      <c r="N16" s="69"/>
-      <c r="O16" s="70"/>
+      <c r="C16" s="67"/>
+      <c r="D16" s="68"/>
+      <c r="E16" s="68"/>
+      <c r="F16" s="68"/>
+      <c r="G16" s="68"/>
+      <c r="H16" s="68"/>
+      <c r="I16" s="68"/>
+      <c r="J16" s="68"/>
+      <c r="K16" s="68"/>
+      <c r="L16" s="68"/>
+      <c r="M16" s="68"/>
+      <c r="N16" s="68"/>
+      <c r="O16" s="69"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A17" s="67"/>
-      <c r="B17" s="67"/>
-      <c r="C17" s="71"/>
-      <c r="D17" s="72"/>
-      <c r="E17" s="72"/>
-      <c r="F17" s="72"/>
-      <c r="G17" s="72"/>
-      <c r="H17" s="72"/>
-      <c r="I17" s="72"/>
-      <c r="J17" s="72"/>
-      <c r="K17" s="72"/>
-      <c r="L17" s="72"/>
-      <c r="M17" s="72"/>
-      <c r="N17" s="72"/>
-      <c r="O17" s="73"/>
+      <c r="A17" s="66"/>
+      <c r="B17" s="66"/>
+      <c r="C17" s="70"/>
+      <c r="D17" s="71"/>
+      <c r="E17" s="71"/>
+      <c r="F17" s="71"/>
+      <c r="G17" s="71"/>
+      <c r="H17" s="71"/>
+      <c r="I17" s="71"/>
+      <c r="J17" s="71"/>
+      <c r="K17" s="71"/>
+      <c r="L17" s="71"/>
+      <c r="M17" s="71"/>
+      <c r="N17" s="71"/>
+      <c r="O17" s="72"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A18" s="66">
+      <c r="A18" s="65">
         <v>2</v>
       </c>
       <c r="B18" s="54">
@@ -2467,7 +2475,7 @@
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A19" s="67"/>
+      <c r="A19" s="66"/>
       <c r="B19" s="54">
         <v>43109</v>
       </c>
@@ -2533,7 +2541,7 @@
       <c r="O20" s="1"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A21" s="66">
+      <c r="A21" s="65">
         <v>4</v>
       </c>
       <c r="B21" s="54">
@@ -2580,7 +2588,7 @@
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A22" s="67"/>
+      <c r="A22" s="66"/>
       <c r="B22" s="54">
         <v>43124</v>
       </c>
@@ -7386,7 +7394,7 @@
   <dimension ref="A1:G90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7423,76 +7431,136 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" s="66">
+    <row r="2" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A2" s="65">
+        <v>4</v>
+      </c>
+      <c r="B2" s="57" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" s="18">
+        <v>42744</v>
+      </c>
+      <c r="D2" s="56" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="55"/>
+      <c r="G2" s="55" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="74"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="55"/>
+      <c r="A3" s="73"/>
+      <c r="B3" s="58" t="s">
+        <v>93</v>
+      </c>
+      <c r="C3" s="18">
+        <v>42745</v>
+      </c>
+      <c r="D3" s="56" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G3" s="55" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="74"/>
-      <c r="B4" s="59" t="s">
-        <v>53</v>
+      <c r="A4" s="73"/>
+      <c r="B4" s="58" t="s">
+        <v>94</v>
       </c>
       <c r="C4" s="18">
-        <v>43089</v>
+        <v>42737</v>
       </c>
       <c r="D4" s="56" t="s">
         <v>48</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>49</v>
+        <v>96</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>51</v>
       </c>
       <c r="G4" s="55" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="73"/>
+      <c r="B5" s="58" t="s">
+        <v>95</v>
+      </c>
+      <c r="C5" s="18">
+        <v>43096</v>
+      </c>
+      <c r="D5" s="56" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G5" s="55" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="73"/>
+      <c r="B6" s="58" t="s">
+        <v>105</v>
+      </c>
+      <c r="C6" s="18">
+        <v>43124</v>
+      </c>
+      <c r="D6" s="56" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G6" s="55" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="74"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="74"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-    </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="74"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
+      <c r="A7" s="73"/>
+      <c r="B7" s="58" t="s">
+        <v>106</v>
+      </c>
+      <c r="C7" s="18">
+        <v>43124</v>
+      </c>
+      <c r="D7" s="56" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G7" s="55" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" s="74"/>
+      <c r="A8" s="73"/>
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
       <c r="D8" s="14"/>
@@ -7501,7 +7569,7 @@
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A9" s="74"/>
+      <c r="A9" s="73"/>
       <c r="B9" s="13"/>
       <c r="C9" s="13"/>
       <c r="D9" s="14"/>
@@ -7510,7 +7578,7 @@
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A10" s="74"/>
+      <c r="A10" s="73"/>
       <c r="B10" s="13"/>
       <c r="C10" s="13"/>
       <c r="D10" s="14"/>
@@ -7519,7 +7587,7 @@
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A11" s="74"/>
+      <c r="A11" s="73"/>
       <c r="B11" s="13"/>
       <c r="C11" s="13"/>
       <c r="D11" s="14"/>
@@ -7528,7 +7596,7 @@
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A12" s="74"/>
+      <c r="A12" s="73"/>
       <c r="B12" s="13"/>
       <c r="C12" s="13"/>
       <c r="D12" s="14"/>
@@ -7537,7 +7605,7 @@
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A13" s="67"/>
+      <c r="A13" s="66"/>
       <c r="B13" s="13"/>
       <c r="C13" s="13"/>
       <c r="D13" s="14"/>
@@ -7546,112 +7614,52 @@
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A14" s="66">
-        <v>3</v>
-      </c>
-      <c r="B14" s="58" t="s">
-        <v>91</v>
-      </c>
-      <c r="C14" s="18">
-        <v>42744</v>
-      </c>
-      <c r="D14" s="56" t="s">
-        <v>48</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G14" s="55" t="s">
-        <v>50</v>
-      </c>
+      <c r="A14" s="65"/>
+      <c r="B14" s="57"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="56"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="55"/>
     </row>
     <row r="15" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A15" s="74"/>
-      <c r="B15" s="58" t="s">
-        <v>92</v>
-      </c>
-      <c r="C15" s="18">
-        <v>42744</v>
-      </c>
-      <c r="D15" s="56" t="s">
-        <v>48</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G15" s="55" t="s">
-        <v>50</v>
-      </c>
+      <c r="A15" s="73"/>
+      <c r="B15" s="57"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="56"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="55"/>
     </row>
     <row r="16" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A16" s="74"/>
-      <c r="B16" s="59" t="s">
-        <v>93</v>
-      </c>
+      <c r="A16" s="73"/>
+      <c r="B16" s="58"/>
       <c r="C16" s="17"/>
-      <c r="D16" s="56" t="s">
-        <v>48</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G16" s="55" t="s">
-        <v>50</v>
-      </c>
+      <c r="D16" s="56"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="55"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="74"/>
-      <c r="B17" s="59" t="s">
-        <v>94</v>
-      </c>
-      <c r="C17" s="18">
-        <v>42737</v>
-      </c>
-      <c r="D17" s="56" t="s">
-        <v>48</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G17" s="55" t="s">
-        <v>97</v>
-      </c>
+      <c r="A17" s="73"/>
+      <c r="B17" s="58"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="56"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="55"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="74"/>
-      <c r="B18" s="59" t="s">
-        <v>95</v>
-      </c>
-      <c r="C18" s="18">
-        <v>43096</v>
-      </c>
-      <c r="D18" s="56" t="s">
-        <v>48</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G18" s="55" t="s">
-        <v>98</v>
-      </c>
+      <c r="A18" s="73"/>
+      <c r="B18" s="58"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="56"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="55"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A19" s="74"/>
+      <c r="A19" s="73"/>
       <c r="B19" s="13"/>
       <c r="C19" s="13"/>
       <c r="D19" s="56"/>
@@ -7660,7 +7668,7 @@
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A20" s="74"/>
+      <c r="A20" s="73"/>
       <c r="B20" s="13"/>
       <c r="C20" s="13"/>
       <c r="D20" s="14"/>
@@ -7669,7 +7677,7 @@
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21" s="74"/>
+      <c r="A21" s="73"/>
       <c r="B21" s="13"/>
       <c r="C21" s="13"/>
       <c r="D21" s="14"/>
@@ -7678,7 +7686,7 @@
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="74"/>
+      <c r="A22" s="73"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="14"/>
@@ -7687,7 +7695,7 @@
       <c r="G22" s="1"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A23" s="74"/>
+      <c r="A23" s="73"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="14"/>
@@ -7696,7 +7704,7 @@
       <c r="G23" s="1"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A24" s="74"/>
+      <c r="A24" s="73"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="14"/>
@@ -7705,7 +7713,7 @@
       <c r="G24" s="1"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A25" s="74"/>
+      <c r="A25" s="73"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="14"/>
@@ -7714,7 +7722,7 @@
       <c r="G25" s="1"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A26" s="67"/>
+      <c r="A26" s="66"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="14"/>
@@ -7723,7 +7731,7 @@
       <c r="G26" s="1"/>
     </row>
     <row r="27" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A27" s="66"/>
+      <c r="A27" s="65"/>
       <c r="B27" s="15"/>
       <c r="C27" s="17"/>
       <c r="D27" s="16"/>
@@ -7732,7 +7740,7 @@
       <c r="G27" s="15"/>
     </row>
     <row r="28" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A28" s="74"/>
+      <c r="A28" s="73"/>
       <c r="B28" s="13"/>
       <c r="C28" s="17"/>
       <c r="D28" s="16"/>
@@ -7741,7 +7749,7 @@
       <c r="G28" s="13"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A29" s="74"/>
+      <c r="A29" s="73"/>
       <c r="B29" s="13"/>
       <c r="C29" s="13"/>
       <c r="D29" s="14"/>
@@ -7750,7 +7758,7 @@
       <c r="G29" s="1"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A30" s="74"/>
+      <c r="A30" s="73"/>
       <c r="B30" s="13"/>
       <c r="C30" s="13"/>
       <c r="D30" s="14"/>
@@ -7759,7 +7767,7 @@
       <c r="G30" s="1"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A31" s="74"/>
+      <c r="A31" s="73"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="14"/>
@@ -7768,7 +7776,7 @@
       <c r="G31" s="1"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A32" s="74"/>
+      <c r="A32" s="73"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="14"/>
@@ -7777,7 +7785,7 @@
       <c r="G32" s="1"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A33" s="74"/>
+      <c r="A33" s="73"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="14"/>
@@ -7786,7 +7794,7 @@
       <c r="G33" s="1"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A34" s="74"/>
+      <c r="A34" s="73"/>
       <c r="B34" s="13"/>
       <c r="C34" s="13"/>
       <c r="D34" s="14"/>
@@ -7795,7 +7803,7 @@
       <c r="G34" s="1"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A35" s="74"/>
+      <c r="A35" s="73"/>
       <c r="B35" s="13"/>
       <c r="C35" s="13"/>
       <c r="D35" s="14"/>
@@ -7804,7 +7812,7 @@
       <c r="G35" s="1"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A36" s="74"/>
+      <c r="A36" s="73"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="14"/>
@@ -7813,7 +7821,7 @@
       <c r="G36" s="1"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A37" s="74"/>
+      <c r="A37" s="73"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="14"/>
@@ -7822,7 +7830,7 @@
       <c r="G37" s="1"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A38" s="74"/>
+      <c r="A38" s="73"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="14"/>
@@ -7831,7 +7839,7 @@
       <c r="G38" s="1"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A39" s="74"/>
+      <c r="A39" s="73"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="14"/>
@@ -7840,7 +7848,7 @@
       <c r="G39" s="1"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A40" s="74"/>
+      <c r="A40" s="73"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="14"/>
@@ -7849,7 +7857,7 @@
       <c r="G40" s="1"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A41" s="67"/>
+      <c r="A41" s="66"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="14"/>
@@ -7858,7 +7866,7 @@
       <c r="G41" s="1"/>
     </row>
     <row r="42" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A42" s="66"/>
+      <c r="A42" s="65"/>
       <c r="B42" s="13"/>
       <c r="C42" s="17"/>
       <c r="D42" s="16"/>
@@ -7867,7 +7875,7 @@
       <c r="G42" s="13"/>
     </row>
     <row r="43" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A43" s="74"/>
+      <c r="A43" s="73"/>
       <c r="B43" s="13"/>
       <c r="C43" s="18"/>
       <c r="D43" s="16"/>
@@ -7876,7 +7884,7 @@
       <c r="G43" s="8"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A44" s="74"/>
+      <c r="A44" s="73"/>
       <c r="B44" s="13"/>
       <c r="C44" s="13"/>
       <c r="D44" s="14"/>
@@ -7885,7 +7893,7 @@
       <c r="G44" s="1"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A45" s="74"/>
+      <c r="A45" s="73"/>
       <c r="B45" s="13"/>
       <c r="C45" s="13"/>
       <c r="D45" s="14"/>
@@ -7894,7 +7902,7 @@
       <c r="G45" s="1"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A46" s="74"/>
+      <c r="A46" s="73"/>
       <c r="B46" s="13"/>
       <c r="C46" s="13"/>
       <c r="D46" s="14"/>
@@ -7903,7 +7911,7 @@
       <c r="G46" s="1"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A47" s="74"/>
+      <c r="A47" s="73"/>
       <c r="B47" s="13"/>
       <c r="C47" s="13"/>
       <c r="D47" s="14"/>
@@ -7912,7 +7920,7 @@
       <c r="G47" s="1"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A48" s="74"/>
+      <c r="A48" s="73"/>
       <c r="B48" s="13"/>
       <c r="C48" s="13"/>
       <c r="D48" s="14"/>
@@ -7921,7 +7929,7 @@
       <c r="G48" s="1"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A49" s="74"/>
+      <c r="A49" s="73"/>
       <c r="B49" s="13"/>
       <c r="C49" s="13"/>
       <c r="D49" s="14"/>
@@ -7930,7 +7938,7 @@
       <c r="G49" s="1"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A50" s="74"/>
+      <c r="A50" s="73"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="14"/>
@@ -7939,7 +7947,7 @@
       <c r="G50" s="1"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A51" s="74"/>
+      <c r="A51" s="73"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="14"/>
@@ -7948,7 +7956,7 @@
       <c r="G51" s="1"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A52" s="74"/>
+      <c r="A52" s="73"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="14"/>
@@ -7957,7 +7965,7 @@
       <c r="G52" s="1"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A53" s="74"/>
+      <c r="A53" s="73"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="14"/>
@@ -7966,7 +7974,7 @@
       <c r="G53" s="1"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A54" s="74"/>
+      <c r="A54" s="73"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="14"/>
@@ -7975,7 +7983,7 @@
       <c r="G54" s="1"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A55" s="74"/>
+      <c r="A55" s="73"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="14"/>
@@ -7984,7 +7992,7 @@
       <c r="G55" s="1"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A56" s="67"/>
+      <c r="A56" s="66"/>
       <c r="B56" s="13"/>
       <c r="C56" s="13"/>
       <c r="D56" s="14"/>
@@ -7993,7 +8001,7 @@
       <c r="G56" s="1"/>
     </row>
     <row r="57" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A57" s="66"/>
+      <c r="A57" s="65"/>
       <c r="B57" s="13"/>
       <c r="C57" s="17"/>
       <c r="D57" s="16"/>
@@ -8002,7 +8010,7 @@
       <c r="G57" s="13"/>
     </row>
     <row r="58" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A58" s="74"/>
+      <c r="A58" s="73"/>
       <c r="B58" s="13"/>
       <c r="C58" s="18"/>
       <c r="D58" s="16"/>
@@ -8011,7 +8019,7 @@
       <c r="G58" s="8"/>
     </row>
     <row r="59" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A59" s="74"/>
+      <c r="A59" s="73"/>
       <c r="B59" s="13"/>
       <c r="C59" s="18"/>
       <c r="D59" s="16"/>
@@ -8020,7 +8028,7 @@
       <c r="G59" s="8"/>
     </row>
     <row r="60" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A60" s="74"/>
+      <c r="A60" s="73"/>
       <c r="B60" s="13"/>
       <c r="C60" s="18"/>
       <c r="D60" s="16"/>
@@ -8029,7 +8037,7 @@
       <c r="G60" s="19"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A61" s="74"/>
+      <c r="A61" s="73"/>
       <c r="B61" s="13"/>
       <c r="C61" s="13"/>
       <c r="D61" s="14"/>
@@ -8038,7 +8046,7 @@
       <c r="G61" s="1"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A62" s="74"/>
+      <c r="A62" s="73"/>
       <c r="B62" s="13"/>
       <c r="C62" s="13"/>
       <c r="D62" s="14"/>
@@ -8047,7 +8055,7 @@
       <c r="G62" s="1"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A63" s="74"/>
+      <c r="A63" s="73"/>
       <c r="B63" s="13"/>
       <c r="C63" s="13"/>
       <c r="D63" s="14"/>
@@ -8056,7 +8064,7 @@
       <c r="G63" s="1"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A64" s="74"/>
+      <c r="A64" s="73"/>
       <c r="B64" s="13"/>
       <c r="C64" s="13"/>
       <c r="D64" s="14"/>
@@ -8065,7 +8073,7 @@
       <c r="G64" s="1"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A65" s="74"/>
+      <c r="A65" s="73"/>
       <c r="B65" s="13"/>
       <c r="C65" s="13"/>
       <c r="D65" s="14"/>
@@ -8074,7 +8082,7 @@
       <c r="G65" s="1"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A66" s="74"/>
+      <c r="A66" s="73"/>
       <c r="B66" s="13"/>
       <c r="C66" s="13"/>
       <c r="D66" s="14"/>
@@ -8083,7 +8091,7 @@
       <c r="G66" s="1"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A67" s="74"/>
+      <c r="A67" s="73"/>
       <c r="B67" s="13"/>
       <c r="C67" s="13"/>
       <c r="D67" s="14"/>
@@ -8092,7 +8100,7 @@
       <c r="G67" s="1"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A68" s="67"/>
+      <c r="A68" s="66"/>
       <c r="B68" s="13"/>
       <c r="C68" s="13"/>
       <c r="D68" s="14"/>
@@ -8101,7 +8109,7 @@
       <c r="G68" s="1"/>
     </row>
     <row r="69" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A69" s="66"/>
+      <c r="A69" s="65"/>
       <c r="B69" s="13"/>
       <c r="C69" s="17"/>
       <c r="D69" s="16"/>
@@ -8110,7 +8118,7 @@
       <c r="G69" s="13"/>
     </row>
     <row r="70" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A70" s="74"/>
+      <c r="A70" s="73"/>
       <c r="B70" s="13"/>
       <c r="C70" s="18"/>
       <c r="D70" s="16"/>
@@ -8119,7 +8127,7 @@
       <c r="G70" s="8"/>
     </row>
     <row r="71" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A71" s="74"/>
+      <c r="A71" s="73"/>
       <c r="B71" s="13"/>
       <c r="C71" s="18"/>
       <c r="D71" s="16"/>
@@ -8128,7 +8136,7 @@
       <c r="G71" s="8"/>
     </row>
     <row r="72" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A72" s="74"/>
+      <c r="A72" s="73"/>
       <c r="B72" s="13"/>
       <c r="C72" s="18"/>
       <c r="D72" s="16"/>
@@ -8137,7 +8145,7 @@
       <c r="G72" s="19"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A73" s="74"/>
+      <c r="A73" s="73"/>
       <c r="B73" s="13"/>
       <c r="C73" s="13"/>
       <c r="D73" s="14"/>
@@ -8146,7 +8154,7 @@
       <c r="G73" s="1"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A74" s="74"/>
+      <c r="A74" s="73"/>
       <c r="B74" s="13"/>
       <c r="C74" s="13"/>
       <c r="D74" s="14"/>
@@ -8155,7 +8163,7 @@
       <c r="G74" s="1"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A75" s="74"/>
+      <c r="A75" s="73"/>
       <c r="B75" s="13"/>
       <c r="C75" s="13"/>
       <c r="D75" s="14"/>
@@ -8164,7 +8172,7 @@
       <c r="G75" s="1"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A76" s="74"/>
+      <c r="A76" s="73"/>
       <c r="B76" s="13"/>
       <c r="C76" s="13"/>
       <c r="D76" s="14"/>
@@ -8173,7 +8181,7 @@
       <c r="G76" s="1"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A77" s="74"/>
+      <c r="A77" s="73"/>
       <c r="B77" s="13"/>
       <c r="C77" s="13"/>
       <c r="D77" s="14"/>
@@ -8182,7 +8190,7 @@
       <c r="G77" s="1"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A78" s="74"/>
+      <c r="A78" s="73"/>
       <c r="B78" s="13"/>
       <c r="C78" s="13"/>
       <c r="D78" s="14"/>
@@ -8191,7 +8199,7 @@
       <c r="G78" s="1"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A79" s="74"/>
+      <c r="A79" s="73"/>
       <c r="B79" s="13"/>
       <c r="C79" s="13"/>
       <c r="D79" s="14"/>
@@ -8200,7 +8208,7 @@
       <c r="G79" s="1"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A80" s="67"/>
+      <c r="A80" s="66"/>
       <c r="B80" s="13"/>
       <c r="C80" s="13"/>
       <c r="D80" s="14"/>
@@ -8209,7 +8217,7 @@
       <c r="G80" s="1"/>
     </row>
     <row r="81" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A81" s="74"/>
+      <c r="A81" s="73"/>
       <c r="B81" s="13"/>
       <c r="C81" s="18"/>
       <c r="D81" s="16"/>
@@ -8218,7 +8226,7 @@
       <c r="G81" s="8"/>
     </row>
     <row r="82" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A82" s="74"/>
+      <c r="A82" s="73"/>
       <c r="B82" s="13"/>
       <c r="C82" s="18"/>
       <c r="D82" s="16"/>
@@ -8227,7 +8235,7 @@
       <c r="G82" s="19"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A83" s="74"/>
+      <c r="A83" s="73"/>
       <c r="B83" s="13"/>
       <c r="C83" s="13"/>
       <c r="D83" s="14"/>
@@ -8236,7 +8244,7 @@
       <c r="G83" s="1"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A84" s="74"/>
+      <c r="A84" s="73"/>
       <c r="B84" s="13"/>
       <c r="C84" s="13"/>
       <c r="D84" s="14"/>
@@ -8245,7 +8253,7 @@
       <c r="G84" s="1"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A85" s="74"/>
+      <c r="A85" s="73"/>
       <c r="B85" s="13"/>
       <c r="C85" s="13"/>
       <c r="D85" s="14"/>
@@ -8254,7 +8262,7 @@
       <c r="G85" s="1"/>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A86" s="74"/>
+      <c r="A86" s="73"/>
       <c r="B86" s="13"/>
       <c r="C86" s="13"/>
       <c r="D86" s="14"/>
@@ -8263,7 +8271,7 @@
       <c r="G86" s="1"/>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A87" s="74"/>
+      <c r="A87" s="73"/>
       <c r="B87" s="13"/>
       <c r="C87" s="13"/>
       <c r="D87" s="14"/>
@@ -8272,7 +8280,7 @@
       <c r="G87" s="1"/>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A88" s="74"/>
+      <c r="A88" s="73"/>
       <c r="B88" s="13"/>
       <c r="C88" s="13"/>
       <c r="D88" s="14"/>
@@ -8281,7 +8289,7 @@
       <c r="G88" s="1"/>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A89" s="74"/>
+      <c r="A89" s="73"/>
       <c r="B89" s="13"/>
       <c r="C89" s="13"/>
       <c r="D89" s="14"/>
@@ -8290,7 +8298,7 @@
       <c r="G89" s="1"/>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A90" s="67"/>
+      <c r="A90" s="66"/>
       <c r="B90" s="13"/>
       <c r="C90" s="13"/>
       <c r="D90" s="14"/>

--- a/周数据/《个人上线率统计表》-潘辰.xlsx
+++ b/周数据/《个人上线率统计表》-潘辰.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21300" windowHeight="9330"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21300" windowHeight="9330" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="项目数据分析表" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="109">
   <si>
     <t>个人上线率分析表</t>
   </si>
@@ -382,6 +382,14 @@
   </si>
   <si>
     <t>京茶山手作茶物（凤凰西街店）</t>
+  </si>
+  <si>
+    <t>汕头</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>京茶山手作茶物（汕头店）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1426,7 +1434,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
@@ -1516,7 +1524,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="33">
-        <f t="shared" ref="E3:E8" si="0">C3-D3</f>
+        <f t="shared" ref="E3:E7" si="0">C3-D3</f>
         <v>3</v>
       </c>
       <c r="F3" s="34"/>
@@ -1754,8 +1762,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O300"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="O22" sqref="O22"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2633,21 +2641,51 @@
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
-      <c r="O23" s="1"/>
+      <c r="A23" s="8">
+        <v>5</v>
+      </c>
+      <c r="B23" s="54">
+        <v>43131</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F23" s="55" t="s">
+        <v>107</v>
+      </c>
+      <c r="G23" s="1">
+        <v>76122628</v>
+      </c>
+      <c r="H23" s="55" t="s">
+        <v>108</v>
+      </c>
+      <c r="I23" s="55" t="s">
+        <v>39</v>
+      </c>
+      <c r="J23" s="55" t="s">
+        <v>41</v>
+      </c>
+      <c r="K23" s="1">
+        <v>18251920657</v>
+      </c>
+      <c r="L23" s="55" t="s">
+        <v>73</v>
+      </c>
+      <c r="M23" s="55" t="s">
+        <v>74</v>
+      </c>
+      <c r="N23" s="1">
+        <v>15189977010</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A24" s="1"/>
@@ -7377,7 +7415,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1">
       <formula1>"SaaS,库存,供应链,饮食通,饮食通老客户上线"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F15 F20 F23:F65536">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F15 F20 F24:F65536">
       <formula1>"单店,小连锁,KA项目"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O8 O10:O15 O18:O65536">

--- a/周数据/《个人上线率统计表》-潘辰.xlsx
+++ b/周数据/《个人上线率统计表》-潘辰.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21300" windowHeight="9330" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21300" windowHeight="9330" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="项目数据分析表" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="104">
   <si>
     <t>个人上线率分析表</t>
   </si>
@@ -329,30 +329,10 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>京茶山手作茶物（汕头店）</t>
-  </si>
-  <si>
     <t>京茶山手作茶物（南通名都店）</t>
   </si>
   <si>
     <t>京茶山手作茶物（南通南大街店）</t>
-  </si>
-  <si>
-    <t>蛙爵记</t>
-  </si>
-  <si>
-    <t>花食间花艺</t>
-  </si>
-  <si>
-    <t>单店</t>
-  </si>
-  <si>
-    <t>沈芳芳</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>李雪磊</t>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>清溪川韩国烤肉</t>
@@ -389,6 +369,10 @@
   </si>
   <si>
     <t>京茶山手作茶物（汕头店）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>京茶山手作茶物（龙岩新罗店）</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -1762,8 +1746,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O300"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2559,10 +2543,10 @@
         <v>37</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="F21" s="55" t="s">
         <v>39</v>
@@ -2571,22 +2555,22 @@
         <v>76127081</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="I21" s="55" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="J21" s="55" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="K21" s="1">
         <v>18251920657</v>
       </c>
       <c r="L21" s="55" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="M21" s="55" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="N21" s="1">
         <v>18651861349</v>
@@ -2610,13 +2594,13 @@
         <v>64</v>
       </c>
       <c r="F22" s="55" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="G22" s="1">
         <v>76122869</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I22" s="55" t="s">
         <v>39</v>
@@ -2657,13 +2641,13 @@
         <v>64</v>
       </c>
       <c r="F23" s="55" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="G23" s="1">
         <v>76122628</v>
       </c>
       <c r="H23" s="55" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="I23" s="55" t="s">
         <v>39</v>
@@ -2688,7 +2672,9 @@
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A24" s="1"/>
+      <c r="A24" s="1">
+        <v>8</v>
+      </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -7431,8 +7417,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G90"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7471,10 +7457,10 @@
     </row>
     <row r="2" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2" s="65">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B2" s="57" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="C2" s="18">
         <v>42744</v>
@@ -7495,7 +7481,7 @@
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="73"/>
       <c r="B3" s="58" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C3" s="18">
         <v>42745</v>
@@ -7516,86 +7502,62 @@
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="73"/>
       <c r="B4" s="58" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C4" s="18">
-        <v>42737</v>
+        <v>43124</v>
       </c>
       <c r="D4" s="56" t="s">
         <v>48</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>96</v>
+        <v>49</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>51</v>
       </c>
       <c r="G4" s="55" t="s">
-        <v>97</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="73"/>
       <c r="B5" s="58" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="C5" s="18">
-        <v>43096</v>
+        <v>43124</v>
       </c>
       <c r="D5" s="56" t="s">
         <v>48</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>96</v>
+        <v>49</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>51</v>
       </c>
       <c r="G5" s="55" t="s">
-        <v>98</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="73"/>
-      <c r="B6" s="58" t="s">
-        <v>105</v>
-      </c>
-      <c r="C6" s="18">
-        <v>43124</v>
-      </c>
-      <c r="D6" s="56" t="s">
-        <v>48</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G6" s="55" t="s">
-        <v>50</v>
-      </c>
+      <c r="B6" s="58"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="55"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="73"/>
-      <c r="B7" s="58" t="s">
-        <v>106</v>
-      </c>
-      <c r="C7" s="18">
-        <v>43124</v>
-      </c>
-      <c r="D7" s="56" t="s">
-        <v>48</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G7" s="55" t="s">
-        <v>50</v>
-      </c>
+      <c r="B7" s="58"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="55"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="73"/>

--- a/周数据/《个人上线率统计表》-潘辰.xlsx
+++ b/周数据/《个人上线率统计表》-潘辰.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\hualala\NanJing\周数据\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{AFBE4489-63B8-4C9A-AD28-1CFE2D74E1B2}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21300" windowHeight="9330" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21300" windowHeight="9330" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="项目数据分析表" sheetId="2" r:id="rId1"/>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="111">
   <si>
     <t>个人上线率分析表</t>
   </si>
@@ -373,14 +374,42 @@
   </si>
   <si>
     <t>京茶山手作茶物（龙岩新罗店）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>京茶山</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>成都</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>京茶山手作茶物（南通八仙城店）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>福建</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>京茶山手作茶物（成都天益街店）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>京茶山手作茶物（凤凰西街店）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>京茶山手作茶物（南通启东店）</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="11" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -453,6 +482,19 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -918,7 +960,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1140,6 +1182,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1415,7 +1466,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1743,11 +1794,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O300"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1758,7 +1809,7 @@
     <col min="5" max="5" width="30.25" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
     <col min="7" max="7" width="15.5" customWidth="1"/>
-    <col min="8" max="8" width="30" customWidth="1"/>
+    <col min="8" max="8" width="33.125" customWidth="1"/>
     <col min="9" max="9" width="9.875" customWidth="1"/>
     <col min="10" max="10" width="13.875" customWidth="1"/>
     <col min="11" max="11" width="18" customWidth="1"/>
@@ -2672,9 +2723,7 @@
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A24" s="1">
-        <v>8</v>
-      </c>
+      <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -2690,90 +2739,240 @@
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
-      <c r="O25" s="1"/>
+    <row r="25" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A25" s="8">
+        <v>15</v>
+      </c>
+      <c r="B25" s="54">
+        <v>43198</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E25" s="55" t="s">
+        <v>104</v>
+      </c>
+      <c r="F25" s="55" t="s">
+        <v>107</v>
+      </c>
+      <c r="G25" s="1">
+        <v>76128810</v>
+      </c>
+      <c r="H25" s="76" t="s">
+        <v>103</v>
+      </c>
+      <c r="I25" s="55" t="s">
+        <v>39</v>
+      </c>
+      <c r="J25" s="55" t="s">
+        <v>41</v>
+      </c>
+      <c r="K25" s="1">
+        <v>18251920657</v>
+      </c>
+      <c r="L25" s="55" t="s">
+        <v>73</v>
+      </c>
+      <c r="M25" s="55" t="s">
+        <v>74</v>
+      </c>
+      <c r="N25" s="1">
+        <v>15189977010</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
-      <c r="O26" s="1"/>
+      <c r="A26" s="8">
+        <v>15</v>
+      </c>
+      <c r="B26" s="54">
+        <v>43198</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E26" s="55" t="s">
+        <v>104</v>
+      </c>
+      <c r="F26" s="55" t="s">
+        <v>98</v>
+      </c>
+      <c r="G26" s="1">
+        <v>76123630</v>
+      </c>
+      <c r="H26" s="74" t="s">
+        <v>106</v>
+      </c>
+      <c r="I26" s="55" t="s">
+        <v>39</v>
+      </c>
+      <c r="J26" s="55" t="s">
+        <v>41</v>
+      </c>
+      <c r="K26" s="1">
+        <v>18251920657</v>
+      </c>
+      <c r="L26" s="55" t="s">
+        <v>73</v>
+      </c>
+      <c r="M26" s="55" t="s">
+        <v>74</v>
+      </c>
+      <c r="N26" s="1">
+        <v>15189977010</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
-      <c r="O27" s="1"/>
+      <c r="A27" s="8">
+        <v>15</v>
+      </c>
+      <c r="B27" s="54">
+        <v>43198</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E27" s="55" t="s">
+        <v>104</v>
+      </c>
+      <c r="F27" s="55" t="s">
+        <v>105</v>
+      </c>
+      <c r="G27" s="75">
+        <v>76128369</v>
+      </c>
+      <c r="H27" s="74" t="s">
+        <v>108</v>
+      </c>
+      <c r="I27" s="55" t="s">
+        <v>39</v>
+      </c>
+      <c r="J27" s="55" t="s">
+        <v>41</v>
+      </c>
+      <c r="K27" s="1">
+        <v>18251920657</v>
+      </c>
+      <c r="L27" s="55" t="s">
+        <v>73</v>
+      </c>
+      <c r="M27" s="55" t="s">
+        <v>74</v>
+      </c>
+      <c r="N27" s="1">
+        <v>15189977010</v>
+      </c>
+      <c r="O27" s="1" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
-      <c r="O28" s="1"/>
+      <c r="A28" s="8">
+        <v>15</v>
+      </c>
+      <c r="B28" s="54">
+        <v>43198</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E28" s="55" t="s">
+        <v>104</v>
+      </c>
+      <c r="F28" s="55" t="s">
+        <v>39</v>
+      </c>
+      <c r="G28" s="75">
+        <v>76126516</v>
+      </c>
+      <c r="H28" s="74" t="s">
+        <v>109</v>
+      </c>
+      <c r="I28" s="55" t="s">
+        <v>39</v>
+      </c>
+      <c r="J28" s="55" t="s">
+        <v>41</v>
+      </c>
+      <c r="K28" s="1">
+        <v>18251920657</v>
+      </c>
+      <c r="L28" s="55" t="s">
+        <v>73</v>
+      </c>
+      <c r="M28" s="55" t="s">
+        <v>74</v>
+      </c>
+      <c r="N28" s="1">
+        <v>15189977010</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
-      <c r="O29" s="1"/>
+      <c r="A29" s="8">
+        <v>15</v>
+      </c>
+      <c r="B29" s="54">
+        <v>43198</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E29" s="55" t="s">
+        <v>104</v>
+      </c>
+      <c r="F29" s="55" t="s">
+        <v>98</v>
+      </c>
+      <c r="G29" s="75">
+        <v>76153981</v>
+      </c>
+      <c r="H29" s="74" t="s">
+        <v>110</v>
+      </c>
+      <c r="I29" s="55" t="s">
+        <v>39</v>
+      </c>
+      <c r="J29" s="55" t="s">
+        <v>41</v>
+      </c>
+      <c r="K29" s="1">
+        <v>18251920657</v>
+      </c>
+      <c r="L29" s="55" t="s">
+        <v>73</v>
+      </c>
+      <c r="M29" s="55" t="s">
+        <v>74</v>
+      </c>
+      <c r="N29" s="1">
+        <v>15189977010</v>
+      </c>
+      <c r="O29" s="1" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A30" s="1"/>
@@ -7395,16 +7594,16 @@
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1">
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>42736</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"SaaS,库存,供应链,饮食通,饮食通老客户上线"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F15 F20 F24:F65536">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F15 F20 F30:F65536 F24" xr:uid="{00000000-0002-0000-0100-000002000000}">
       <formula1>"单店,小连锁,KA项目"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O8 O10:O15 O18:O65536">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O8 O10:O15 O18:O65536" xr:uid="{00000000-0002-0000-0100-000003000000}">
       <formula1>"新品牌,老品牌"</formula1>
     </dataValidation>
   </dataValidations>
@@ -7414,11 +7613,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G90"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8318,11 +8517,11 @@
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E65536">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1" xr:uid="{00000000-0002-0000-0200-000000000000}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E65536" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>"单店,连锁,KA,供应链"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="saas" sqref="F2:F65536">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="saas" sqref="F2:F65536" xr:uid="{00000000-0002-0000-0200-000002000000}">
       <formula1>"SAAS,供应链,SAAS+微信,SAAS+供应链,SAAS+微信+供应链"</formula1>
     </dataValidation>
   </dataValidations>
@@ -8332,7 +8531,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
